--- a/results/resultEditedMer.xlsx
+++ b/results/resultEditedMer.xlsx
@@ -1766,4804 +1766,4804 @@
     <t>number of iterations = 100.000000</t>
   </si>
   <si>
-    <t>0.961077279565795</t>
-  </si>
-  <si>
-    <t>0.148707150114511</t>
-  </si>
-  <si>
-    <t>28.8491933315092</t>
-  </si>
-  <si>
-    <t>0.0862008201371202</t>
-  </si>
-  <si>
-    <t>-0.185231151149472</t>
-  </si>
-  <si>
-    <t>456.956897055755</t>
-  </si>
-  <si>
-    <t>0.122100275374463</t>
-  </si>
-  <si>
-    <t>-0.0941497914225161</t>
-  </si>
-  <si>
-    <t>108.589361981011</t>
-  </si>
-  <si>
-    <t>0.00889435298142131</t>
-  </si>
-  <si>
-    <t>0.0209836283558258</t>
-  </si>
-  <si>
-    <t>0.968453183505204</t>
-  </si>
-  <si>
-    <t>0.163365109077701</t>
-  </si>
-  <si>
-    <t>0.960727099052621</t>
-  </si>
-  <si>
-    <t>2.09499170879991</t>
-  </si>
-  <si>
-    <t>0.206108256931092</t>
-  </si>
-  <si>
-    <t>39.3497226044406</t>
-  </si>
-  <si>
-    <t>0.0667507201849585</t>
-  </si>
-  <si>
-    <t>-0.19567055410961</t>
-  </si>
-  <si>
-    <t>385.645523478093</t>
-  </si>
-  <si>
-    <t>0.12429114660389</t>
-  </si>
-  <si>
-    <t>-0.0957291431083909</t>
-  </si>
-  <si>
-    <t>99.4428479938906</t>
-  </si>
-  <si>
-    <t>0.00976392008635759</t>
-  </si>
-  <si>
-    <t>0.0178149930710821</t>
-  </si>
-  <si>
-    <t>0.968505150358387</t>
-  </si>
-  <si>
-    <t>0.146802876845242</t>
-  </si>
-  <si>
-    <t>0.964516220541571</t>
-  </si>
-  <si>
-    <t>7.29890453901751e-06</t>
-  </si>
-  <si>
-    <t>5.63899611090361</t>
-  </si>
-  <si>
-    <t>0.961551352848799</t>
-  </si>
-  <si>
-    <t>3.2174497481601e-05</t>
-  </si>
-  <si>
-    <t>5.12986584680751</t>
-  </si>
-  <si>
-    <t>90.2305138211241</t>
-  </si>
-  <si>
-    <t>0.0108230561320178</t>
-  </si>
-  <si>
-    <t>0.0194837785403984</t>
-  </si>
-  <si>
-    <t>0.962268046725348</t>
-  </si>
-  <si>
-    <t>0.138207164852194</t>
-  </si>
-  <si>
-    <t>0.960616455390406</t>
-  </si>
-  <si>
-    <t>5.86570576018524e-07</t>
-  </si>
-  <si>
-    <t>6.06486684518421</t>
-  </si>
-  <si>
-    <t>0.978751214446448</t>
-  </si>
-  <si>
-    <t>3.07354111610427e-06</t>
-  </si>
-  <si>
-    <t>5.70082082566352</t>
-  </si>
-  <si>
-    <t>0.956308191900713</t>
-  </si>
-  <si>
-    <t>0.114696693479116</t>
-  </si>
-  <si>
-    <t>0.95905133274645</t>
-  </si>
-  <si>
-    <t>1169.0123485714</t>
-  </si>
-  <si>
-    <t>0.888082310088026</t>
-  </si>
-  <si>
-    <t>-222.395260588709</t>
-  </si>
-  <si>
-    <t>-0.0119742173411055</t>
-  </si>
-  <si>
-    <t>-0.184154055579011</t>
-  </si>
-  <si>
-    <t>6.8095641822708</t>
-  </si>
-  <si>
-    <t>1.49660392891418</t>
-  </si>
-  <si>
-    <t>-0.135629852145796</t>
-  </si>
-  <si>
-    <t>68.0368574289372</t>
-  </si>
-  <si>
-    <t>0.0143397492781648</t>
-  </si>
-  <si>
-    <t>0.0187708926236923</t>
-  </si>
-  <si>
-    <t>0.965272618683439</t>
-  </si>
-  <si>
-    <t>0.16324709196587</t>
-  </si>
-  <si>
-    <t>0.970055713871522</t>
-  </si>
-  <si>
-    <t>40.5353141876494</t>
-  </si>
-  <si>
-    <t>0.489914424144228</t>
-  </si>
-  <si>
-    <t>4.7434558425596</t>
-  </si>
-  <si>
-    <t>1.1865051191874</t>
-  </si>
-  <si>
-    <t>-0.241908003875936</t>
-  </si>
-  <si>
-    <t>5.54600794208662</t>
-  </si>
-  <si>
-    <t>1.75636080851694</t>
-  </si>
-  <si>
-    <t>-0.13543735151777</t>
-  </si>
-  <si>
-    <t>32.9798385969624</t>
-  </si>
-  <si>
-    <t>0.0295806089840829</t>
-  </si>
-  <si>
-    <t>0.0221225756844418</t>
-  </si>
-  <si>
-    <t>0.964101121040289</t>
-  </si>
-  <si>
-    <t>0.154163133854464</t>
-  </si>
-  <si>
-    <t>1.7522537729731</t>
-  </si>
-  <si>
-    <t>4.34247996427985e-20</t>
-  </si>
-  <si>
-    <t>-0.123849353142343</t>
-  </si>
-  <si>
-    <t>0.960015067228332</t>
-  </si>
-  <si>
-    <t>9.30013678644085e-06</t>
-  </si>
-  <si>
-    <t>4.80319611970764</t>
-  </si>
-  <si>
-    <t>0.969142216232225</t>
-  </si>
-  <si>
-    <t>0.000156259076664585</t>
-  </si>
-  <si>
-    <t>4.21912393488403</t>
-  </si>
-  <si>
-    <t>12.719629985976</t>
-  </si>
-  <si>
-    <t>0.0792126573723689</t>
-  </si>
-  <si>
-    <t>0.0226908019880453</t>
-  </si>
-  <si>
-    <t>0.967232252990082</t>
-  </si>
-  <si>
-    <t>0.118401260053371</t>
-  </si>
-  <si>
-    <t>0.975343490949176</t>
-  </si>
-  <si>
-    <t>1.58919905823233e-06</t>
-  </si>
-  <si>
-    <t>5.92197745968997</t>
-  </si>
-  <si>
-    <t>0.9686245286054</t>
-  </si>
-  <si>
-    <t>1.37933539773416e-05</t>
-  </si>
-  <si>
-    <t>5.26616623037576</t>
-  </si>
-  <si>
-    <t>0.956754176524818</t>
-  </si>
-  <si>
-    <t>0.140824856989518</t>
-  </si>
-  <si>
-    <t>0.734962811029337</t>
-  </si>
-  <si>
-    <t>-0.692508148940017</t>
-  </si>
-  <si>
-    <t>0.00264278977294161</t>
-  </si>
-  <si>
-    <t>1.98630671173417</t>
-  </si>
-  <si>
-    <t>31.9901285285422</t>
-  </si>
-  <si>
-    <t>-0.625209549032922</t>
-  </si>
-  <si>
-    <t>1.96978836710104</t>
-  </si>
-  <si>
-    <t>20.0849889386877</t>
-  </si>
-  <si>
-    <t>-0.406801872789133</t>
-  </si>
-  <si>
-    <t>117.17566871516</t>
-  </si>
-  <si>
-    <t>0.00828271403227544</t>
-  </si>
-  <si>
-    <t>0.0174348120398934</t>
-  </si>
-  <si>
-    <t>0.966415721518868</t>
-  </si>
-  <si>
-    <t>0.125406239004577</t>
-  </si>
-  <si>
-    <t>0.95766193233406</t>
-  </si>
-  <si>
-    <t>46005.363468033</t>
-  </si>
-  <si>
-    <t>1.17789863597914</t>
-  </si>
-  <si>
-    <t>1.93198956520494</t>
-  </si>
-  <si>
-    <t>26.488718884546</t>
-  </si>
-  <si>
-    <t>-0.603440594453499</t>
-  </si>
-  <si>
-    <t>1626.82549563332</t>
-  </si>
-  <si>
-    <t>-0.0601150622518929</t>
-  </si>
-  <si>
-    <t>-0.0924935121771672</t>
-  </si>
-  <si>
-    <t>-9.20102083928665</t>
-  </si>
-  <si>
-    <t>-0.100259522901821</t>
-  </si>
-  <si>
-    <t>0.0175263564438284</t>
-  </si>
-  <si>
-    <t>0.973572090150118</t>
-  </si>
-  <si>
-    <t>0.162536687600369</t>
-  </si>
-  <si>
-    <t>0.962107449612357</t>
-  </si>
-  <si>
-    <t>35.954585302505</t>
-  </si>
-  <si>
-    <t>0.547018548175396</t>
-  </si>
-  <si>
-    <t>0.975930701664281</t>
-  </si>
-  <si>
-    <t>0.000647631392706252</t>
-  </si>
-  <si>
-    <t>3.93261397219738</t>
-  </si>
-  <si>
-    <t>0.971079180443782</t>
-  </si>
-  <si>
-    <t>0.000281019695189118</t>
-  </si>
-  <si>
-    <t>4.01864318724522</t>
-  </si>
-  <si>
-    <t>0.956662755448657</t>
-  </si>
-  <si>
-    <t>0.174571171363683</t>
-  </si>
-  <si>
-    <t>0.959943066381728</t>
-  </si>
-  <si>
-    <t>0.316652694595679</t>
-  </si>
-  <si>
-    <t>0.727343342089129</t>
-  </si>
-  <si>
-    <t>-0.694554545156965</t>
-  </si>
-  <si>
-    <t>0.00235073896598773</t>
-  </si>
-  <si>
-    <t>0.978994241125801</t>
-  </si>
-  <si>
-    <t>0.0466176411115567</t>
-  </si>
-  <si>
-    <t>1.58879475747231</t>
-  </si>
-  <si>
-    <t>2.04540386551974</t>
-  </si>
-  <si>
-    <t>15.1963433532051</t>
-  </si>
-  <si>
-    <t>-0.372872658466751</t>
-  </si>
-  <si>
-    <t>0.977731302718477</t>
-  </si>
-  <si>
-    <t>38.6698639713301</t>
-  </si>
-  <si>
-    <t>0.000691387917288654</t>
-  </si>
-  <si>
-    <t>0.959473651409446</t>
-  </si>
-  <si>
-    <t>0.302456216895191</t>
-  </si>
-  <si>
-    <t>0.96560529280389</t>
-  </si>
-  <si>
-    <t>542632.492641907</t>
-  </si>
-  <si>
-    <t>1.47959866556595</t>
-  </si>
-  <si>
-    <t>0.973321300228509</t>
-  </si>
-  <si>
-    <t>0.00933093340013018</t>
-  </si>
-  <si>
-    <t>2.87319988800378</t>
-  </si>
-  <si>
-    <t>0.976641042042599</t>
-  </si>
-  <si>
-    <t>-0.000232362096177953</t>
-  </si>
-  <si>
-    <t>-0.16879358116548</t>
-  </si>
-  <si>
-    <t>0.968185467912914</t>
-  </si>
-  <si>
-    <t>0.298942754982559</t>
-  </si>
-  <si>
-    <t>0.971090764689576</t>
-  </si>
-  <si>
-    <t>5305.99709287434</t>
-  </si>
-  <si>
-    <t>0.970695923591544</t>
-  </si>
-  <si>
-    <t>0.982591464724227</t>
-  </si>
-  <si>
-    <t>0.410624360449291</t>
-  </si>
-  <si>
-    <t>1.17059420524162</t>
-  </si>
-  <si>
-    <t>-16.3648398257121</t>
-  </si>
-  <si>
-    <t>-0.0580479862995512</t>
-  </si>
-  <si>
-    <t>0.0279685379014128</t>
-  </si>
-  <si>
-    <t>0.960999273761548</t>
-  </si>
-  <si>
-    <t>0.372380368528072</t>
-  </si>
-  <si>
-    <t>0.960629960067624</t>
-  </si>
-  <si>
-    <t>0.148091274696495</t>
-  </si>
-  <si>
-    <t>74.0592000207653</t>
-  </si>
-  <si>
-    <t>0.0369215099099549</t>
-  </si>
-  <si>
-    <t>-0.181926852147026</t>
-  </si>
-  <si>
-    <t>345.686894666241</t>
-  </si>
-  <si>
-    <t>0.120079961906915</t>
-  </si>
-  <si>
-    <t>-0.0966416127245997</t>
-  </si>
-  <si>
-    <t>166.452875765326</t>
-  </si>
-  <si>
-    <t>0.00573797798207896</t>
-  </si>
-  <si>
-    <t>0.0208363453411098</t>
-  </si>
-  <si>
-    <t>0.966005921147505</t>
-  </si>
-  <si>
-    <t>0.185840295980012</t>
-  </si>
-  <si>
-    <t>0.964137497028471</t>
-  </si>
-  <si>
-    <t>5.13082300040352</t>
-  </si>
-  <si>
-    <t>0.37368110805033</t>
-  </si>
-  <si>
-    <t>9.13147986952099</t>
-  </si>
-  <si>
-    <t>0.344522660372742</t>
-  </si>
-  <si>
-    <t>-0.217129912359867</t>
-  </si>
-  <si>
-    <t>109.210145927173</t>
-  </si>
-  <si>
-    <t>0.260891055659819</t>
-  </si>
-  <si>
-    <t>-0.0988369902858217</t>
-  </si>
-  <si>
-    <t>165.780120397903</t>
-  </si>
-  <si>
-    <t>0.00590813984044299</t>
-  </si>
-  <si>
-    <t>0.0200239859633401</t>
-  </si>
-  <si>
-    <t>0.968007688702525</t>
-  </si>
-  <si>
-    <t>0.136086171985177</t>
-  </si>
-  <si>
-    <t>0.958796310803875</t>
-  </si>
-  <si>
-    <t>1.65773704221377e-05</t>
-  </si>
-  <si>
-    <t>4.9517272457821</t>
-  </si>
-  <si>
-    <t>0.966886288390914</t>
-  </si>
-  <si>
-    <t>3.30127581486981e-05</t>
-  </si>
-  <si>
-    <t>4.80552765881305</t>
-  </si>
-  <si>
-    <t>97.6267992299292</t>
-  </si>
-  <si>
-    <t>0.0101612756302984</t>
-  </si>
-  <si>
-    <t>0.0222663591078645</t>
-  </si>
-  <si>
-    <t>0.971472334727736</t>
-  </si>
-  <si>
-    <t>0.129731488790648</t>
-  </si>
-  <si>
-    <t>0.967828670946476</t>
-  </si>
-  <si>
-    <t>3.51063522468114e-07</t>
-  </si>
-  <si>
-    <t>6.55118404437066</t>
-  </si>
-  <si>
-    <t>0.962053366251374</t>
-  </si>
-  <si>
-    <t>5.35474613336627e-06</t>
-  </si>
-  <si>
-    <t>5.61582909598955</t>
-  </si>
-  <si>
-    <t>0.958954804567401</t>
-  </si>
-  <si>
-    <t>0.131975051722165</t>
-  </si>
-  <si>
-    <t>0.963599835077098</t>
-  </si>
-  <si>
-    <t>8395.69718877672</t>
-  </si>
-  <si>
-    <t>0.967418115350385</t>
-  </si>
-  <si>
-    <t>29.5739940342207</t>
-  </si>
-  <si>
-    <t>0.0933499683902588</t>
-  </si>
-  <si>
-    <t>-0.184309026722592</t>
-  </si>
-  <si>
-    <t>15.5011590353736</t>
-  </si>
-  <si>
-    <t>0.676220715283473</t>
-  </si>
-  <si>
-    <t>-0.113949398413455</t>
-  </si>
-  <si>
-    <t>131.893012846819</t>
-  </si>
-  <si>
-    <t>0.00731846663518225</t>
-  </si>
-  <si>
-    <t>0.0198769797264029</t>
-  </si>
-  <si>
-    <t>0.968825785897648</t>
-  </si>
-  <si>
-    <t>0.16487706630091</t>
-  </si>
-  <si>
-    <t>0.978497610833034</t>
-  </si>
-  <si>
-    <t>29.7577329992268</t>
-  </si>
-  <si>
-    <t>0.559931826760158</t>
-  </si>
-  <si>
-    <t>20.2418453693373</t>
-  </si>
-  <si>
-    <t>0.165247223848847</t>
-  </si>
-  <si>
-    <t>-0.222607390338783</t>
-  </si>
-  <si>
-    <t>16.5308631536956</t>
-  </si>
-  <si>
-    <t>0.792080534538701</t>
-  </si>
-  <si>
-    <t>-0.113223441457722</t>
-  </si>
-  <si>
-    <t>16.4022737806638</t>
-  </si>
-  <si>
-    <t>0.0595281627225291</t>
-  </si>
-  <si>
-    <t>0.0188852393176706</t>
-  </si>
-  <si>
-    <t>0.961645277231752</t>
-  </si>
-  <si>
-    <t>0.137671996870093</t>
-  </si>
-  <si>
-    <t>0.959839538404777</t>
-  </si>
-  <si>
-    <t>5.20718668232502</t>
-  </si>
-  <si>
-    <t>0.296209966719489</t>
-  </si>
-  <si>
-    <t>0.963752509574225</t>
-  </si>
-  <si>
-    <t>0.000227858278581402</t>
-  </si>
-  <si>
-    <t>4.21182149424563</t>
-  </si>
-  <si>
-    <t>0.972611451763141</t>
-  </si>
-  <si>
-    <t>0.000179588872771157</t>
-  </si>
-  <si>
-    <t>4.32605627221762</t>
-  </si>
-  <si>
-    <t>13.2460369317961</t>
-  </si>
-  <si>
-    <t>0.0760755901628394</t>
-  </si>
-  <si>
-    <t>0.0186989158846532</t>
-  </si>
-  <si>
-    <t>0.962349370656937</t>
-  </si>
-  <si>
-    <t>0.16349743508365</t>
-  </si>
-  <si>
-    <t>0.952208402640492</t>
-  </si>
-  <si>
-    <t>6.71744680900403e-06</t>
-  </si>
-  <si>
-    <t>5.34794044384086</t>
-  </si>
-  <si>
-    <t>0.952859966619643</t>
-  </si>
-  <si>
-    <t>3.0713728393693e-05</t>
-  </si>
-  <si>
-    <t>5.028852388531</t>
-  </si>
-  <si>
-    <t>0.969859374486748</t>
-  </si>
-  <si>
-    <t>0.161600263824386</t>
-  </si>
-  <si>
-    <t>0.744821939315528</t>
-  </si>
-  <si>
-    <t>-0.696330122453956</t>
-  </si>
-  <si>
-    <t>0.00248456354660682</t>
-  </si>
-  <si>
-    <t>2.01260956079779</t>
-  </si>
-  <si>
-    <t>22.4747085449578</t>
-  </si>
-  <si>
-    <t>-0.578341594924775</t>
-  </si>
-  <si>
-    <t>20.9139999292801</t>
-  </si>
-  <si>
-    <t>0.617079802472492</t>
-  </si>
-  <si>
-    <t>-0.106972535358372</t>
-  </si>
-  <si>
-    <t>175.552260582203</t>
-  </si>
-  <si>
-    <t>0.0055315326233939</t>
-  </si>
-  <si>
-    <t>0.0235221279988259</t>
-  </si>
-  <si>
-    <t>0.973334396610185</t>
-  </si>
-  <si>
-    <t>0.151711805270253</t>
-  </si>
-  <si>
-    <t>0.958137695667624</t>
-  </si>
-  <si>
-    <t>9867.92140090666</t>
-  </si>
-  <si>
-    <t>1.14853544461189</t>
-  </si>
-  <si>
-    <t>1.95986234658688</t>
-  </si>
-  <si>
-    <t>27.4263385343459</t>
-  </si>
-  <si>
-    <t>-0.587319581716735</t>
-  </si>
-  <si>
-    <t>429.34525375403</t>
-  </si>
-  <si>
-    <t>-0.100139324298788</t>
-  </si>
-  <si>
-    <t>-0.0886203972935914</t>
-  </si>
-  <si>
-    <t>-20.1702597438113</t>
-  </si>
-  <si>
-    <t>-0.0469679117884968</t>
-  </si>
-  <si>
-    <t>0.0231863762658585</t>
-  </si>
-  <si>
-    <t>0.96664500341156</t>
-  </si>
-  <si>
-    <t>0.142222907357258</t>
-  </si>
-  <si>
-    <t>0.975058306019568</t>
-  </si>
-  <si>
-    <t>65.0295546960656</t>
-  </si>
-  <si>
-    <t>0.532207151154881</t>
-  </si>
-  <si>
-    <t>0.9654809411819</t>
-  </si>
-  <si>
-    <t>0.000331208185952886</t>
-  </si>
-  <si>
-    <t>3.7816282822771</t>
-  </si>
-  <si>
-    <t>0.977216507609609</t>
-  </si>
-  <si>
-    <t>0.00211074595579921</t>
-  </si>
-  <si>
-    <t>3.08239574860153</t>
-  </si>
-  <si>
-    <t>0.967643744606432</t>
-  </si>
-  <si>
-    <t>0.22619948086042</t>
-  </si>
-  <si>
-    <t>-10.4883920767002</t>
-  </si>
-  <si>
-    <t>-0.0867587950485042</t>
-  </si>
-  <si>
-    <t>0.207932625347549</t>
-  </si>
-  <si>
-    <t>0.970944914583674</t>
-  </si>
-  <si>
-    <t>0.20932891172734</t>
-  </si>
-  <si>
-    <t>0.734712181758436</t>
-  </si>
-  <si>
-    <t>-0.686108493780926</t>
-  </si>
-  <si>
-    <t>0.00257980270348697</t>
-  </si>
-  <si>
-    <t>0.965712955911195</t>
-  </si>
-  <si>
-    <t>0.0159654251358482</t>
-  </si>
-  <si>
-    <t>2.5854090323786</t>
-  </si>
-  <si>
-    <t>1.96193357492932</t>
-  </si>
-  <si>
-    <t>20.2316337553269</t>
-  </si>
-  <si>
-    <t>-0.403468571815234</t>
-  </si>
-  <si>
-    <t>0.972971412275857</t>
-  </si>
-  <si>
-    <t>39.0567771270466</t>
-  </si>
-  <si>
-    <t>0.000725057426985828</t>
-  </si>
-  <si>
-    <t>0.960223594734525</t>
-  </si>
-  <si>
-    <t>0.280702342194439</t>
-  </si>
-  <si>
-    <t>0.963834133952507</t>
-  </si>
-  <si>
-    <t>4039.5998152336</t>
-  </si>
-  <si>
-    <t>0.954835501993251</t>
-  </si>
-  <si>
-    <t>0.988012974071051</t>
-  </si>
-  <si>
-    <t>0.0127823380634584</t>
-  </si>
-  <si>
-    <t>2.80316205339892</t>
-  </si>
-  <si>
-    <t>1.9140030545857</t>
-  </si>
-  <si>
-    <t>0.741858109765726</t>
-  </si>
-  <si>
-    <t>0.0126186623669018</t>
-  </si>
-  <si>
-    <t>0.960751143512274</t>
-  </si>
-  <si>
-    <t>0.353510977955364</t>
-  </si>
-  <si>
-    <t>0.962770098039865</t>
-  </si>
-  <si>
-    <t>1473.56953239832</t>
-  </si>
-  <si>
-    <t>0.798972070016818</t>
-  </si>
-  <si>
-    <t>0.980905392549379</t>
-  </si>
-  <si>
-    <t>0.061686477019841</t>
-  </si>
-  <si>
-    <t>2.36161173048597</t>
-  </si>
-  <si>
-    <t>1.00349178375702</t>
-  </si>
-  <si>
-    <t>0.559703045027024</t>
-  </si>
-  <si>
-    <t>0.532558191231857</t>
-  </si>
-  <si>
-    <t>-8.1297037543378</t>
-  </si>
-  <si>
-    <t>-0.110770887868883</t>
-  </si>
-  <si>
-    <t>0.424112198521258</t>
-  </si>
-  <si>
-    <t>0.971229256638003</t>
-  </si>
-  <si>
-    <t>0.314754577922906</t>
-  </si>
-  <si>
-    <t>16.3654537968557</t>
-  </si>
-  <si>
-    <t>0.0611291398685305</t>
-  </si>
-  <si>
-    <t>0.0161065768683844</t>
-  </si>
-  <si>
-    <t>0.954980418826088</t>
-  </si>
-  <si>
-    <t>0.144306870854208</t>
-  </si>
-  <si>
-    <t>131.24081475891</t>
-  </si>
-  <si>
-    <t>0.0220102807858691</t>
-  </si>
-  <si>
-    <t>-0.186932627104492</t>
-  </si>
-  <si>
-    <t>459.564671620775</t>
-  </si>
-  <si>
-    <t>0.109714601058912</t>
-  </si>
-  <si>
-    <t>-0.0920655924026104</t>
-  </si>
-  <si>
-    <t>156.055312359942</t>
-  </si>
-  <si>
-    <t>0.00622562906637099</t>
-  </si>
-  <si>
-    <t>0.0156403475371579</t>
-  </si>
-  <si>
-    <t>0.966047281700395</t>
-  </si>
-  <si>
-    <t>0.182306520361715</t>
-  </si>
-  <si>
-    <t>0.973570724561342</t>
-  </si>
-  <si>
-    <t>3.32761520029781</t>
-  </si>
-  <si>
-    <t>0.39631863103471</t>
-  </si>
-  <si>
-    <t>49.6102875180686</t>
-  </si>
-  <si>
-    <t>0.0565042159160798</t>
-  </si>
-  <si>
-    <t>-0.185514471126085</t>
-  </si>
-  <si>
-    <t>465.11684938643</t>
-  </si>
-  <si>
-    <t>0.102655828702052</t>
-  </si>
-  <si>
-    <t>-0.0939597113325982</t>
-  </si>
-  <si>
-    <t>153.598645134189</t>
-  </si>
-  <si>
-    <t>0.00630678803157915</t>
-  </si>
-  <si>
-    <t>0.0152691093551097</t>
-  </si>
-  <si>
-    <t>0.963649192363204</t>
-  </si>
-  <si>
-    <t>0.196969011885882</t>
-  </si>
-  <si>
-    <t>0.964168272936825</t>
-  </si>
-  <si>
-    <t>5.01331511698106e-06</t>
-  </si>
-  <si>
-    <t>5.71527096524076</t>
-  </si>
-  <si>
-    <t>0.956819969098576</t>
-  </si>
-  <si>
-    <t>1.56696731872001e-05</t>
-  </si>
-  <si>
-    <t>5.31156571914566</t>
-  </si>
-  <si>
-    <t>131.599998397819</t>
-  </si>
-  <si>
-    <t>0.00732589966303447</t>
-  </si>
-  <si>
-    <t>0.0206276579830365</t>
-  </si>
-  <si>
-    <t>0.961992570352465</t>
-  </si>
-  <si>
-    <t>0.161840382255592</t>
-  </si>
-  <si>
-    <t>0.959096835105135</t>
-  </si>
-  <si>
-    <t>3.07183450085821e-06</t>
-  </si>
-  <si>
-    <t>5.60483101944546</t>
-  </si>
-  <si>
-    <t>0.957914777052669</t>
-  </si>
-  <si>
-    <t>7.06469470766849e-06</t>
-  </si>
-  <si>
-    <t>5.74462588563699</t>
-  </si>
-  <si>
-    <t>0.962902603696283</t>
-  </si>
-  <si>
-    <t>0.125564950560809</t>
-  </si>
-  <si>
-    <t>0.96614258623592</t>
-  </si>
-  <si>
-    <t>986.997098032031</t>
-  </si>
-  <si>
-    <t>0.871482286574113</t>
-  </si>
-  <si>
-    <t>343.663864906902</t>
-  </si>
-  <si>
-    <t>0.0076985406709552</t>
-  </si>
-  <si>
-    <t>-0.184902169434529</t>
-  </si>
-  <si>
-    <t>36.07781715633</t>
-  </si>
-  <si>
-    <t>0.420457253079215</t>
-  </si>
-  <si>
-    <t>-0.111757858342709</t>
-  </si>
-  <si>
-    <t>220.251700556169</t>
-  </si>
-  <si>
-    <t>0.00440556438330754</t>
-  </si>
-  <si>
-    <t>0.0233054826731628</t>
-  </si>
-  <si>
-    <t>0.972407515058104</t>
-  </si>
-  <si>
-    <t>0.144491746612361</t>
-  </si>
-  <si>
-    <t>0.959132176413624</t>
-  </si>
-  <si>
-    <t>26.878934035369</t>
-  </si>
-  <si>
-    <t>0.327395605164848</t>
-  </si>
-  <si>
-    <t>13.577088060933</t>
-  </si>
-  <si>
-    <t>0.216103788409243</t>
-  </si>
-  <si>
-    <t>-0.203064678700124</t>
-  </si>
-  <si>
-    <t>16.2706324830942</t>
-  </si>
-  <si>
-    <t>0.746393066552026</t>
-  </si>
-  <si>
-    <t>-0.114092684006707</t>
-  </si>
-  <si>
-    <t>-13.9243775474501</t>
-  </si>
-  <si>
-    <t>-0.0665065506743528</t>
-  </si>
-  <si>
-    <t>0.0154905891200136</t>
-  </si>
-  <si>
-    <t>0.970777391847421</t>
-  </si>
-  <si>
-    <t>0.165778262992361</t>
-  </si>
-  <si>
-    <t>0.963709087425107</t>
-  </si>
-  <si>
-    <t>6.40167855784672</t>
-  </si>
-  <si>
-    <t>0.33160906100028</t>
-  </si>
-  <si>
-    <t>0.967860695336521</t>
-  </si>
-  <si>
-    <t>4.69735551027938e-05</t>
-  </si>
-  <si>
-    <t>4.42887381242892</t>
-  </si>
-  <si>
-    <t>0.970566111446031</t>
-  </si>
-  <si>
-    <t>5.70607361354052e-05</t>
-  </si>
-  <si>
-    <t>4.73512678763276</t>
-  </si>
-  <si>
-    <t>33.5873788266717</t>
-  </si>
-  <si>
-    <t>0.028819341085512</t>
-  </si>
-  <si>
-    <t>0.0202962823681829</t>
-  </si>
-  <si>
-    <t>0.968060288903622</t>
-  </si>
-  <si>
-    <t>0.213353319883561</t>
-  </si>
-  <si>
-    <t>0.968114716269526</t>
-  </si>
-  <si>
-    <t>0.000117133873582504</t>
-  </si>
-  <si>
-    <t>4.48462298860561</t>
-  </si>
-  <si>
-    <t>0.964237896804496</t>
-  </si>
-  <si>
-    <t>1.01182553812083e-05</t>
-  </si>
-  <si>
-    <t>5.30731632623811</t>
-  </si>
-  <si>
-    <t>0.957871026102173</t>
-  </si>
-  <si>
-    <t>0.183906102556144</t>
-  </si>
-  <si>
-    <t>0.755160797651993</t>
-  </si>
-  <si>
-    <t>-0.700772528696414</t>
-  </si>
-  <si>
-    <t>0.00265851337649965</t>
-  </si>
-  <si>
-    <t>1.98157688234038</t>
-  </si>
-  <si>
-    <t>22.9283151826795</t>
-  </si>
-  <si>
-    <t>-0.57696428057672</t>
-  </si>
-  <si>
-    <t>3.40632884058437</t>
-  </si>
-  <si>
-    <t>3.23038208828629</t>
-  </si>
-  <si>
-    <t>-0.167409119800334</t>
-  </si>
-  <si>
-    <t>68.8347914002327</t>
-  </si>
-  <si>
-    <t>0.0139992670104259</t>
-  </si>
-  <si>
-    <t>0.0322062055392101</t>
-  </si>
-  <si>
-    <t>0.970229184462116</t>
-  </si>
-  <si>
-    <t>0.125788762187732</t>
-  </si>
-  <si>
-    <t>0.963886392069314</t>
-  </si>
-  <si>
-    <t>13066.1179077238</t>
-  </si>
-  <si>
-    <t>1.10746060672106</t>
-  </si>
-  <si>
-    <t>1.93206516125944</t>
-  </si>
-  <si>
-    <t>34.3387595721673</t>
-  </si>
-  <si>
-    <t>-0.634781731884588</t>
-  </si>
-  <si>
-    <t>2.01153320225717</t>
-  </si>
-  <si>
-    <t>17.9845166362376</t>
-  </si>
-  <si>
-    <t>-0.387382998045184</t>
-  </si>
-  <si>
-    <t>-18.3153462060364</t>
-  </si>
-  <si>
-    <t>-0.0518361541823142</t>
-  </si>
-  <si>
-    <t>0.0264351292441096</t>
-  </si>
-  <si>
-    <t>0.963540641609647</t>
-  </si>
-  <si>
-    <t>0.12438745271965</t>
-  </si>
-  <si>
-    <t>0.974255280746521</t>
-  </si>
-  <si>
-    <t>64.7114816512951</t>
-  </si>
-  <si>
-    <t>0.550226922208853</t>
-  </si>
-  <si>
-    <t>0.972060427154195</t>
-  </si>
-  <si>
-    <t>0.000831443295414602</t>
-  </si>
-  <si>
-    <t>3.76041933126802</t>
-  </si>
-  <si>
-    <t>0.967419037412761</t>
-  </si>
-  <si>
-    <t>0.000151049512105789</t>
-  </si>
-  <si>
-    <t>4.44059649546276</t>
-  </si>
-  <si>
-    <t>0.958810576849565</t>
-  </si>
-  <si>
-    <t>0.16400624667976</t>
-  </si>
-  <si>
-    <t>0.956890892735734</t>
-  </si>
-  <si>
-    <t>0.292886958749696</t>
-  </si>
-  <si>
-    <t>0.723809842296961</t>
-  </si>
-  <si>
-    <t>-0.704774786706413</t>
-  </si>
-  <si>
-    <t>0.00251799716036085</t>
-  </si>
-  <si>
-    <t>0.975988223659881</t>
-  </si>
-  <si>
-    <t>0.0194573120466828</t>
-  </si>
-  <si>
-    <t>2.26087167795497</t>
-  </si>
-  <si>
-    <t>2.05848244645067</t>
-  </si>
-  <si>
-    <t>16.0150009006155</t>
-  </si>
-  <si>
-    <t>-0.378838532069529</t>
-  </si>
-  <si>
-    <t>0.968181353211488</t>
-  </si>
-  <si>
-    <t>46.9845208767543</t>
-  </si>
-  <si>
-    <t>0.000606636348810658</t>
-  </si>
-  <si>
-    <t>0.96073661004727</t>
-  </si>
-  <si>
-    <t>0.313949932392288</t>
-  </si>
-  <si>
-    <t>0.974067295761292</t>
-  </si>
-  <si>
-    <t>81780.0162299384</t>
-  </si>
-  <si>
-    <t>1.14356367881378</t>
-  </si>
-  <si>
-    <t>0.967120497243899</t>
-  </si>
-  <si>
-    <t>0.0115652145195785</t>
-  </si>
-  <si>
-    <t>2.49895546946706</t>
-  </si>
-  <si>
-    <t>1.05263331386214</t>
-  </si>
-  <si>
-    <t>3.11933157928711</t>
-  </si>
-  <si>
-    <t>0.0102872618757382</t>
-  </si>
-  <si>
-    <t>0.954715037587676</t>
-  </si>
-  <si>
-    <t>0.610137554250117</t>
-  </si>
-  <si>
-    <t>0.964423485460149</t>
-  </si>
-  <si>
-    <t>442.205665514941</t>
-  </si>
-  <si>
-    <t>0.662901353574598</t>
-  </si>
-  <si>
-    <t>0.97159897983632</t>
-  </si>
-  <si>
-    <t>0.342279276042612</t>
-  </si>
-  <si>
-    <t>0.998387094486737</t>
-  </si>
-  <si>
-    <t>7.40848583528224</t>
-  </si>
-  <si>
-    <t>0.137994255603822</t>
-  </si>
-  <si>
-    <t>0.0182991792412085</t>
-  </si>
-  <si>
-    <t>0.959696697442738</t>
-  </si>
-  <si>
-    <t>0.461257536060873</t>
-  </si>
-  <si>
-    <t>0.958411859192571</t>
-  </si>
-  <si>
-    <t>-275.427139392856</t>
-  </si>
-  <si>
-    <t>1.08812224236652</t>
+    <t>0.962996890913749</t>
+  </si>
+  <si>
+    <t>0.146173566449744</t>
+  </si>
+  <si>
+    <t>29.305278108355</t>
+  </si>
+  <si>
+    <t>0.082606926211513</t>
+  </si>
+  <si>
+    <t>-0.201493318196123</t>
+  </si>
+  <si>
+    <t>293.169674909743</t>
+  </si>
+  <si>
+    <t>0.140964667551096</t>
+  </si>
+  <si>
+    <t>-0.0963158209501577</t>
+  </si>
+  <si>
+    <t>107.903244645393</t>
+  </si>
+  <si>
+    <t>0.0090509051421512</t>
+  </si>
+  <si>
+    <t>0.0243260574748491</t>
+  </si>
+  <si>
+    <t>0.966647711018192</t>
+  </si>
+  <si>
+    <t>0.151552881132531</t>
+  </si>
+  <si>
+    <t>0.971806733525256</t>
+  </si>
+  <si>
+    <t>4.33952493239679</t>
+  </si>
+  <si>
+    <t>0.252192618445652</t>
+  </si>
+  <si>
+    <t>34.5309840568555</t>
+  </si>
+  <si>
+    <t>0.0713236631855373</t>
+  </si>
+  <si>
+    <t>-0.193620524542546</t>
+  </si>
+  <si>
+    <t>281.399531419161</t>
+  </si>
+  <si>
+    <t>0.149787187443102</t>
+  </si>
+  <si>
+    <t>-0.0929191926551047</t>
+  </si>
+  <si>
+    <t>99.1199709189671</t>
+  </si>
+  <si>
+    <t>0.00972767732563875</t>
+  </si>
+  <si>
+    <t>0.018108518462617</t>
+  </si>
+  <si>
+    <t>0.973708142345623</t>
+  </si>
+  <si>
+    <t>0.191561386336418</t>
+  </si>
+  <si>
+    <t>0.971991020673563</t>
+  </si>
+  <si>
+    <t>5.63479806017075e-06</t>
+  </si>
+  <si>
+    <t>5.52720918101452</t>
+  </si>
+  <si>
+    <t>0.97664642764618</t>
+  </si>
+  <si>
+    <t>1.96056569949878e-05</t>
+  </si>
+  <si>
+    <t>5.37565715334399</t>
+  </si>
+  <si>
+    <t>90.0075681162288</t>
+  </si>
+  <si>
+    <t>0.0107737153624644</t>
+  </si>
+  <si>
+    <t>0.0190154523495122</t>
+  </si>
+  <si>
+    <t>0.960357748637844</t>
+  </si>
+  <si>
+    <t>0.179151479775963</t>
+  </si>
+  <si>
+    <t>0.963784094984403</t>
+  </si>
+  <si>
+    <t>1.09396419919113e-06</t>
+  </si>
+  <si>
+    <t>6.33989721822795</t>
+  </si>
+  <si>
+    <t>0.962237232513105</t>
+  </si>
+  <si>
+    <t>5.54861840415723e-06</t>
+  </si>
+  <si>
+    <t>5.82814002025429</t>
+  </si>
+  <si>
+    <t>0.955388903189286</t>
+  </si>
+  <si>
+    <t>0.142554359369216</t>
+  </si>
+  <si>
+    <t>0.970776947526929</t>
+  </si>
+  <si>
+    <t>682.701536162666</t>
+  </si>
+  <si>
+    <t>0.750693098393843</t>
+  </si>
+  <si>
+    <t>-235.001585928092</t>
+  </si>
+  <si>
+    <t>-0.0109302714801483</t>
+  </si>
+  <si>
+    <t>-0.174946796068952</t>
+  </si>
+  <si>
+    <t>3.85050168643701</t>
+  </si>
+  <si>
+    <t>2.74017642680443</t>
+  </si>
+  <si>
+    <t>-0.153238509950887</t>
+  </si>
+  <si>
+    <t>69.1124028978803</t>
+  </si>
+  <si>
+    <t>0.0142770242312967</t>
+  </si>
+  <si>
+    <t>0.027868313206293</t>
+  </si>
+  <si>
+    <t>0.957166373618866</t>
+  </si>
+  <si>
+    <t>0.134287749342384</t>
+  </si>
+  <si>
+    <t>0.972835013815648</t>
+  </si>
+  <si>
+    <t>37.6930333259816</t>
+  </si>
+  <si>
+    <t>0.474790987389706</t>
+  </si>
+  <si>
+    <t>3.47759329018536</t>
+  </si>
+  <si>
+    <t>1.22367861523756</t>
+  </si>
+  <si>
+    <t>-0.245029072049746</t>
+  </si>
+  <si>
+    <t>31.9508520112994</t>
+  </si>
+  <si>
+    <t>0.416753239151952</t>
+  </si>
+  <si>
+    <t>-0.112568137895228</t>
+  </si>
+  <si>
+    <t>32.5257998109395</t>
+  </si>
+  <si>
+    <t>0.0298916690758429</t>
+  </si>
+  <si>
+    <t>0.0184004151342492</t>
+  </si>
+  <si>
+    <t>0.97021418202526</t>
+  </si>
+  <si>
+    <t>0.104762769547843</t>
+  </si>
+  <si>
+    <t>1.78155847925243</t>
+  </si>
+  <si>
+    <t>1.81163478247213e-19</t>
+  </si>
+  <si>
+    <t>-0.11928285949809</t>
+  </si>
+  <si>
+    <t>0.977410157669545</t>
+  </si>
+  <si>
+    <t>6.74422800570953e-06</t>
+  </si>
+  <si>
+    <t>5.26745616296369</t>
+  </si>
+  <si>
+    <t>0.973599524227727</t>
+  </si>
+  <si>
+    <t>0.000229824714113169</t>
+  </si>
+  <si>
+    <t>4.07945072749177</t>
+  </si>
+  <si>
+    <t>12.8782870751465</t>
+  </si>
+  <si>
+    <t>0.0791078536969236</t>
+  </si>
+  <si>
+    <t>0.0265238045603286</t>
+  </si>
+  <si>
+    <t>0.958888153474712</t>
+  </si>
+  <si>
+    <t>0.192740566943432</t>
+  </si>
+  <si>
+    <t>0.963439545353378</t>
+  </si>
+  <si>
+    <t>1.7705144436892e-06</t>
+  </si>
+  <si>
+    <t>6.13717179676684</t>
+  </si>
+  <si>
+    <t>0.96756466845126</t>
+  </si>
+  <si>
+    <t>1.49386552333776e-05</t>
+  </si>
+  <si>
+    <t>5.15229972163363</t>
+  </si>
+  <si>
+    <t>0.950558078172965</t>
+  </si>
+  <si>
+    <t>0.13264516428788</t>
+  </si>
+  <si>
+    <t>0.729746834407276</t>
+  </si>
+  <si>
+    <t>-0.705738541078339</t>
+  </si>
+  <si>
+    <t>0.0027722357826915</t>
+  </si>
+  <si>
+    <t>1.97173226414906</t>
+  </si>
+  <si>
+    <t>22.4315677695825</t>
+  </si>
+  <si>
+    <t>-0.552259060698952</t>
+  </si>
+  <si>
+    <t>2.00772697914187</t>
+  </si>
+  <si>
+    <t>18.6550290816401</t>
+  </si>
+  <si>
+    <t>-0.390778075364194</t>
+  </si>
+  <si>
+    <t>116.873301072918</t>
+  </si>
+  <si>
+    <t>0.00826593755140559</t>
+  </si>
+  <si>
+    <t>0.0232294593507621</t>
+  </si>
+  <si>
+    <t>0.975598072291539</t>
+  </si>
+  <si>
+    <t>0.115108681650645</t>
+  </si>
+  <si>
+    <t>0.963303409536069</t>
+  </si>
+  <si>
+    <t>58179.6990711207</t>
+  </si>
+  <si>
+    <t>1.31249944310931</t>
+  </si>
+  <si>
+    <t>2.00504371309361</t>
+  </si>
+  <si>
+    <t>26.0449908049979</t>
+  </si>
+  <si>
+    <t>-0.58599846151301</t>
+  </si>
+  <si>
+    <t>1125.82260125435</t>
+  </si>
+  <si>
+    <t>-0.0664570070285784</t>
+  </si>
+  <si>
+    <t>-0.0887289288352915</t>
+  </si>
+  <si>
+    <t>-8.87169020759948</t>
+  </si>
+  <si>
+    <t>-0.101294961584003</t>
+  </si>
+  <si>
+    <t>0.023667184523919</t>
+  </si>
+  <si>
+    <t>0.962586884234508</t>
+  </si>
+  <si>
+    <t>0.136667652550093</t>
+  </si>
+  <si>
+    <t>0.961568400676512</t>
+  </si>
+  <si>
+    <t>47.6960601256084</t>
+  </si>
+  <si>
+    <t>0.46007277592545</t>
+  </si>
+  <si>
+    <t>0.971736880101218</t>
+  </si>
+  <si>
+    <t>0.00365107419603835</t>
+  </si>
+  <si>
+    <t>3.36590186482758</t>
+  </si>
+  <si>
+    <t>0.966747394822691</t>
+  </si>
+  <si>
+    <t>0.00033259790008176</t>
+  </si>
+  <si>
+    <t>4.17922774474864</t>
+  </si>
+  <si>
+    <t>0.968025614917332</t>
+  </si>
+  <si>
+    <t>0.153488461303282</t>
+  </si>
+  <si>
+    <t>0.963463676942553</t>
+  </si>
+  <si>
+    <t>0.425137696474748</t>
+  </si>
+  <si>
+    <t>0.732215376214304</t>
+  </si>
+  <si>
+    <t>-0.695090277882901</t>
+  </si>
+  <si>
+    <t>0.002417300532647</t>
+  </si>
+  <si>
+    <t>0.973194158858433</t>
+  </si>
+  <si>
+    <t>0.0207714130829386</t>
+  </si>
+  <si>
+    <t>2.76861431756332</t>
+  </si>
+  <si>
+    <t>1.93817466260633</t>
+  </si>
+  <si>
+    <t>18.0392055855492</t>
+  </si>
+  <si>
+    <t>-0.384046679621741</t>
+  </si>
+  <si>
+    <t>0.994231567705658</t>
+  </si>
+  <si>
+    <t>37.8093114338671</t>
+  </si>
+  <si>
+    <t>0.000684716270616306</t>
+  </si>
+  <si>
+    <t>0.959113990655909</t>
+  </si>
+  <si>
+    <t>0.376819339478739</t>
+  </si>
+  <si>
+    <t>0.954774349885382</t>
+  </si>
+  <si>
+    <t>586210.042579001</t>
+  </si>
+  <si>
+    <t>1.43133545690976</t>
+  </si>
+  <si>
+    <t>0.989565301469962</t>
+  </si>
+  <si>
+    <t>0.0309647811735068</t>
+  </si>
+  <si>
+    <t>2.40170417329949</t>
+  </si>
+  <si>
+    <t>0.959917856440102</t>
+  </si>
+  <si>
+    <t>-0.000194108022873738</t>
+  </si>
+  <si>
+    <t>-0.157744766672184</t>
+  </si>
+  <si>
+    <t>0.966293152482738</t>
+  </si>
+  <si>
+    <t>0.347240186785369</t>
+  </si>
+  <si>
+    <t>0.975541778193951</t>
+  </si>
+  <si>
+    <t>8671.90421371565</t>
+  </si>
+  <si>
+    <t>1.05722550452299</t>
+  </si>
+  <si>
+    <t>0.975259308792819</t>
+  </si>
+  <si>
+    <t>0.250636099126655</t>
+  </si>
+  <si>
+    <t>0.913659727540272</t>
+  </si>
+  <si>
+    <t>-16.0882318736155</t>
+  </si>
+  <si>
+    <t>-0.0582169308822673</t>
+  </si>
+  <si>
+    <t>0.0275410266307646</t>
+  </si>
+  <si>
+    <t>0.951268855573194</t>
+  </si>
+  <si>
+    <t>0.405078592421366</t>
+  </si>
+  <si>
+    <t>0.967225186927773</t>
+  </si>
+  <si>
+    <t>0.194520971972849</t>
+  </si>
+  <si>
+    <t>46.462960310183</t>
+  </si>
+  <si>
+    <t>0.0547843449067868</t>
+  </si>
+  <si>
+    <t>-0.189913475857612</t>
+  </si>
+  <si>
+    <t>279.451863459223</t>
+  </si>
+  <si>
+    <t>0.141162546493825</t>
+  </si>
+  <si>
+    <t>-0.0944673341935097</t>
+  </si>
+  <si>
+    <t>166.3221433369</t>
+  </si>
+  <si>
+    <t>0.00580843201691198</t>
+  </si>
+  <si>
+    <t>0.017572424043565</t>
+  </si>
+  <si>
+    <t>0.960223609642882</t>
+  </si>
+  <si>
+    <t>0.144770192393301</t>
+  </si>
+  <si>
+    <t>0.968858675125702</t>
+  </si>
+  <si>
+    <t>5.46341516303561</t>
+  </si>
+  <si>
+    <t>0.382113668453075</t>
+  </si>
+  <si>
+    <t>3.54107545246411</t>
+  </si>
+  <si>
+    <t>1.54756803268184</t>
+  </si>
+  <si>
+    <t>-0.238342535484283</t>
+  </si>
+  <si>
+    <t>236.298794266693</t>
+  </si>
+  <si>
+    <t>0.15364459520816</t>
+  </si>
+  <si>
+    <t>-0.0993099991464244</t>
+  </si>
+  <si>
+    <t>161.871181218439</t>
+  </si>
+  <si>
+    <t>0.0060127330765897</t>
+  </si>
+  <si>
+    <t>0.0179415448681586</t>
+  </si>
+  <si>
+    <t>0.966821754873645</t>
+  </si>
+  <si>
+    <t>0.200062233294547</t>
+  </si>
+  <si>
+    <t>0.963077786659629</t>
+  </si>
+  <si>
+    <t>2.39801358076264e-05</t>
+  </si>
+  <si>
+    <t>5.09007231787894</t>
+  </si>
+  <si>
+    <t>0.964101097088869</t>
+  </si>
+  <si>
+    <t>2.45071351478918e-05</t>
+  </si>
+  <si>
+    <t>5.12295127851602</t>
+  </si>
+  <si>
+    <t>97.1480989743268</t>
+  </si>
+  <si>
+    <t>0.00995983621346558</t>
+  </si>
+  <si>
+    <t>0.0286396422123222</t>
+  </si>
+  <si>
+    <t>0.974240965925467</t>
+  </si>
+  <si>
+    <t>0.242100466760715</t>
+  </si>
+  <si>
+    <t>0.966196201096129</t>
+  </si>
+  <si>
+    <t>3.89247352063449e-07</t>
+  </si>
+  <si>
+    <t>6.42361846086942</t>
+  </si>
+  <si>
+    <t>0.970751541299399</t>
+  </si>
+  <si>
+    <t>7.69200853174789e-06</t>
+  </si>
+  <si>
+    <t>5.57302978057744</t>
+  </si>
+  <si>
+    <t>0.971266262314711</t>
+  </si>
+  <si>
+    <t>0.148967265153859</t>
+  </si>
+  <si>
+    <t>0.961287076052111</t>
+  </si>
+  <si>
+    <t>10765.6457901848</t>
+  </si>
+  <si>
+    <t>0.998540198435287</t>
+  </si>
+  <si>
+    <t>58.0669893793461</t>
+  </si>
+  <si>
+    <t>0.0488371030877796</t>
+  </si>
+  <si>
+    <t>-0.194476665599708</t>
+  </si>
+  <si>
+    <t>17.6530703727814</t>
+  </si>
+  <si>
+    <t>0.568173321222849</t>
+  </si>
+  <si>
+    <t>-0.127351981671954</t>
+  </si>
+  <si>
+    <t>132.226772462385</t>
+  </si>
+  <si>
+    <t>0.0073841571808985</t>
+  </si>
+  <si>
+    <t>0.0203909389942184</t>
+  </si>
+  <si>
+    <t>0.962010327818134</t>
+  </si>
+  <si>
+    <t>0.189809280134182</t>
+  </si>
+  <si>
+    <t>0.970145970100172</t>
+  </si>
+  <si>
+    <t>42.7802005732673</t>
+  </si>
+  <si>
+    <t>0.442338964004357</t>
+  </si>
+  <si>
+    <t>3.57450151559062</t>
+  </si>
+  <si>
+    <t>1.22391777930318</t>
+  </si>
+  <si>
+    <t>-0.240904722451579</t>
+  </si>
+  <si>
+    <t>48.7571964758293</t>
+  </si>
+  <si>
+    <t>0.38016418152925</t>
+  </si>
+  <si>
+    <t>-0.109402559123376</t>
+  </si>
+  <si>
+    <t>16.5288068255552</t>
+  </si>
+  <si>
+    <t>0.0593448926921759</t>
+  </si>
+  <si>
+    <t>0.0169934934341522</t>
+  </si>
+  <si>
+    <t>0.963153045432755</t>
+  </si>
+  <si>
+    <t>0.117156203170081</t>
+  </si>
+  <si>
+    <t>0.958910664647318</t>
+  </si>
+  <si>
+    <t>5.29158126919062</t>
+  </si>
+  <si>
+    <t>0.516953533752383</t>
+  </si>
+  <si>
+    <t>0.96596541858469</t>
+  </si>
+  <si>
+    <t>0.0003877575769074</t>
+  </si>
+  <si>
+    <t>4.05419468411666</t>
+  </si>
+  <si>
+    <t>0.977528757595739</t>
+  </si>
+  <si>
+    <t>8.6330257648503e-05</t>
+  </si>
+  <si>
+    <t>4.47164861276681</t>
+  </si>
+  <si>
+    <t>13.2469246702221</t>
+  </si>
+  <si>
+    <t>0.0751684263250097</t>
+  </si>
+  <si>
+    <t>0.0196751925583754</t>
+  </si>
+  <si>
+    <t>0.953712809362763</t>
+  </si>
+  <si>
+    <t>0.144099129494938</t>
+  </si>
+  <si>
+    <t>0.956589138453005</t>
+  </si>
+  <si>
+    <t>2.23398725474702e-06</t>
+  </si>
+  <si>
+    <t>5.57808066560615</t>
+  </si>
+  <si>
+    <t>0.976436326092609</t>
+  </si>
+  <si>
+    <t>2.1437425160845e-05</t>
+  </si>
+  <si>
+    <t>5.18218414291668</t>
+  </si>
+  <si>
+    <t>0.975798851542268</t>
+  </si>
+  <si>
+    <t>0.161179650763637</t>
+  </si>
+  <si>
+    <t>0.740139170732773</t>
+  </si>
+  <si>
+    <t>-0.697103982454228</t>
+  </si>
+  <si>
+    <t>0.00261736620539004</t>
+  </si>
+  <si>
+    <t>1.92875143493071</t>
+  </si>
+  <si>
+    <t>29.757838555449</t>
+  </si>
+  <si>
+    <t>-0.624905666429286</t>
+  </si>
+  <si>
+    <t>36.3904718886498</t>
+  </si>
+  <si>
+    <t>0.525998534231448</t>
+  </si>
+  <si>
+    <t>-0.105881258092457</t>
+  </si>
+  <si>
+    <t>175.888268944299</t>
+  </si>
+  <si>
+    <t>0.00548600130456372</t>
+  </si>
+  <si>
+    <t>0.016695338823553</t>
+  </si>
+  <si>
+    <t>0.967539755672888</t>
+  </si>
+  <si>
+    <t>0.171640607457737</t>
+  </si>
+  <si>
+    <t>0.974238744971403</t>
+  </si>
+  <si>
+    <t>6709.28866043015</t>
+  </si>
+  <si>
+    <t>1.08837176515083</t>
+  </si>
+  <si>
+    <t>1.99151133550272</t>
+  </si>
+  <si>
+    <t>22.0296103868274</t>
+  </si>
+  <si>
+    <t>-0.579857178029019</t>
+  </si>
+  <si>
+    <t>456.380640820294</t>
+  </si>
+  <si>
+    <t>-0.104799505352565</t>
+  </si>
+  <si>
+    <t>-0.0877635002186973</t>
+  </si>
+  <si>
+    <t>-20.0824688726468</t>
+  </si>
+  <si>
+    <t>-0.0460168356632382</t>
+  </si>
+  <si>
+    <t>0.0207289067863951</t>
+  </si>
+  <si>
+    <t>0.960810387124095</t>
+  </si>
+  <si>
+    <t>0.151252168726566</t>
+  </si>
+  <si>
+    <t>0.963403805469634</t>
+  </si>
+  <si>
+    <t>30.2230239014001</t>
+  </si>
+  <si>
+    <t>0.370803596075052</t>
+  </si>
+  <si>
+    <t>0.966077692238709</t>
+  </si>
+  <si>
+    <t>0.000831197402998825</t>
+  </si>
+  <si>
+    <t>3.89072486716562</t>
+  </si>
+  <si>
+    <t>0.971208829749391</t>
+  </si>
+  <si>
+    <t>0.00707632918152272</t>
+  </si>
+  <si>
+    <t>3.09771666563428</t>
+  </si>
+  <si>
+    <t>0.96961188299204</t>
+  </si>
+  <si>
+    <t>0.159250748732924</t>
+  </si>
+  <si>
+    <t>-10.5311066386326</t>
+  </si>
+  <si>
+    <t>-0.0876804216728091</t>
+  </si>
+  <si>
+    <t>0.471673882889869</t>
+  </si>
+  <si>
+    <t>0.971381945877959</t>
+  </si>
+  <si>
+    <t>0.36178777728851</t>
+  </si>
+  <si>
+    <t>0.713233864869433</t>
+  </si>
+  <si>
+    <t>-0.699611727668691</t>
+  </si>
+  <si>
+    <t>0.00232167971224207</t>
+  </si>
+  <si>
+    <t>0.97396057630736</t>
+  </si>
+  <si>
+    <t>0.0090480592118806</t>
+  </si>
+  <si>
+    <t>2.38121956508931</t>
+  </si>
+  <si>
+    <t>2.00682455937161</t>
+  </si>
+  <si>
+    <t>17.0328653388977</t>
+  </si>
+  <si>
+    <t>-0.382904428023609</t>
+  </si>
+  <si>
+    <t>0.976428943928439</t>
+  </si>
+  <si>
+    <t>39.4239148698642</t>
+  </si>
+  <si>
+    <t>0.00108331581818026</t>
+  </si>
+  <si>
+    <t>0.965464229113754</t>
+  </si>
+  <si>
+    <t>0.380090456253951</t>
+  </si>
+  <si>
+    <t>0.964608370765877</t>
+  </si>
+  <si>
+    <t>5862.94156883487</t>
+  </si>
+  <si>
+    <t>0.966858626471217</t>
+  </si>
+  <si>
+    <t>0.97026441831022</t>
+  </si>
+  <si>
+    <t>0.0325459043586159</t>
+  </si>
+  <si>
+    <t>2.34664242439851</t>
+  </si>
+  <si>
+    <t>2.2273370184887</t>
+  </si>
+  <si>
+    <t>0.568960228612193</t>
+  </si>
+  <si>
+    <t>0.0174393372802938</t>
+  </si>
+  <si>
+    <t>0.966354520511234</t>
+  </si>
+  <si>
+    <t>0.548948656518023</t>
+  </si>
+  <si>
+    <t>0.971401354639966</t>
+  </si>
+  <si>
+    <t>1116.6219296616</t>
+  </si>
+  <si>
+    <t>0.753003530216301</t>
+  </si>
+  <si>
+    <t>0.967173906465846</t>
+  </si>
+  <si>
+    <t>0.0527965777349764</t>
+  </si>
+  <si>
+    <t>2.48980739837758</t>
+  </si>
+  <si>
+    <t>1.00120786507363</t>
+  </si>
+  <si>
+    <t>0.423729865475837</t>
+  </si>
+  <si>
+    <t>0.687337138612875</t>
+  </si>
+  <si>
+    <t>-8.16994313477289</t>
+  </si>
+  <si>
+    <t>-0.111822066014273</t>
+  </si>
+  <si>
+    <t>0.373525705728365</t>
+  </si>
+  <si>
+    <t>0.953289967868892</t>
+  </si>
+  <si>
+    <t>0.534141297290345</t>
+  </si>
+  <si>
+    <t>16.1989717666425</t>
+  </si>
+  <si>
+    <t>0.0616285227635767</t>
+  </si>
+  <si>
+    <t>0.0228771994925697</t>
+  </si>
+  <si>
+    <t>0.963715522163709</t>
+  </si>
+  <si>
+    <t>0.242481940759136</t>
+  </si>
+  <si>
+    <t>151.642167197685</t>
+  </si>
+  <si>
+    <t>0.0165092395966115</t>
+  </si>
+  <si>
+    <t>-0.189818908558405</t>
+  </si>
+  <si>
+    <t>284.180751584981</t>
+  </si>
+  <si>
+    <t>0.141302983352624</t>
+  </si>
+  <si>
+    <t>-0.0923425466310935</t>
+  </si>
+  <si>
+    <t>160.174487198977</t>
+  </si>
+  <si>
+    <t>0.00605272638554744</t>
+  </si>
+  <si>
+    <t>0.0249076092858047</t>
+  </si>
+  <si>
+    <t>0.96084642494071</t>
+  </si>
+  <si>
+    <t>0.175049077770243</t>
+  </si>
+  <si>
+    <t>0.989546085993514</t>
+  </si>
+  <si>
+    <t>4.74242087570093</t>
+  </si>
+  <si>
+    <t>0.342494259202808</t>
+  </si>
+  <si>
+    <t>65.3416732213393</t>
+  </si>
+  <si>
+    <t>0.0419758980512262</t>
+  </si>
+  <si>
+    <t>-0.187978426612305</t>
+  </si>
+  <si>
+    <t>392.221352691181</t>
+  </si>
+  <si>
+    <t>0.115242331743359</t>
+  </si>
+  <si>
+    <t>-0.0927533621289235</t>
+  </si>
+  <si>
+    <t>154.735115852086</t>
+  </si>
+  <si>
+    <t>0.00618731799473421</t>
+  </si>
+  <si>
+    <t>0.0199590410254606</t>
+  </si>
+  <si>
+    <t>0.950795872045095</t>
+  </si>
+  <si>
+    <t>0.209052912149376</t>
+  </si>
+  <si>
+    <t>0.968432464008946</t>
+  </si>
+  <si>
+    <t>1.16237722066775e-05</t>
+  </si>
+  <si>
+    <t>5.12727987026055</t>
+  </si>
+  <si>
+    <t>0.974374108576613</t>
+  </si>
+  <si>
+    <t>1.6335912481943e-05</t>
+  </si>
+  <si>
+    <t>5.07320000425581</t>
+  </si>
+  <si>
+    <t>134.12948728927</t>
+  </si>
+  <si>
+    <t>0.00723631459659357</t>
+  </si>
+  <si>
+    <t>0.0219148181623107</t>
+  </si>
+  <si>
+    <t>0.957238947386933</t>
+  </si>
+  <si>
+    <t>0.153820023466525</t>
+  </si>
+  <si>
+    <t>0.970426131904235</t>
+  </si>
+  <si>
+    <t>2.07742651970941e-06</t>
+  </si>
+  <si>
+    <t>5.98877953887679</t>
+  </si>
+  <si>
+    <t>0.961092462858026</t>
+  </si>
+  <si>
+    <t>4.06416433058348e-06</t>
+  </si>
+  <si>
+    <t>5.4288769714752</t>
+  </si>
+  <si>
+    <t>0.96056946635913</t>
+  </si>
+  <si>
+    <t>0.129619488921622</t>
+  </si>
+  <si>
+    <t>0.970014046383514</t>
+  </si>
+  <si>
+    <t>1144.67330346748</t>
+  </si>
+  <si>
+    <t>0.843400112710804</t>
+  </si>
+  <si>
+    <t>334.019166340297</t>
+  </si>
+  <si>
+    <t>0.00790317114678874</t>
+  </si>
+  <si>
+    <t>-0.182860081439238</t>
+  </si>
+  <si>
+    <t>18.0244399207473</t>
+  </si>
+  <si>
+    <t>0.730879170222574</t>
+  </si>
+  <si>
+    <t>-0.103126121830699</t>
+  </si>
+  <si>
+    <t>222.983209735091</t>
+  </si>
+  <si>
+    <t>0.00432257434158391</t>
+  </si>
+  <si>
+    <t>0.0154694197931404</t>
+  </si>
+  <si>
+    <t>0.967912354001782</t>
+  </si>
+  <si>
+    <t>0.153259182151305</t>
+  </si>
+  <si>
+    <t>0.964160798180701</t>
+  </si>
+  <si>
+    <t>40.5323660687286</t>
+  </si>
+  <si>
+    <t>0.400468288510396</t>
+  </si>
+  <si>
+    <t>35.3494110541246</t>
+  </si>
+  <si>
+    <t>0.0742863011678893</t>
+  </si>
+  <si>
+    <t>-0.187296660042629</t>
+  </si>
+  <si>
+    <t>17.0366935110479</t>
+  </si>
+  <si>
+    <t>0.755193315822027</t>
+  </si>
+  <si>
+    <t>-0.118006712227793</t>
+  </si>
+  <si>
+    <t>-14.1459540569851</t>
+  </si>
+  <si>
+    <t>-0.0646572928827668</t>
+  </si>
+  <si>
+    <t>0.0159409632569138</t>
+  </si>
+  <si>
+    <t>0.957745286445775</t>
+  </si>
+  <si>
+    <t>0.179295123267094</t>
+  </si>
+  <si>
+    <t>0.962939285321672</t>
+  </si>
+  <si>
+    <t>2.06355892864487</t>
+  </si>
+  <si>
+    <t>0.311531954468575</t>
+  </si>
+  <si>
+    <t>0.970183503988341</t>
+  </si>
+  <si>
+    <t>0.00013234579143335</t>
+  </si>
+  <si>
+    <t>3.98764219743448</t>
+  </si>
+  <si>
+    <t>0.967953952970753</t>
+  </si>
+  <si>
+    <t>4.95546304719037e-05</t>
+  </si>
+  <si>
+    <t>4.77304095431496</t>
+  </si>
+  <si>
+    <t>34.1770221165606</t>
+  </si>
+  <si>
+    <t>0.0281731444053163</t>
+  </si>
+  <si>
+    <t>0.0173750242711993</t>
+  </si>
+  <si>
+    <t>0.967889609721082</t>
+  </si>
+  <si>
+    <t>0.136531084894436</t>
+  </si>
+  <si>
+    <t>0.978453256085468</t>
+  </si>
+  <si>
+    <t>0.000111782959181206</t>
+  </si>
+  <si>
+    <t>4.41718126665203</t>
+  </si>
+  <si>
+    <t>0.965983734345724</t>
+  </si>
+  <si>
+    <t>4.80399695390927e-05</t>
+  </si>
+  <si>
+    <t>4.93239980440529</t>
+  </si>
+  <si>
+    <t>0.971822420045356</t>
+  </si>
+  <si>
+    <t>0.182326949731332</t>
+  </si>
+  <si>
+    <t>0.730757789556915</t>
+  </si>
+  <si>
+    <t>-0.686182260400632</t>
+  </si>
+  <si>
+    <t>0.0025062320051477</t>
+  </si>
+  <si>
+    <t>1.93865014982135</t>
+  </si>
+  <si>
+    <t>38.1831404233849</t>
+  </si>
+  <si>
+    <t>-0.650439071805945</t>
+  </si>
+  <si>
+    <t>2.86554734045738</t>
+  </si>
+  <si>
+    <t>3.63116628950037</t>
+  </si>
+  <si>
+    <t>-0.185114478559548</t>
+  </si>
+  <si>
+    <t>68.4991359732735</t>
+  </si>
+  <si>
+    <t>0.0143522637487207</t>
+  </si>
+  <si>
+    <t>0.0220050732257976</t>
+  </si>
+  <si>
+    <t>0.958349119036025</t>
+  </si>
+  <si>
+    <t>0.123459389290739</t>
+  </si>
+  <si>
+    <t>0.962706563972763</t>
+  </si>
+  <si>
+    <t>15497.6297956074</t>
+  </si>
+  <si>
+    <t>1.06748589213652</t>
+  </si>
+  <si>
+    <t>1.90339053078905</t>
+  </si>
+  <si>
+    <t>31.9091658418172</t>
+  </si>
+  <si>
+    <t>-0.613306147104222</t>
+  </si>
+  <si>
+    <t>1.97846718309909</t>
+  </si>
+  <si>
+    <t>17.0978638375056</t>
+  </si>
+  <si>
+    <t>-0.375037246193867</t>
+  </si>
+  <si>
+    <t>-18.2083552063939</t>
+  </si>
+  <si>
+    <t>-0.0514373710943522</t>
+  </si>
+  <si>
+    <t>0.0159420302816087</t>
+  </si>
+  <si>
+    <t>0.964380739942271</t>
+  </si>
+  <si>
+    <t>0.143221165866126</t>
+  </si>
+  <si>
+    <t>0.976502796986231</t>
+  </si>
+  <si>
+    <t>26.39730771754</t>
+  </si>
+  <si>
+    <t>0.383477657525127</t>
+  </si>
+  <si>
+    <t>0.962500519286458</t>
+  </si>
+  <si>
+    <t>0.00393241721656521</t>
+  </si>
+  <si>
+    <t>3.91859185175228</t>
+  </si>
+  <si>
+    <t>0.978006827143714</t>
+  </si>
+  <si>
+    <t>0.000251502665773916</t>
+  </si>
+  <si>
+    <t>4.21695211241226</t>
+  </si>
+  <si>
+    <t>0.975429971787716</t>
+  </si>
+  <si>
+    <t>0.20470200062763</t>
+  </si>
+  <si>
+    <t>0.958729602713997</t>
+  </si>
+  <si>
+    <t>0.46904479424226</t>
+  </si>
+  <si>
+    <t>0.737394890375174</t>
+  </si>
+  <si>
+    <t>-0.690433414704093</t>
+  </si>
+  <si>
+    <t>0.00259243766010321</t>
+  </si>
+  <si>
+    <t>0.962958313136625</t>
+  </si>
+  <si>
+    <t>0.0575508979797805</t>
+  </si>
+  <si>
+    <t>2.17960059067619</t>
+  </si>
+  <si>
+    <t>1.98051331261454</t>
+  </si>
+  <si>
+    <t>18.6078271827962</t>
+  </si>
+  <si>
+    <t>-0.383334108436611</t>
+  </si>
+  <si>
+    <t>0.955904101125526</t>
+  </si>
+  <si>
+    <t>46.0294190372946</t>
+  </si>
+  <si>
+    <t>0.000617868634429114</t>
+  </si>
+  <si>
+    <t>0.964895384665765</t>
+  </si>
+  <si>
+    <t>0.312888581800044</t>
+  </si>
+  <si>
+    <t>0.969167282869297</t>
+  </si>
+  <si>
+    <t>106535.810318065</t>
+  </si>
+  <si>
+    <t>1.32077291599773</t>
+  </si>
+  <si>
+    <t>0.976204928913427</t>
+  </si>
+  <si>
+    <t>0.00734452404246937</t>
+  </si>
+  <si>
+    <t>3.4601233768226</t>
+  </si>
+  <si>
+    <t>1.09075485665024</t>
+  </si>
+  <si>
+    <t>2.11724280877244</t>
+  </si>
+  <si>
+    <t>0.0120631043652748</t>
+  </si>
+  <si>
+    <t>0.954545313705779</t>
+  </si>
+  <si>
+    <t>0.467986976145482</t>
+  </si>
+  <si>
+    <t>0.969755355104591</t>
+  </si>
+  <si>
+    <t>292.563414441793</t>
+  </si>
+  <si>
+    <t>0.651349020936075</t>
+  </si>
+  <si>
+    <t>0.992960868815586</t>
+  </si>
+  <si>
+    <t>0.578371537669315</t>
+  </si>
+  <si>
+    <t>0.550906702129307</t>
+  </si>
+  <si>
+    <t>8.03597167420218</t>
+  </si>
+  <si>
+    <t>0.128101681401708</t>
+  </si>
+  <si>
+    <t>0.020102623176246</t>
+  </si>
+  <si>
+    <t>0.956639494515885</t>
+  </si>
+  <si>
+    <t>0.281300788972376</t>
+  </si>
+  <si>
+    <t>0.948841085313372</t>
+  </si>
+  <si>
+    <t>-229.223006050585</t>
+  </si>
+  <si>
+    <t>1.10078150150997</t>
   </si>
   <si>
     <t>value of A = 100.000000</t>
   </si>
   <si>
-    <t>0.857090526150179</t>
-  </si>
-  <si>
-    <t>0.0246448796737383</t>
-  </si>
-  <si>
-    <t>2.59612906222275</t>
-  </si>
-  <si>
-    <t>0.0172139706749192</t>
-  </si>
-  <si>
-    <t>-0.31502660688298</t>
-  </si>
-  <si>
-    <t>69.9976609645649</t>
-  </si>
-  <si>
-    <t>0.0550218138938163</t>
-  </si>
-  <si>
-    <t>-0.127481794479123</t>
-  </si>
-  <si>
-    <t>51.860157100757</t>
-  </si>
-  <si>
-    <t>0.00713153032481167</t>
-  </si>
-  <si>
-    <t>0.000922840908278099</t>
-  </si>
-  <si>
-    <t>0.87784187679348</t>
-  </si>
-  <si>
-    <t>0.0231785733222516</t>
-  </si>
-  <si>
-    <t>0.849737570998216</t>
-  </si>
-  <si>
-    <t>-137.886041721659</t>
-  </si>
-  <si>
-    <t>0.00235909375021947</t>
-  </si>
-  <si>
-    <t>2.98818517708805</t>
-  </si>
-  <si>
-    <t>0.0140718291719673</t>
-  </si>
-  <si>
-    <t>-0.296744004146979</t>
-  </si>
-  <si>
-    <t>43.35562199717</t>
-  </si>
-  <si>
-    <t>0.0497811758177097</t>
-  </si>
-  <si>
-    <t>-0.136776405939387</t>
-  </si>
-  <si>
-    <t>54.3637182433836</t>
-  </si>
-  <si>
-    <t>0.00778348578185392</t>
-  </si>
-  <si>
-    <t>0.000977527218515458</t>
-  </si>
-  <si>
-    <t>0.873165941218856</t>
-  </si>
-  <si>
-    <t>0.0256747503663878</t>
-  </si>
-  <si>
-    <t>0.86222006750198</t>
-  </si>
-  <si>
-    <t>2.6105344232378e-10</t>
-  </si>
-  <si>
-    <t>0.605578827417851</t>
-  </si>
-  <si>
-    <t>0.872731403133786</t>
-  </si>
-  <si>
-    <t>4.0858719683853e-08</t>
-  </si>
-  <si>
-    <t>0.617541403643497</t>
-  </si>
-  <si>
-    <t>55.1591814255566</t>
-  </si>
-  <si>
-    <t>0.00890373387047104</t>
-  </si>
-  <si>
-    <t>0.001041428797251</t>
-  </si>
-  <si>
-    <t>0.865665080546858</t>
-  </si>
-  <si>
-    <t>0.0165914320087605</t>
-  </si>
-  <si>
-    <t>0.834328611617697</t>
-  </si>
-  <si>
-    <t>1.64892399930619e-10</t>
-  </si>
-  <si>
-    <t>0.836065315421543</t>
-  </si>
-  <si>
-    <t>0.85574875742605</t>
-  </si>
-  <si>
-    <t>2.42509928303346e-08</t>
-  </si>
-  <si>
-    <t>0.82175414153558</t>
-  </si>
-  <si>
-    <t>0.876908330733529</t>
-  </si>
-  <si>
-    <t>0.0169714271381446</t>
-  </si>
-  <si>
-    <t>0.865270336987067</t>
-  </si>
-  <si>
-    <t>-9.48102124122584</t>
-  </si>
-  <si>
-    <t>0.0575411013719053</t>
-  </si>
-  <si>
-    <t>-750.614180522734</t>
-  </si>
-  <si>
-    <t>-0.1255478076546</t>
-  </si>
-  <si>
-    <t>-0.242648930364829</t>
-  </si>
-  <si>
-    <t>1.46880983625729</t>
-  </si>
-  <si>
-    <t>0.129343435633838</t>
-  </si>
-  <si>
-    <t>-0.369199032954729</t>
-  </si>
-  <si>
-    <t>37.1007223902786</t>
-  </si>
-  <si>
-    <t>0.0116497744243581</t>
-  </si>
-  <si>
-    <t>0.000870923803669028</t>
-  </si>
-  <si>
-    <t>0.87700949963592</t>
-  </si>
-  <si>
-    <t>0.0188980027018158</t>
-  </si>
-  <si>
-    <t>0.876730923855498</t>
-  </si>
-  <si>
-    <t>-59.3689270101302</t>
-  </si>
-  <si>
-    <t>0.00631675236227417</t>
-  </si>
-  <si>
-    <t>1.66740674162626</t>
-  </si>
-  <si>
-    <t>0.0441491939925967</t>
-  </si>
-  <si>
-    <t>-0.566705903237424</t>
-  </si>
-  <si>
-    <t>1.60999733969026</t>
-  </si>
-  <si>
-    <t>0.14992053607817</t>
-  </si>
-  <si>
-    <t>-0.390824262035171</t>
-  </si>
-  <si>
-    <t>17.2891821611163</t>
-  </si>
-  <si>
-    <t>0.0174392557087266</t>
-  </si>
-  <si>
-    <t>0.0022132132168432</t>
-  </si>
-  <si>
-    <t>0.874089493952935</t>
-  </si>
-  <si>
-    <t>0.0224106573260217</t>
-  </si>
-  <si>
-    <t>1.56146125498582</t>
-  </si>
-  <si>
-    <t>1.20333788120217e-22</t>
-  </si>
-  <si>
-    <t>-0.141419911939936</t>
-  </si>
-  <si>
-    <t>0.867854800513918</t>
-  </si>
-  <si>
-    <t>5.04850793766497e-09</t>
-  </si>
-  <si>
-    <t>0.309469835535269</t>
-  </si>
-  <si>
-    <t>0.861921635578553</t>
-  </si>
-  <si>
-    <t>1.18137761787887e-07</t>
-  </si>
-  <si>
-    <t>0.471188752363806</t>
-  </si>
-  <si>
-    <t>4.93682815309074</t>
-  </si>
-  <si>
-    <t>0.037351379998352</t>
-  </si>
-  <si>
-    <t>0.00167351631138328</t>
-  </si>
-  <si>
-    <t>0.863419428103006</t>
-  </si>
-  <si>
-    <t>0.0184732471183176</t>
-  </si>
-  <si>
-    <t>0.87377277206922</t>
-  </si>
-  <si>
-    <t>1.57823600816168e-10</t>
-  </si>
-  <si>
-    <t>0.869935097338668</t>
-  </si>
-  <si>
-    <t>0.870086207755133</t>
-  </si>
-  <si>
-    <t>1.52629928213458e-08</t>
-  </si>
-  <si>
-    <t>0.377961219998892</t>
-  </si>
-  <si>
-    <t>0.868284605505519</t>
-  </si>
-  <si>
-    <t>0.0170543255545674</t>
-  </si>
-  <si>
-    <t>0.252428755720364</t>
-  </si>
-  <si>
-    <t>-0.87897533000449</t>
-  </si>
-  <si>
-    <t>0.000324692991039131</t>
-  </si>
-  <si>
-    <t>1.4821707514862</t>
-  </si>
-  <si>
-    <t>4.26516419178091</t>
-  </si>
-  <si>
-    <t>-0.965083436521985</t>
-  </si>
-  <si>
-    <t>1.50669929602032</t>
-  </si>
-  <si>
-    <t>1.01260200387638</t>
-  </si>
-  <si>
-    <t>-0.759074176251596</t>
-  </si>
-  <si>
-    <t>40.8319312123825</t>
-  </si>
-  <si>
-    <t>0.006079919051987</t>
-  </si>
-  <si>
-    <t>0.000389715159490339</t>
-  </si>
-  <si>
-    <t>0.864079967367546</t>
-  </si>
-  <si>
-    <t>0.0195321765858734</t>
-  </si>
-  <si>
-    <t>0.860822902124474</t>
-  </si>
-  <si>
-    <t>-15526.0965569987</t>
-  </si>
-  <si>
-    <t>0.0934717493351257</t>
-  </si>
-  <si>
-    <t>1.46876209149741</t>
-  </si>
-  <si>
-    <t>2.99950561322856</t>
-  </si>
-  <si>
-    <t>-1.23487690924083</t>
-  </si>
-  <si>
-    <t>190.96986938594</t>
-  </si>
-  <si>
-    <t>-0.173045217679711</t>
-  </si>
-  <si>
-    <t>-0.12670062481385</t>
-  </si>
-  <si>
-    <t>-25.2374204745861</t>
-  </si>
-  <si>
-    <t>-0.27538644039597</t>
-  </si>
-  <si>
-    <t>0.00117996255503633</t>
-  </si>
-  <si>
-    <t>0.884037542197745</t>
-  </si>
-  <si>
-    <t>0.0161662967586128</t>
-  </si>
-  <si>
-    <t>0.851702813624675</t>
-  </si>
-  <si>
-    <t>-16.4968663210149</t>
-  </si>
-  <si>
-    <t>0.0220341485562127</t>
-  </si>
-  <si>
-    <t>0.862450287326943</t>
-  </si>
-  <si>
-    <t>1.61897649915235e-07</t>
-  </si>
-  <si>
-    <t>0.190080829565428</t>
-  </si>
-  <si>
-    <t>0.866831468119991</t>
-  </si>
-  <si>
-    <t>7.7186214703849e-07</t>
-  </si>
-  <si>
-    <t>0.699848597011277</t>
-  </si>
-  <si>
-    <t>0.873925025928055</t>
-  </si>
-  <si>
-    <t>0.0218375859452978</t>
-  </si>
-  <si>
-    <t>0.865654500641182</t>
-  </si>
-  <si>
-    <t>0.0301403628966816</t>
-  </si>
-  <si>
-    <t>0.199554855892217</t>
-  </si>
-  <si>
-    <t>-0.900393673726461</t>
-  </si>
-  <si>
-    <t>0.000223626717757792</t>
-  </si>
-  <si>
-    <t>0.872667436779929</t>
-  </si>
-  <si>
-    <t>2.93946306368079e-06</t>
-  </si>
-  <si>
-    <t>0.0714137413589755</t>
-  </si>
-  <si>
-    <t>1.51970465133108</t>
-  </si>
-  <si>
-    <t>1.55692548002489</t>
-  </si>
-  <si>
-    <t>-0.75640882178099</t>
-  </si>
-  <si>
-    <t>0.876232508624852</t>
-  </si>
-  <si>
-    <t>1.18560967742381</t>
-  </si>
-  <si>
-    <t>6.27439812488402e-06</t>
-  </si>
-  <si>
-    <t>0.868739081432897</t>
-  </si>
-  <si>
-    <t>0.0243868178998813</t>
-  </si>
-  <si>
-    <t>0.853062620569552</t>
-  </si>
-  <si>
-    <t>-16268.6292337951</t>
-  </si>
-  <si>
-    <t>0.123174541714205</t>
-  </si>
-  <si>
-    <t>0.86825115931974</t>
-  </si>
-  <si>
-    <t>7.39535269704214e-06</t>
-  </si>
-  <si>
-    <t>0.0417199431785774</t>
-  </si>
-  <si>
-    <t>0.866227923313267</t>
-  </si>
-  <si>
-    <t>-89.4587744272124</t>
-  </si>
-  <si>
-    <t>-0.831267841395439</t>
-  </si>
-  <si>
-    <t>0.864274543854657</t>
-  </si>
-  <si>
-    <t>0.0225757472579548</t>
-  </si>
-  <si>
-    <t>0.883677888671164</t>
-  </si>
-  <si>
-    <t>-21449.442395325</t>
-  </si>
-  <si>
-    <t>0.0276305252139802</t>
-  </si>
-  <si>
-    <t>0.905217982290651</t>
-  </si>
-  <si>
-    <t>3.09620016149114e-05</t>
-  </si>
-  <si>
-    <t>-0.0963039845612762</t>
-  </si>
-  <si>
-    <t>-39.9075676215944</t>
-  </si>
-  <si>
-    <t>-0.131174260236975</t>
-  </si>
-  <si>
-    <t>0.000248727727730624</t>
-  </si>
-  <si>
-    <t>0.861545090616071</t>
-  </si>
-  <si>
-    <t>0.0231030652815258</t>
+    <t>0.860768618156125</t>
+  </si>
+  <si>
+    <t>0.0208942840063985</t>
+  </si>
+  <si>
+    <t>2.53521188846362</t>
+  </si>
+  <si>
+    <t>0.0180608808873437</t>
+  </si>
+  <si>
+    <t>-0.34713450396555</t>
+  </si>
+  <si>
+    <t>60.5204641722937</t>
+  </si>
+  <si>
+    <t>0.0505040236345627</t>
+  </si>
+  <si>
+    <t>-0.139941549107217</t>
+  </si>
+  <si>
+    <t>75.5057923204629</t>
+  </si>
+  <si>
+    <t>0.00711653940642177</t>
+  </si>
+  <si>
+    <t>0.0014349964819884</t>
+  </si>
+  <si>
+    <t>0.874748856689188</t>
+  </si>
+  <si>
+    <t>0.0196765517809424</t>
+  </si>
+  <si>
+    <t>0.860194646655152</t>
+  </si>
+  <si>
+    <t>-0.971211717085723</t>
+  </si>
+  <si>
+    <t>0.00427588098385788</t>
+  </si>
+  <si>
+    <t>3.52917676349774</t>
+  </si>
+  <si>
+    <t>0.0148952366209325</t>
+  </si>
+  <si>
+    <t>-0.346288710659473</t>
+  </si>
+  <si>
+    <t>42.8540650074187</t>
+  </si>
+  <si>
+    <t>0.0584668381069196</t>
+  </si>
+  <si>
+    <t>-0.129741933720936</t>
+  </si>
+  <si>
+    <t>45.3506988534792</t>
+  </si>
+  <si>
+    <t>0.00774097024855257</t>
+  </si>
+  <si>
+    <t>0.000424284480231786</t>
+  </si>
+  <si>
+    <t>0.877140297719168</t>
+  </si>
+  <si>
+    <t>0.0175406256803255</t>
+  </si>
+  <si>
+    <t>0.890392014429479</t>
+  </si>
+  <si>
+    <t>1.46163454739509e-09</t>
+  </si>
+  <si>
+    <t>0.923683480381167</t>
+  </si>
+  <si>
+    <t>0.869190991310398</t>
+  </si>
+  <si>
+    <t>1.10023317859388e-08</t>
+  </si>
+  <si>
+    <t>1.07195120952841</t>
+  </si>
+  <si>
+    <t>56.0635202658634</t>
+  </si>
+  <si>
+    <t>0.0087235681348761</t>
+  </si>
+  <si>
+    <t>0.000945401702864406</t>
+  </si>
+  <si>
+    <t>0.868845617653082</t>
+  </si>
+  <si>
+    <t>0.0213427786270645</t>
+  </si>
+  <si>
+    <t>0.880215680233768</t>
+  </si>
+  <si>
+    <t>1.17710187231738e-10</t>
+  </si>
+  <si>
+    <t>0.91343303807669</t>
+  </si>
+  <si>
+    <t>0.848815969506789</t>
+  </si>
+  <si>
+    <t>6.82025602100583e-09</t>
+  </si>
+  <si>
+    <t>0.611050615483945</t>
+  </si>
+  <si>
+    <t>0.857906984347249</t>
+  </si>
+  <si>
+    <t>0.0239130478786196</t>
+  </si>
+  <si>
+    <t>0.877453432618527</t>
+  </si>
+  <si>
+    <t>-566.314496955517</t>
+  </si>
+  <si>
+    <t>0.0134834631604645</t>
+  </si>
+  <si>
+    <t>-684.608860752492</t>
+  </si>
+  <si>
+    <t>-0.0571439832568315</t>
+  </si>
+  <si>
+    <t>-0.255273468372422</t>
+  </si>
+  <si>
+    <t>1.43310213469581</t>
+  </si>
+  <si>
+    <t>0.173496646687562</t>
+  </si>
+  <si>
+    <t>-0.520857945343421</t>
+  </si>
+  <si>
+    <t>30.8910673500995</t>
+  </si>
+  <si>
+    <t>0.011628287316989</t>
+  </si>
+  <si>
+    <t>0.000837386621063912</t>
+  </si>
+  <si>
+    <t>0.875032227371317</t>
+  </si>
+  <si>
+    <t>0.0172252809532553</t>
+  </si>
+  <si>
+    <t>0.869234643838324</t>
+  </si>
+  <si>
+    <t>-143.943919970085</t>
+  </si>
+  <si>
+    <t>0.00572347694393224</t>
+  </si>
+  <si>
+    <t>1.44930969413177</t>
+  </si>
+  <si>
+    <t>0.0271633840927296</t>
+  </si>
+  <si>
+    <t>-0.718312488953764</t>
+  </si>
+  <si>
+    <t>1.91440299958559</t>
+  </si>
+  <si>
+    <t>0.137225824716035</t>
+  </si>
+  <si>
+    <t>-0.309346401400937</t>
+  </si>
+  <si>
+    <t>15.0855590206075</t>
+  </si>
+  <si>
+    <t>0.023875230501721</t>
+  </si>
+  <si>
+    <t>0.00137043227397867</t>
+  </si>
+  <si>
+    <t>0.868700031062398</t>
+  </si>
+  <si>
+    <t>0.0168216578127475</t>
+  </si>
+  <si>
+    <t>1.58253368222691</t>
+  </si>
+  <si>
+    <t>3.41575327485144e-23</t>
+  </si>
+  <si>
+    <t>-0.140560876425623</t>
+  </si>
+  <si>
+    <t>0.863419763053302</t>
+  </si>
+  <si>
+    <t>1.22010147456592e-09</t>
+  </si>
+  <si>
+    <t>0.436190389267975</t>
+  </si>
+  <si>
+    <t>0.883755695990062</t>
+  </si>
+  <si>
+    <t>2.7760324412959e-08</t>
+  </si>
+  <si>
+    <t>0.534447313866162</t>
+  </si>
+  <si>
+    <t>4.78293552660774</t>
+  </si>
+  <si>
+    <t>0.0383444849211098</t>
+  </si>
+  <si>
+    <t>0.00133791909179369</t>
+  </si>
+  <si>
+    <t>0.848527067916174</t>
+  </si>
+  <si>
+    <t>0.0214879009019832</t>
+  </si>
+  <si>
+    <t>0.865880340158021</t>
+  </si>
+  <si>
+    <t>1.98410776934391e-09</t>
+  </si>
+  <si>
+    <t>0.865918628887879</t>
+  </si>
+  <si>
+    <t>0.878840452055629</t>
+  </si>
+  <si>
+    <t>4.22350326332136e-08</t>
+  </si>
+  <si>
+    <t>0.77599180593273</t>
+  </si>
+  <si>
+    <t>0.866908189594872</t>
+  </si>
+  <si>
+    <t>0.0185197037732802</t>
+  </si>
+  <si>
+    <t>0.331481960491814</t>
+  </si>
+  <si>
+    <t>-0.843439838448126</t>
+  </si>
+  <si>
+    <t>0.000505967619768052</t>
+  </si>
+  <si>
+    <t>1.52485599493964</t>
+  </si>
+  <si>
+    <t>0.634068687462538</t>
+  </si>
+  <si>
+    <t>-1.07043968344527</t>
+  </si>
+  <si>
+    <t>1.48519286531699</t>
+  </si>
+  <si>
+    <t>3.3065611772135</t>
+  </si>
+  <si>
+    <t>-0.612001509809015</t>
+  </si>
+  <si>
+    <t>87.7567453883072</t>
+  </si>
+  <si>
+    <t>0.00590091465964816</t>
+  </si>
+  <si>
+    <t>0.00121826117976577</t>
+  </si>
+  <si>
+    <t>0.892232017805914</t>
+  </si>
+  <si>
+    <t>0.0151552618631489</t>
+  </si>
+  <si>
+    <t>0.865284773480786</t>
+  </si>
+  <si>
+    <t>-811694.53385836</t>
+  </si>
+  <si>
+    <t>0.105705566353902</t>
+  </si>
+  <si>
+    <t>1.55411337586723</t>
+  </si>
+  <si>
+    <t>2.44760681854479</t>
+  </si>
+  <si>
+    <t>-1.05550880066624</t>
+  </si>
+  <si>
+    <t>145.356185311195</t>
+  </si>
+  <si>
+    <t>-0.226265631668786</t>
+  </si>
+  <si>
+    <t>-0.130403538806667</t>
+  </si>
+  <si>
+    <t>-25.1861168090491</t>
+  </si>
+  <si>
+    <t>-0.224393641033893</t>
+  </si>
+  <si>
+    <t>0.000603626742740301</t>
+  </si>
+  <si>
+    <t>0.863944801470351</t>
+  </si>
+  <si>
+    <t>0.0145956680302471</t>
+  </si>
+  <si>
+    <t>0.859267410281888</t>
+  </si>
+  <si>
+    <t>-28.3280520080992</t>
+  </si>
+  <si>
+    <t>0.0129119425600827</t>
+  </si>
+  <si>
+    <t>0.869701126843216</t>
+  </si>
+  <si>
+    <t>2.01130605146556e-06</t>
+  </si>
+  <si>
+    <t>0.214692173701006</t>
+  </si>
+  <si>
+    <t>0.848760494220192</t>
+  </si>
+  <si>
+    <t>6.51517999492799e-07</t>
+  </si>
+  <si>
+    <t>0.489191178428759</t>
+  </si>
+  <si>
+    <t>0.864964889958122</t>
+  </si>
+  <si>
+    <t>0.0202227946066583</t>
+  </si>
+  <si>
+    <t>0.871620516150498</t>
+  </si>
+  <si>
+    <t>0.0245222564539325</t>
+  </si>
+  <si>
+    <t>0.41958547502907</t>
+  </si>
+  <si>
+    <t>-0.849065696024727</t>
+  </si>
+  <si>
+    <t>0.000664935913616552</t>
+  </si>
+  <si>
+    <t>0.852992990167332</t>
+  </si>
+  <si>
+    <t>1.05316360212176e-05</t>
+  </si>
+  <si>
+    <t>-0.035640726464829</t>
+  </si>
+  <si>
+    <t>1.48524195456105</t>
+  </si>
+  <si>
+    <t>1.77950707275597</t>
+  </si>
+  <si>
+    <t>-0.814744734208918</t>
+  </si>
+  <si>
+    <t>0.880351444722223</t>
+  </si>
+  <si>
+    <t>0.670727077693687</t>
+  </si>
+  <si>
+    <t>2.25534639881555e-05</t>
+  </si>
+  <si>
+    <t>0.867496278744147</t>
+  </si>
+  <si>
+    <t>0.0402491551157426</t>
+  </si>
+  <si>
+    <t>0.873983964685178</t>
+  </si>
+  <si>
+    <t>-10306932.235051</t>
+  </si>
+  <si>
+    <t>0.0756977028231522</t>
+  </si>
+  <si>
+    <t>0.869144431991139</t>
+  </si>
+  <si>
+    <t>1.1416614372524e-05</t>
+  </si>
+  <si>
+    <t>0.102453952678179</t>
+  </si>
+  <si>
+    <t>0.867822725518676</t>
+  </si>
+  <si>
+    <t>-110.147384224713</t>
+  </si>
+  <si>
+    <t>-0.448186255992654</t>
+  </si>
+  <si>
+    <t>0.844725590710097</t>
+  </si>
+  <si>
+    <t>0.0228168498695504</t>
+  </si>
+  <si>
+    <t>0.874715655164822</t>
+  </si>
+  <si>
+    <t>-2168.0203692722</t>
+  </si>
+  <si>
+    <t>0.0682956103616003</t>
+  </si>
+  <si>
+    <t>0.874794636272292</t>
+  </si>
+  <si>
+    <t>0.00082671740989803</t>
+  </si>
+  <si>
+    <t>-0.0744730937120977</t>
+  </si>
+  <si>
+    <t>-32.7463924778016</t>
+  </si>
+  <si>
+    <t>-0.144196277950796</t>
+  </si>
+  <si>
+    <t>0.000906677850821578</t>
+  </si>
+  <si>
+    <t>0.85251131846182</t>
+  </si>
+  <si>
+    <t>0.0288882238309192</t>
   </si>
   <si>
     <t>value of A = 150.000000</t>
   </si>
   <si>
-    <t>0.889351990592376</t>
-  </si>
-  <si>
-    <t>0.021586908707523</t>
-  </si>
-  <si>
-    <t>10.4739586943752</t>
-  </si>
-  <si>
-    <t>0.00940298091080714</t>
-  </si>
-  <si>
-    <t>-0.263741803496522</t>
-  </si>
-  <si>
-    <t>49.5608481202533</t>
-  </si>
-  <si>
-    <t>0.0453837932400832</t>
-  </si>
-  <si>
-    <t>-0.146367301647541</t>
-  </si>
-  <si>
-    <t>94.3816712167062</t>
-  </si>
-  <si>
-    <t>0.00446430096911645</t>
-  </si>
-  <si>
-    <t>0.00112565150397152</t>
-  </si>
-  <si>
-    <t>0.862168113753291</t>
-  </si>
-  <si>
-    <t>0.016753828147513</t>
-  </si>
-  <si>
-    <t>0.856480696651177</t>
-  </si>
-  <si>
-    <t>-74.3549906603773</t>
-  </si>
-  <si>
-    <t>0.00116047363093952</t>
-  </si>
-  <si>
-    <t>1.5084271140169</t>
-  </si>
-  <si>
-    <t>0.0411745522336457</t>
-  </si>
-  <si>
-    <t>-0.525618627286576</t>
-  </si>
-  <si>
-    <t>30.1066174910163</t>
-  </si>
-  <si>
-    <t>0.0638670003793946</t>
-  </si>
-  <si>
-    <t>-0.139176523271369</t>
-  </si>
-  <si>
-    <t>95.1693973788972</t>
-  </si>
-  <si>
-    <t>0.00466083058871139</t>
-  </si>
-  <si>
-    <t>0.00178424548864399</t>
-  </si>
-  <si>
-    <t>0.868589098542716</t>
-  </si>
-  <si>
-    <t>0.0161906355644475</t>
-  </si>
-  <si>
-    <t>0.852266939890533</t>
-  </si>
-  <si>
-    <t>3.61307170363579e-08</t>
-  </si>
-  <si>
-    <t>1.06216267221287</t>
-  </si>
-  <si>
-    <t>0.872926746332412</t>
-  </si>
-  <si>
-    <t>3.9957497084812e-08</t>
-  </si>
-  <si>
-    <t>0.620494867879704</t>
-  </si>
-  <si>
-    <t>72.3973682746385</t>
-  </si>
-  <si>
-    <t>0.00822221887772507</t>
-  </si>
-  <si>
-    <t>0.00145000580749797</t>
-  </si>
-  <si>
-    <t>0.840324461905246</t>
-  </si>
-  <si>
-    <t>0.0215720436703009</t>
-  </si>
-  <si>
-    <t>0.85413765584818</t>
-  </si>
-  <si>
-    <t>3.34077953021511e-10</t>
-  </si>
-  <si>
-    <t>0.507583124099389</t>
-  </si>
-  <si>
-    <t>0.861175891801143</t>
-  </si>
-  <si>
-    <t>1.39531178440614e-09</t>
-  </si>
-  <si>
-    <t>0.763129086433267</t>
-  </si>
-  <si>
-    <t>0.848731187973823</t>
-  </si>
-  <si>
-    <t>0.0173255787954246</t>
-  </si>
-  <si>
-    <t>0.863652376662497</t>
-  </si>
-  <si>
-    <t>-30639.5219835269</t>
-  </si>
-  <si>
-    <t>0.0884381230061961</t>
-  </si>
-  <si>
-    <t>6.89056249034584</t>
-  </si>
-  <si>
-    <t>0.0133060273846471</t>
-  </si>
-  <si>
-    <t>-0.30834319645633</t>
-  </si>
-  <si>
-    <t>1.76290889585529</t>
-  </si>
-  <si>
-    <t>0.131042773547373</t>
-  </si>
-  <si>
-    <t>-0.344083506678929</t>
-  </si>
-  <si>
-    <t>71.8491108083184</t>
-  </si>
-  <si>
-    <t>0.00627680664703274</t>
-  </si>
-  <si>
-    <t>0.00104577768012838</t>
-  </si>
-  <si>
-    <t>0.868157121958995</t>
-  </si>
-  <si>
-    <t>0.0152845152657192</t>
-  </si>
-  <si>
-    <t>0.832918355519428</t>
-  </si>
-  <si>
-    <t>-64.1355506035065</t>
-  </si>
-  <si>
-    <t>0.00279428515042738</t>
-  </si>
-  <si>
-    <t>1.50052988521085</t>
-  </si>
-  <si>
-    <t>0.0219602809459931</t>
-  </si>
-  <si>
-    <t>-0.573192347951618</t>
-  </si>
-  <si>
-    <t>2.52041082650974</t>
-  </si>
-  <si>
-    <t>0.127854144045563</t>
-  </si>
-  <si>
-    <t>-0.267508742806064</t>
-  </si>
-  <si>
-    <t>3.00848805674565</t>
-  </si>
-  <si>
-    <t>0.0326487495322146</t>
-  </si>
-  <si>
-    <t>0.000476747598613221</t>
-  </si>
-  <si>
-    <t>0.875871056610501</t>
-  </si>
-  <si>
-    <t>0.0130233356441866</t>
-  </si>
-  <si>
-    <t>0.869625529437259</t>
-  </si>
-  <si>
-    <t>-44.5856575923644</t>
-  </si>
-  <si>
-    <t>0.00437208835632999</t>
-  </si>
-  <si>
-    <t>0.859651046861837</t>
-  </si>
-  <si>
-    <t>1.25020527643684e-07</t>
-  </si>
-  <si>
-    <t>0.227829337379359</t>
-  </si>
-  <si>
-    <t>0.886680187913034</t>
-  </si>
-  <si>
-    <t>5.53590488383477e-07</t>
-  </si>
-  <si>
-    <t>0.407456517474495</t>
-  </si>
-  <si>
-    <t>4.01158036138486</t>
-  </si>
-  <si>
-    <t>0.0384934728984365</t>
-  </si>
-  <si>
-    <t>0.000800976220052042</t>
-  </si>
-  <si>
-    <t>0.858888318631006</t>
-  </si>
-  <si>
-    <t>0.0160186339390682</t>
-  </si>
-  <si>
-    <t>0.861600562398294</t>
-  </si>
-  <si>
-    <t>2.42595057645901e-09</t>
-  </si>
-  <si>
-    <t>1.01849634111523</t>
-  </si>
-  <si>
-    <t>0.856700010262507</t>
-  </si>
-  <si>
-    <t>6.76768665091094e-08</t>
-  </si>
-  <si>
-    <t>0.502811762753511</t>
-  </si>
-  <si>
-    <t>0.868226323358494</t>
-  </si>
-  <si>
-    <t>0.01797968009642</t>
-  </si>
-  <si>
-    <t>0.324476552521139</t>
-  </si>
-  <si>
-    <t>-0.847365643644561</t>
-  </si>
-  <si>
-    <t>0.000447553649658194</t>
-  </si>
-  <si>
-    <t>1.54014244735544</t>
-  </si>
-  <si>
-    <t>0.763587176716642</t>
-  </si>
-  <si>
-    <t>-0.993594425786433</t>
-  </si>
-  <si>
-    <t>2.34644170171851</t>
-  </si>
-  <si>
-    <t>0.113778761413539</t>
-  </si>
-  <si>
-    <t>-0.238282196145362</t>
-  </si>
-  <si>
-    <t>123.892757787393</t>
-  </si>
-  <si>
-    <t>0.00428672097119406</t>
-  </si>
-  <si>
-    <t>0.000984094897354965</t>
-  </si>
-  <si>
-    <t>0.882637894786213</t>
-  </si>
-  <si>
-    <t>0.0200864529283322</t>
-  </si>
-  <si>
-    <t>0.846303891416262</t>
-  </si>
-  <si>
-    <t>-3324.51558231931</t>
-  </si>
-  <si>
-    <t>0.0576041606348586</t>
-  </si>
-  <si>
-    <t>1.53425126571259</t>
-  </si>
-  <si>
-    <t>0.897784838492326</t>
-  </si>
-  <si>
-    <t>-1.02703249223155</t>
-  </si>
-  <si>
-    <t>53.7399109097146</t>
-  </si>
-  <si>
-    <t>-0.339960669046244</t>
-  </si>
-  <si>
-    <t>-0.123568383816835</t>
-  </si>
-  <si>
-    <t>-33.2256932720021</t>
-  </si>
-  <si>
-    <t>-0.0913043975439715</t>
-  </si>
-  <si>
-    <t>0.000684958464612694</t>
-  </si>
-  <si>
-    <t>0.874108001758954</t>
-  </si>
-  <si>
-    <t>0.0158650686091411</t>
-  </si>
-  <si>
-    <t>0.861238631191889</t>
-  </si>
-  <si>
-    <t>-169.220758771711</t>
-  </si>
-  <si>
-    <t>0.018018023546282</t>
-  </si>
-  <si>
-    <t>0.885648150615469</t>
-  </si>
-  <si>
-    <t>3.71242527604852e-07</t>
-  </si>
-  <si>
-    <t>0.208908752117707</t>
-  </si>
-  <si>
-    <t>0.874028876752375</t>
-  </si>
-  <si>
-    <t>3.44094961199942e-06</t>
-  </si>
-  <si>
-    <t>0.0545348046598497</t>
-  </si>
-  <si>
-    <t>0.854614760584218</t>
-  </si>
-  <si>
-    <t>0.0334416878764607</t>
-  </si>
-  <si>
-    <t>-15.2989560196051</t>
-  </si>
-  <si>
-    <t>-0.0985035616820953</t>
-  </si>
-  <si>
-    <t>0.00605778018619929</t>
-  </si>
-  <si>
-    <t>0.862861259937914</t>
-  </si>
-  <si>
-    <t>0.0228085573306961</t>
-  </si>
-  <si>
-    <t>0.124590610375467</t>
-  </si>
-  <si>
-    <t>-0.93928654377545</t>
-  </si>
-  <si>
-    <t>0.000119211616712617</t>
-  </si>
-  <si>
-    <t>0.866405607531116</t>
-  </si>
-  <si>
-    <t>2.33600797252156e-06</t>
-  </si>
-  <si>
-    <t>0.0405430084511688</t>
-  </si>
-  <si>
-    <t>1.42916384429318</t>
-  </si>
-  <si>
-    <t>4.11500751451825</t>
-  </si>
-  <si>
-    <t>-0.739519508318642</t>
-  </si>
-  <si>
-    <t>0.871360956254466</t>
-  </si>
-  <si>
-    <t>0.860640936879277</t>
-  </si>
-  <si>
-    <t>1.08515815656882e-05</t>
-  </si>
-  <si>
-    <t>0.86606510931446</t>
-  </si>
-  <si>
-    <t>0.0240192075284214</t>
-  </si>
-  <si>
-    <t>0.862977203946388</t>
-  </si>
-  <si>
-    <t>-1229.81770215741</t>
-  </si>
-  <si>
-    <t>0.0507483325844301</t>
-  </si>
-  <si>
-    <t>0.888060195548333</t>
-  </si>
-  <si>
-    <t>6.69480777997969e-06</t>
-  </si>
-  <si>
-    <t>0.135185039499553</t>
-  </si>
-  <si>
-    <t>0.917768589599022</t>
-  </si>
-  <si>
-    <t>0.233594863662666</t>
-  </si>
-  <si>
-    <t>0.000420272932126863</t>
-  </si>
-  <si>
-    <t>0.839857529775988</t>
-  </si>
-  <si>
-    <t>0.0533446414591923</t>
-  </si>
-  <si>
-    <t>0.849975731342295</t>
-  </si>
-  <si>
-    <t>-2379.54704993685</t>
-  </si>
-  <si>
-    <t>0.0508009850251917</t>
-  </si>
-  <si>
-    <t>0.853583535919631</t>
-  </si>
-  <si>
-    <t>0.000112887205728077</t>
-  </si>
-  <si>
-    <t>0.0694863681577817</t>
-  </si>
-  <si>
-    <t>0.872060029356921</t>
-  </si>
-  <si>
-    <t>0.000634489677551176</t>
-  </si>
-  <si>
-    <t>-0.275443674972053</t>
-  </si>
-  <si>
-    <t>-13.0101333585934</t>
-  </si>
-  <si>
-    <t>-0.136469347180974</t>
-  </si>
-  <si>
-    <t>0.00102375263032197</t>
-  </si>
-  <si>
-    <t>0.848234384616705</t>
-  </si>
-  <si>
-    <t>0.0200362728594017</t>
-  </si>
-  <si>
-    <t>5.3572474648292</t>
-  </si>
-  <si>
-    <t>0.0326026327671228</t>
-  </si>
-  <si>
-    <t>0.00115190997304037</t>
+    <t>0.883311682099262</t>
+  </si>
+  <si>
+    <t>0.024244950499331</t>
+  </si>
+  <si>
+    <t>18.5191254975696</t>
+  </si>
+  <si>
+    <t>0.00884017317749846</t>
+  </si>
+  <si>
+    <t>-0.2616901080233</t>
+  </si>
+  <si>
+    <t>45.3302068669291</t>
+  </si>
+  <si>
+    <t>0.064139952064703</t>
+  </si>
+  <si>
+    <t>-0.140914615946528</t>
+  </si>
+  <si>
+    <t>118.838039674844</t>
+  </si>
+  <si>
+    <t>0.00467956940849554</t>
+  </si>
+  <si>
+    <t>0.000573743008277389</t>
+  </si>
+  <si>
+    <t>0.8516787098436</t>
+  </si>
+  <si>
+    <t>0.017245726106705</t>
+  </si>
+  <si>
+    <t>0.854567368991215</t>
+  </si>
+  <si>
+    <t>-29.8081068528466</t>
+  </si>
+  <si>
+    <t>0.0183499645656359</t>
+  </si>
+  <si>
+    <t>1.44789001328682</t>
+  </si>
+  <si>
+    <t>0.030861934464706</t>
+  </si>
+  <si>
+    <t>-0.592628252694547</t>
+  </si>
+  <si>
+    <t>29.2298744190361</t>
+  </si>
+  <si>
+    <t>0.0603639984182057</t>
+  </si>
+  <si>
+    <t>-0.134544100615114</t>
+  </si>
+  <si>
+    <t>63.9635838375875</t>
+  </si>
+  <si>
+    <t>0.00495595126601302</t>
+  </si>
+  <si>
+    <t>0.000446280083997595</t>
+  </si>
+  <si>
+    <t>0.85416386434406</t>
+  </si>
+  <si>
+    <t>0.0272876305330343</t>
+  </si>
+  <si>
+    <t>0.856507325326357</t>
+  </si>
+  <si>
+    <t>1.62234425991366e-09</t>
+  </si>
+  <si>
+    <t>0.451892320218478</t>
+  </si>
+  <si>
+    <t>0.8836326083755</t>
+  </si>
+  <si>
+    <t>2.35569722762465e-08</t>
+  </si>
+  <si>
+    <t>1.13546687596178</t>
+  </si>
+  <si>
+    <t>62.9927878853769</t>
+  </si>
+  <si>
+    <t>0.00809078022417523</t>
+  </si>
+  <si>
+    <t>0.00107050343992081</t>
+  </si>
+  <si>
+    <t>0.856761924893555</t>
+  </si>
+  <si>
+    <t>0.0189034126208518</t>
+  </si>
+  <si>
+    <t>0.863415739321486</t>
+  </si>
+  <si>
+    <t>2.26394042895466e-11</t>
+  </si>
+  <si>
+    <t>0.743447850614578</t>
+  </si>
+  <si>
+    <t>0.863305416722053</t>
+  </si>
+  <si>
+    <t>1.25476921864609e-08</t>
+  </si>
+  <si>
+    <t>0.663974721637439</t>
+  </si>
+  <si>
+    <t>0.88211442642475</t>
+  </si>
+  <si>
+    <t>0.0177919283092577</t>
+  </si>
+  <si>
+    <t>0.858869813754093</t>
+  </si>
+  <si>
+    <t>-0.620873617330432</t>
+  </si>
+  <si>
+    <t>0.0406041970786912</t>
+  </si>
+  <si>
+    <t>3.90039022858395</t>
+  </si>
+  <si>
+    <t>0.0126571270860451</t>
+  </si>
+  <si>
+    <t>-0.33410784112326</t>
+  </si>
+  <si>
+    <t>1.57523823189397</t>
+  </si>
+  <si>
+    <t>0.144834279530847</t>
+  </si>
+  <si>
+    <t>-0.36174694081996</t>
+  </si>
+  <si>
+    <t>88.9269145002503</t>
+  </si>
+  <si>
+    <t>0.00588438541884243</t>
+  </si>
+  <si>
+    <t>0.00106051734769371</t>
+  </si>
+  <si>
+    <t>0.869811170449606</t>
+  </si>
+  <si>
+    <t>0.0240469579689511</t>
+  </si>
+  <si>
+    <t>0.863021334451657</t>
+  </si>
+  <si>
+    <t>-7.70145046375806</t>
+  </si>
+  <si>
+    <t>0.0112825298415569</t>
+  </si>
+  <si>
+    <t>1.42068201913717</t>
+  </si>
+  <si>
+    <t>0.0289537264480199</t>
+  </si>
+  <si>
+    <t>-0.716561356490743</t>
+  </si>
+  <si>
+    <t>2.07158607803253</t>
+  </si>
+  <si>
+    <t>0.0925856637923001</t>
+  </si>
+  <si>
+    <t>-0.24065843157826</t>
+  </si>
+  <si>
+    <t>6.75899426325343</t>
+  </si>
+  <si>
+    <t>0.030882622878488</t>
+  </si>
+  <si>
+    <t>0.00123327210771469</t>
+  </si>
+  <si>
+    <t>0.882986891939681</t>
+  </si>
+  <si>
+    <t>0.0191387149309406</t>
+  </si>
+  <si>
+    <t>0.861651897476928</t>
+  </si>
+  <si>
+    <t>-95.7833027937277</t>
+  </si>
+  <si>
+    <t>0.00922740139468866</t>
+  </si>
+  <si>
+    <t>0.886308042264031</t>
+  </si>
+  <si>
+    <t>1.03784026783581e-07</t>
+  </si>
+  <si>
+    <t>0.460591195623602</t>
+  </si>
+  <si>
+    <t>0.863289541998678</t>
+  </si>
+  <si>
+    <t>3.29711296621788e-08</t>
+  </si>
+  <si>
+    <t>0.311293581726791</t>
+  </si>
+  <si>
+    <t>4.04680947316353</t>
+  </si>
+  <si>
+    <t>0.0393056417884298</t>
+  </si>
+  <si>
+    <t>0.00116634267830108</t>
+  </si>
+  <si>
+    <t>0.857567571384012</t>
+  </si>
+  <si>
+    <t>0.0231341837026237</t>
+  </si>
+  <si>
+    <t>0.853743801992528</t>
+  </si>
+  <si>
+    <t>1.0968339018011e-09</t>
+  </si>
+  <si>
+    <t>0.708935437413456</t>
+  </si>
+  <si>
+    <t>0.855167136425087</t>
+  </si>
+  <si>
+    <t>4.14269009261121e-09</t>
+  </si>
+  <si>
+    <t>0.686184390337646</t>
+  </si>
+  <si>
+    <t>0.873075788601369</t>
+  </si>
+  <si>
+    <t>0.0139758363649414</t>
+  </si>
+  <si>
+    <t>0.445417068203949</t>
+  </si>
+  <si>
+    <t>-0.807620657902162</t>
+  </si>
+  <si>
+    <t>0.000674387862513298</t>
+  </si>
+  <si>
+    <t>1.35249232767577</t>
+  </si>
+  <si>
+    <t>0.858343661420956</t>
+  </si>
+  <si>
+    <t>-1.28041278571852</t>
+  </si>
+  <si>
+    <t>2.43734673397935</t>
+  </si>
+  <si>
+    <t>0.105994084602671</t>
+  </si>
+  <si>
+    <t>-0.24648833324009</t>
+  </si>
+  <si>
+    <t>115.508239843495</t>
+  </si>
+  <si>
+    <t>0.00449820894320416</t>
+  </si>
+  <si>
+    <t>0.00127726937685231</t>
+  </si>
+  <si>
+    <t>0.853915691809468</t>
+  </si>
+  <si>
+    <t>0.0135660529673777</t>
+  </si>
+  <si>
+    <t>0.88161577262681</t>
+  </si>
+  <si>
+    <t>-303503.972305783</t>
+  </si>
+  <si>
+    <t>0.123310142368587</t>
+  </si>
+  <si>
+    <t>1.54905384977839</t>
+  </si>
+  <si>
+    <t>1.28011664962658</t>
+  </si>
+  <si>
+    <t>-1.00680974454156</t>
+  </si>
+  <si>
+    <t>64.3563873942223</t>
+  </si>
+  <si>
+    <t>-0.308745388189411</t>
+  </si>
+  <si>
+    <t>-0.118583381441238</t>
+  </si>
+  <si>
+    <t>-49.6481502031063</t>
+  </si>
+  <si>
+    <t>-0.129009214207559</t>
+  </si>
+  <si>
+    <t>-0.00188163431904793</t>
+  </si>
+  <si>
+    <t>0.885882397863472</t>
+  </si>
+  <si>
+    <t>0.0271479105470514</t>
+  </si>
+  <si>
+    <t>0.859280382601542</t>
+  </si>
+  <si>
+    <t>-65.5191727108483</t>
+  </si>
+  <si>
+    <t>0.0187834104488665</t>
+  </si>
+  <si>
+    <t>0.840496968759511</t>
+  </si>
+  <si>
+    <t>2.19704348341514e-07</t>
+  </si>
+  <si>
+    <t>0.223301956368812</t>
+  </si>
+  <si>
+    <t>0.885201167435833</t>
+  </si>
+  <si>
+    <t>2.18030466172374e-06</t>
+  </si>
+  <si>
+    <t>0.320916671359335</t>
+  </si>
+  <si>
+    <t>0.869412545062276</t>
+  </si>
+  <si>
+    <t>0.0186611542397922</t>
+  </si>
+  <si>
+    <t>-15.7750859896932</t>
+  </si>
+  <si>
+    <t>-0.0994462545581527</t>
+  </si>
+  <si>
+    <t>0.00482587997873288</t>
+  </si>
+  <si>
+    <t>0.864976280365484</t>
+  </si>
+  <si>
+    <t>0.0332071183736101</t>
+  </si>
+  <si>
+    <t>0.382904385551877</t>
+  </si>
+  <si>
+    <t>-0.8251786637223</t>
+  </si>
+  <si>
+    <t>0.000555669104339597</t>
+  </si>
+  <si>
+    <t>0.88022604461955</t>
+  </si>
+  <si>
+    <t>6.19808387334879e-07</t>
+  </si>
+  <si>
+    <t>0.0349993033165917</t>
+  </si>
+  <si>
+    <t>1.49257273838385</t>
+  </si>
+  <si>
+    <t>1.70624352491057</t>
+  </si>
+  <si>
+    <t>-0.630637983411969</t>
+  </si>
+  <si>
+    <t>0.841866464473915</t>
+  </si>
+  <si>
+    <t>0.743459714149411</t>
+  </si>
+  <si>
+    <t>1.46439914646498e-05</t>
+  </si>
+  <si>
+    <t>0.863490728332222</t>
+  </si>
+  <si>
+    <t>0.0541952522603723</t>
+  </si>
+  <si>
+    <t>0.855696036513234</t>
+  </si>
+  <si>
+    <t>-363.763848455569</t>
+  </si>
+  <si>
+    <t>0.0101126406205637</t>
+  </si>
+  <si>
+    <t>0.876390372036414</t>
+  </si>
+  <si>
+    <t>4.14132938673686e-05</t>
+  </si>
+  <si>
+    <t>0.115726796421572</t>
+  </si>
+  <si>
+    <t>0.943840354345864</t>
+  </si>
+  <si>
+    <t>0.204952957132782</t>
+  </si>
+  <si>
+    <t>0.000485302990721313</t>
+  </si>
+  <si>
+    <t>0.868505570756815</t>
+  </si>
+  <si>
+    <t>0.0220903638499266</t>
+  </si>
+  <si>
+    <t>0.887839326947736</t>
+  </si>
+  <si>
+    <t>-0.788538445820355</t>
+  </si>
+  <si>
+    <t>0.0488105492250474</t>
+  </si>
+  <si>
+    <t>0.879225509567743</t>
+  </si>
+  <si>
+    <t>3.06038781470471e-05</t>
+  </si>
+  <si>
+    <t>0.0137635726745415</t>
+  </si>
+  <si>
+    <t>0.865097877551834</t>
+  </si>
+  <si>
+    <t>0.000393949354975768</t>
+  </si>
+  <si>
+    <t>0.0274968470131215</t>
+  </si>
+  <si>
+    <t>-10.6574397135118</t>
+  </si>
+  <si>
+    <t>-0.18563054170055</t>
+  </si>
+  <si>
+    <t>0.00738720434927841</t>
+  </si>
+  <si>
+    <t>0.847548886621559</t>
+  </si>
+  <si>
+    <t>0.0502554123515847</t>
+  </si>
+  <si>
+    <t>6.37367325360944</t>
+  </si>
+  <si>
+    <t>0.0309074052055996</t>
+  </si>
+  <si>
+    <t>0.00140928935084144</t>
   </si>
   <si>
     <t>value of A = 200.000000</t>
   </si>
   <si>
-    <t>0.879741971850117</t>
-  </si>
-  <si>
-    <t>0.0147629027298338</t>
-  </si>
-  <si>
-    <t>36.0244857636435</t>
-  </si>
-  <si>
-    <t>0.00581180538013629</t>
-  </si>
-  <si>
-    <t>-0.281283639678974</t>
-  </si>
-  <si>
-    <t>71.8910625319799</t>
-  </si>
-  <si>
-    <t>0.0503713297104064</t>
-  </si>
-  <si>
-    <t>-0.138746654891334</t>
-  </si>
-  <si>
-    <t>104.18432426917</t>
-  </si>
-  <si>
-    <t>0.00453493849406949</t>
-  </si>
-  <si>
-    <t>0.00107801275109107</t>
-  </si>
-  <si>
-    <t>0.856809213427201</t>
-  </si>
-  <si>
-    <t>0.0206088087155524</t>
-  </si>
-  <si>
-    <t>0.866738436122699</t>
-  </si>
-  <si>
-    <t>-49.5671041770251</t>
-  </si>
-  <si>
-    <t>0.0030940289327404</t>
-  </si>
-  <si>
-    <t>20.0066514050249</t>
-  </si>
-  <si>
-    <t>0.00936785952981332</t>
-  </si>
-  <si>
-    <t>-0.301920107010493</t>
-  </si>
-  <si>
-    <t>78.7498084142195</t>
-  </si>
-  <si>
-    <t>0.0507762717929455</t>
-  </si>
-  <si>
-    <t>-0.136587390070905</t>
-  </si>
-  <si>
-    <t>58.8230032602541</t>
-  </si>
-  <si>
-    <t>0.00525966083019043</t>
-  </si>
-  <si>
-    <t>0.000716406017945464</t>
-  </si>
-  <si>
-    <t>0.853917165543329</t>
-  </si>
-  <si>
-    <t>0.0197467822266919</t>
-  </si>
-  <si>
-    <t>0.8571056230566</t>
-  </si>
-  <si>
-    <t>5.01127607013194e-10</t>
-  </si>
-  <si>
-    <t>0.694963660845121</t>
-  </si>
-  <si>
-    <t>0.85645500409009</t>
-  </si>
-  <si>
-    <t>7.27374905529434e-09</t>
-  </si>
-  <si>
-    <t>0.565360083737243</t>
-  </si>
-  <si>
-    <t>92.4497941382793</t>
-  </si>
-  <si>
-    <t>0.00501018332529095</t>
-  </si>
-  <si>
-    <t>0.00166517314054645</t>
-  </si>
-  <si>
-    <t>0.857761735291773</t>
-  </si>
-  <si>
-    <t>0.0214945602482391</t>
-  </si>
-  <si>
-    <t>0.864346966023158</t>
-  </si>
-  <si>
-    <t>3.09918479220562e-09</t>
-  </si>
-  <si>
-    <t>1.02979496970084</t>
-  </si>
-  <si>
-    <t>0.859684295401326</t>
-  </si>
-  <si>
-    <t>1.12080226078864e-08</t>
-  </si>
-  <si>
-    <t>0.897018060543044</t>
-  </si>
-  <si>
-    <t>0.862844270508605</t>
-  </si>
-  <si>
-    <t>0.0165418203084463</t>
-  </si>
-  <si>
-    <t>0.859790795681552</t>
-  </si>
-  <si>
-    <t>-13.2888305290602</t>
-  </si>
-  <si>
-    <t>0.0150978496165658</t>
-  </si>
-  <si>
-    <t>82.524088430485</t>
-  </si>
-  <si>
-    <t>0.00312022757701648</t>
-  </si>
-  <si>
-    <t>-0.243656896696672</t>
-  </si>
-  <si>
-    <t>2.38025758194535</t>
-  </si>
-  <si>
-    <t>0.104625677968144</t>
-  </si>
-  <si>
-    <t>-0.234106223172107</t>
-  </si>
-  <si>
-    <t>145.235370141988</t>
-  </si>
-  <si>
-    <t>0.00343240926058683</t>
-  </si>
-  <si>
-    <t>0.00102683541140839</t>
-  </si>
-  <si>
-    <t>0.873094538188308</t>
-  </si>
-  <si>
-    <t>0.0115166881683527</t>
-  </si>
-  <si>
-    <t>0.857071739739034</t>
-  </si>
-  <si>
-    <t>-0.980201787158852</t>
-  </si>
-  <si>
-    <t>0.0124685663362057</t>
-  </si>
-  <si>
-    <t>2.97852249993538</t>
-  </si>
-  <si>
-    <t>0.014440565400775</t>
-  </si>
-  <si>
-    <t>-0.293798193700185</t>
-  </si>
-  <si>
-    <t>2.29384552323155</t>
-  </si>
-  <si>
-    <t>0.108657368333955</t>
-  </si>
-  <si>
-    <t>-0.265678928978813</t>
-  </si>
-  <si>
-    <t>-31.7753047663827</t>
-  </si>
-  <si>
-    <t>-0.175706517406518</t>
-  </si>
-  <si>
-    <t>-0.00482663962813237</t>
-  </si>
-  <si>
-    <t>0.88424711604059</t>
-  </si>
-  <si>
-    <t>0.0227798690706698</t>
-  </si>
-  <si>
-    <t>0.84751003539146</t>
-  </si>
-  <si>
-    <t>-36.5733500548675</t>
-  </si>
-  <si>
-    <t>0.00262795391987793</t>
-  </si>
-  <si>
-    <t>0.857033607138486</t>
-  </si>
-  <si>
-    <t>2.97653116482344e-08</t>
-  </si>
-  <si>
-    <t>0.155927448501816</t>
-  </si>
-  <si>
-    <t>0.863179174434482</t>
-  </si>
-  <si>
-    <t>1.84872491895609e-08</t>
-  </si>
-  <si>
-    <t>0.410613272303472</t>
-  </si>
-  <si>
-    <t>15.7472707975993</t>
-  </si>
-  <si>
-    <t>0.0224932846925684</t>
-  </si>
-  <si>
-    <t>0.0011996222146186</t>
-  </si>
-  <si>
-    <t>0.865506878103705</t>
-  </si>
-  <si>
-    <t>0.0158419924636784</t>
-  </si>
-  <si>
-    <t>0.878988121284548</t>
-  </si>
-  <si>
-    <t>1.14925938093161e-07</t>
-  </si>
-  <si>
-    <t>0.326172112327647</t>
-  </si>
-  <si>
-    <t>0.879346949833933</t>
-  </si>
-  <si>
-    <t>1.14833475578951e-08</t>
-  </si>
-  <si>
-    <t>0.960145220999912</t>
-  </si>
-  <si>
-    <t>0.86433220574039</t>
-  </si>
-  <si>
-    <t>0.023472259849921</t>
-  </si>
-  <si>
-    <t>0.351555387364305</t>
-  </si>
-  <si>
-    <t>-0.854929199087059</t>
-  </si>
-  <si>
-    <t>0.000498802278818582</t>
-  </si>
-  <si>
-    <t>1.49154314544418</t>
-  </si>
-  <si>
-    <t>0.692116130601682</t>
-  </si>
-  <si>
-    <t>-0.980003665223093</t>
-  </si>
-  <si>
-    <t>1.49741343164616</t>
-  </si>
-  <si>
-    <t>0.265451113452456</t>
-  </si>
-  <si>
-    <t>-0.495286909362256</t>
-  </si>
-  <si>
-    <t>34.4777819637222</t>
-  </si>
-  <si>
-    <t>0.0108180042300488</t>
-  </si>
-  <si>
-    <t>0.00118657183680329</t>
-  </si>
-  <si>
-    <t>0.875480100722922</t>
-  </si>
-  <si>
-    <t>0.0181209092134508</t>
-  </si>
-  <si>
-    <t>0.855258806896136</t>
-  </si>
-  <si>
-    <t>-536.894921722531</t>
-  </si>
-  <si>
-    <t>0.0457366449697713</t>
-  </si>
-  <si>
-    <t>1.49452960200537</t>
-  </si>
-  <si>
-    <t>2.6177523205932</t>
-  </si>
-  <si>
-    <t>-1.04305093699286</t>
-  </si>
-  <si>
-    <t>1.55935201354452</t>
-  </si>
-  <si>
-    <t>3.80868324130184</t>
-  </si>
-  <si>
-    <t>-0.70644612345383</t>
-  </si>
-  <si>
-    <t>-46.4107263810525</t>
-  </si>
-  <si>
-    <t>-0.103238191678754</t>
-  </si>
-  <si>
-    <t>0.000448892493045587</t>
-  </si>
-  <si>
-    <t>0.874578314134873</t>
-  </si>
-  <si>
-    <t>0.0252449694774857</t>
-  </si>
-  <si>
-    <t>0.883425782671193</t>
-  </si>
-  <si>
-    <t>-96.4173448253726</t>
-  </si>
-  <si>
-    <t>0.0123655685738398</t>
-  </si>
-  <si>
-    <t>0.85844160203265</t>
-  </si>
-  <si>
-    <t>6.54595461498484e-08</t>
-  </si>
-  <si>
-    <t>0.039363585236491</t>
-  </si>
-  <si>
-    <t>0.865849769949738</t>
-  </si>
-  <si>
-    <t>7.62623353278136e-08</t>
-  </si>
-  <si>
-    <t>0.680750236678609</t>
-  </si>
-  <si>
-    <t>0.848652742483271</t>
-  </si>
-  <si>
-    <t>0.0235402974079965</t>
-  </si>
-  <si>
-    <t>0.876315782601832</t>
-  </si>
-  <si>
-    <t>0.0284248478090308</t>
-  </si>
-  <si>
-    <t>0.000185774573179683</t>
-  </si>
-  <si>
-    <t>-0.999889607367616</t>
-  </si>
-  <si>
-    <t>1.47812610522574e-07</t>
-  </si>
-  <si>
-    <t>0.866495199190659</t>
-  </si>
-  <si>
-    <t>1.04777832263775e-05</t>
-  </si>
-  <si>
-    <t>0.054714939455821</t>
-  </si>
-  <si>
-    <t>1.45299954782936</t>
-  </si>
-  <si>
-    <t>3.10448661259528</t>
-  </si>
-  <si>
-    <t>-0.684684357740126</t>
-  </si>
-  <si>
-    <t>0.855071683887396</t>
-  </si>
-  <si>
-    <t>1.04510214059035</t>
-  </si>
-  <si>
-    <t>1.91093093595448e-05</t>
-  </si>
-  <si>
-    <t>0.864370754298165</t>
-  </si>
-  <si>
-    <t>0.0368438681699622</t>
-  </si>
-  <si>
-    <t>0.855079995958394</t>
-  </si>
-  <si>
-    <t>-0.189911611718263</t>
-  </si>
-  <si>
-    <t>0.0245651313213371</t>
-  </si>
-  <si>
-    <t>0.84717150810457</t>
-  </si>
-  <si>
-    <t>6.09969601889986e-07</t>
-  </si>
-  <si>
-    <t>0.0308007741262143</t>
-  </si>
-  <si>
-    <t>0.89023830389951</t>
-  </si>
-  <si>
-    <t>0.415646516420022</t>
-  </si>
-  <si>
-    <t>5.86374373043572e-05</t>
-  </si>
-  <si>
-    <t>0.880095061065221</t>
-  </si>
-  <si>
-    <t>0.0353247983437108</t>
-  </si>
-  <si>
-    <t>0.853705283496407</t>
-  </si>
-  <si>
-    <t>-12.8333940984797</t>
-  </si>
-  <si>
-    <t>0.0111777027613162</t>
-  </si>
-  <si>
-    <t>0.866932612121536</t>
-  </si>
-  <si>
-    <t>0.000125588991998982</t>
-  </si>
-  <si>
-    <t>0.0300674640501242</t>
-  </si>
-  <si>
-    <t>1.8862113814291</t>
-  </si>
-  <si>
-    <t>0.0631366681069829</t>
-  </si>
-  <si>
-    <t>0.000878042823525246</t>
-  </si>
-  <si>
-    <t>0.873978625687718</t>
-  </si>
-  <si>
-    <t>0.044209393509053</t>
-  </si>
-  <si>
-    <t>0.854392150098339</t>
-  </si>
-  <si>
-    <t>-2916671.68579443</t>
-  </si>
-  <si>
-    <t>0.485093602343298</t>
+    <t>0.866802825454591</t>
+  </si>
+  <si>
+    <t>0.0205300711132229</t>
+  </si>
+  <si>
+    <t>31.8639891020736</t>
+  </si>
+  <si>
+    <t>0.00654873304753492</t>
+  </si>
+  <si>
+    <t>-0.282367278418832</t>
+  </si>
+  <si>
+    <t>77.6173519318664</t>
+  </si>
+  <si>
+    <t>0.0530179402196645</t>
+  </si>
+  <si>
+    <t>-0.124532028925309</t>
+  </si>
+  <si>
+    <t>113.026253406133</t>
+  </si>
+  <si>
+    <t>0.00462451008871932</t>
+  </si>
+  <si>
+    <t>0.000735211462012659</t>
+  </si>
+  <si>
+    <t>0.862966919079276</t>
+  </si>
+  <si>
+    <t>0.033213256822696</t>
+  </si>
+  <si>
+    <t>0.871059669011953</t>
+  </si>
+  <si>
+    <t>-40.6468142366064</t>
+  </si>
+  <si>
+    <t>0.00434128086500376</t>
+  </si>
+  <si>
+    <t>20.5197250320497</t>
+  </si>
+  <si>
+    <t>0.00820381815524765</t>
+  </si>
+  <si>
+    <t>-0.275697854097078</t>
+  </si>
+  <si>
+    <t>73.8674750274872</t>
+  </si>
+  <si>
+    <t>0.0481352195514182</t>
+  </si>
+  <si>
+    <t>-0.138319297853982</t>
+  </si>
+  <si>
+    <t>98.3857545177401</t>
+  </si>
+  <si>
+    <t>0.00502767815330949</t>
+  </si>
+  <si>
+    <t>0.000796196970201944</t>
+  </si>
+  <si>
+    <t>0.852596210045228</t>
+  </si>
+  <si>
+    <t>0.0186649622736278</t>
+  </si>
+  <si>
+    <t>0.868771175355834</t>
+  </si>
+  <si>
+    <t>2.88892198960715e-09</t>
+  </si>
+  <si>
+    <t>0.891340643429901</t>
+  </si>
+  <si>
+    <t>0.876524279175794</t>
+  </si>
+  <si>
+    <t>5.96231039283308e-09</t>
+  </si>
+  <si>
+    <t>0.553094840106533</t>
+  </si>
+  <si>
+    <t>93.6103151281539</t>
+  </si>
+  <si>
+    <t>0.00607773285841708</t>
+  </si>
+  <si>
+    <t>0.00135703913069783</t>
+  </si>
+  <si>
+    <t>0.856397359201315</t>
+  </si>
+  <si>
+    <t>0.0162721515574991</t>
+  </si>
+  <si>
+    <t>0.875153074943928</t>
+  </si>
+  <si>
+    <t>3.86842329597948e-10</t>
+  </si>
+  <si>
+    <t>1.1865689251122</t>
+  </si>
+  <si>
+    <t>0.862531346463568</t>
+  </si>
+  <si>
+    <t>1.20496306867014e-09</t>
+  </si>
+  <si>
+    <t>0.808893999694424</t>
+  </si>
+  <si>
+    <t>0.871014981638988</t>
+  </si>
+  <si>
+    <t>0.0193285832103541</t>
+  </si>
+  <si>
+    <t>0.883418550258263</t>
+  </si>
+  <si>
+    <t>-14.5530638650687</t>
+  </si>
+  <si>
+    <t>0.0531207912560583</t>
+  </si>
+  <si>
+    <t>130.148321932717</t>
+  </si>
+  <si>
+    <t>0.00313473124276586</t>
+  </si>
+  <si>
+    <t>-0.265295806916864</t>
+  </si>
+  <si>
+    <t>2.21272408393375</t>
+  </si>
+  <si>
+    <t>0.125526469436826</t>
+  </si>
+  <si>
+    <t>-0.298162912868261</t>
+  </si>
+  <si>
+    <t>118.596214372712</t>
+  </si>
+  <si>
+    <t>0.00361021338621113</t>
+  </si>
+  <si>
+    <t>0.000475325346367247</t>
+  </si>
+  <si>
+    <t>0.860033522567068</t>
+  </si>
+  <si>
+    <t>0.0181236252378652</t>
+  </si>
+  <si>
+    <t>0.877105156414665</t>
+  </si>
+  <si>
+    <t>-0.891196937639436</t>
+  </si>
+  <si>
+    <t>0.00389843318013367</t>
+  </si>
+  <si>
+    <t>3.58851636009611</t>
+  </si>
+  <si>
+    <t>0.0186172156267724</t>
+  </si>
+  <si>
+    <t>-0.32959531399989</t>
+  </si>
+  <si>
+    <t>2.62586466458876</t>
+  </si>
+  <si>
+    <t>0.111716966415956</t>
+  </si>
+  <si>
+    <t>-0.256891868395425</t>
+  </si>
+  <si>
+    <t>-38.4648978060363</t>
+  </si>
+  <si>
+    <t>-0.153971788275654</t>
+  </si>
+  <si>
+    <t>0.000721792140761285</t>
+  </si>
+  <si>
+    <t>0.878958897179915</t>
+  </si>
+  <si>
+    <t>0.0179831733304435</t>
+  </si>
+  <si>
+    <t>0.880844057474264</t>
+  </si>
+  <si>
+    <t>-95.6345972411287</t>
+  </si>
+  <si>
+    <t>0.00650280144307346</t>
+  </si>
+  <si>
+    <t>0.874628137891942</t>
+  </si>
+  <si>
+    <t>1.24608774292317e-08</t>
+  </si>
+  <si>
+    <t>0.129756758343275</t>
+  </si>
+  <si>
+    <t>0.877638262076383</t>
+  </si>
+  <si>
+    <t>3.87453408524328e-08</t>
+  </si>
+  <si>
+    <t>0.63585988684157</t>
+  </si>
+  <si>
+    <t>12.9696418958431</t>
+  </si>
+  <si>
+    <t>0.0232568754289276</t>
+  </si>
+  <si>
+    <t>0.000800852078907187</t>
+  </si>
+  <si>
+    <t>0.870910781705701</t>
+  </si>
+  <si>
+    <t>0.0226927089451575</t>
+  </si>
+  <si>
+    <t>0.874669326901029</t>
+  </si>
+  <si>
+    <t>2.79542601235957e-08</t>
+  </si>
+  <si>
+    <t>0.402258290126969</t>
+  </si>
+  <si>
+    <t>0.873904799250933</t>
+  </si>
+  <si>
+    <t>1.27811244531488e-08</t>
+  </si>
+  <si>
+    <t>0.547425802400003</t>
+  </si>
+  <si>
+    <t>0.872681446663289</t>
+  </si>
+  <si>
+    <t>0.0184568821261004</t>
+  </si>
+  <si>
+    <t>0.370011335197731</t>
+  </si>
+  <si>
+    <t>-0.833721678819212</t>
+  </si>
+  <si>
+    <t>0.000443904691384364</t>
+  </si>
+  <si>
+    <t>1.54319591828751</t>
+  </si>
+  <si>
+    <t>1.16511575615175</t>
+  </si>
+  <si>
+    <t>-1.17131291351833</t>
+  </si>
+  <si>
+    <t>1.42303739808215</t>
+  </si>
+  <si>
+    <t>0.26635890786962</t>
+  </si>
+  <si>
+    <t>-0.425264476169764</t>
+  </si>
+  <si>
+    <t>48.1223623189921</t>
+  </si>
+  <si>
+    <t>0.01136738958968</t>
+  </si>
+  <si>
+    <t>0.00131086080765609</t>
+  </si>
+  <si>
+    <t>0.854179035202474</t>
+  </si>
+  <si>
+    <t>0.0238894237776866</t>
+  </si>
+  <si>
+    <t>0.883022699051768</t>
+  </si>
+  <si>
+    <t>-3722.14049715002</t>
+  </si>
+  <si>
+    <t>0.10463029592953</t>
+  </si>
+  <si>
+    <t>1.50674313900218</t>
+  </si>
+  <si>
+    <t>3.70686670800905</t>
+  </si>
+  <si>
+    <t>-1.26518146673312</t>
+  </si>
+  <si>
+    <t>1.43784499271737</t>
+  </si>
+  <si>
+    <t>1.46473824201908</t>
+  </si>
+  <si>
+    <t>-0.742936885963801</t>
+  </si>
+  <si>
+    <t>-43.459399338127</t>
+  </si>
+  <si>
+    <t>-0.117491262178862</t>
+  </si>
+  <si>
+    <t>0.000924146404789097</t>
+  </si>
+  <si>
+    <t>0.886546560205374</t>
+  </si>
+  <si>
+    <t>0.0205350431338525</t>
+  </si>
+  <si>
+    <t>0.866436719289432</t>
+  </si>
+  <si>
+    <t>-13.3252224435765</t>
+  </si>
+  <si>
+    <t>0.0116334341787022</t>
+  </si>
+  <si>
+    <t>0.859825287168628</t>
+  </si>
+  <si>
+    <t>1.07581752848267e-06</t>
+  </si>
+  <si>
+    <t>0.14159317278385</t>
+  </si>
+  <si>
+    <t>0.880107456448416</t>
+  </si>
+  <si>
+    <t>9.03164665815228e-07</t>
+  </si>
+  <si>
+    <t>0.573382596381165</t>
+  </si>
+  <si>
+    <t>0.870686725536874</t>
+  </si>
+  <si>
+    <t>0.0227943094428433</t>
+  </si>
+  <si>
+    <t>0.876058165056733</t>
+  </si>
+  <si>
+    <t>0.0207877028219306</t>
+  </si>
+  <si>
+    <t>0.101267877023043</t>
+  </si>
+  <si>
+    <t>-0.95137862501138</t>
+  </si>
+  <si>
+    <t>0.000112478515519075</t>
+  </si>
+  <si>
+    <t>0.86669028306566</t>
+  </si>
+  <si>
+    <t>5.87297074530999e-06</t>
+  </si>
+  <si>
+    <t>-0.00950262616309406</t>
+  </si>
+  <si>
+    <t>1.48027546283901</t>
+  </si>
+  <si>
+    <t>0.597492733595643</t>
+  </si>
+  <si>
+    <t>-0.786292723949812</t>
+  </si>
+  <si>
+    <t>0.879108092208649</t>
+  </si>
+  <si>
+    <t>1.90149867243755</t>
+  </si>
+  <si>
+    <t>7.25302347217556e-06</t>
+  </si>
+  <si>
+    <t>0.850353668493594</t>
+  </si>
+  <si>
+    <t>0.0357775344576206</t>
+  </si>
+  <si>
+    <t>0.865014032103716</t>
+  </si>
+  <si>
+    <t>-130491.594950458</t>
+  </si>
+  <si>
+    <t>0.243694156722344</t>
+  </si>
+  <si>
+    <t>0.849399509371621</t>
+  </si>
+  <si>
+    <t>2.21301634329384e-06</t>
+  </si>
+  <si>
+    <t>0.0688926881424536</t>
+  </si>
+  <si>
+    <t>0.876749735802256</t>
+  </si>
+  <si>
+    <t>0.380006897816752</t>
+  </si>
+  <si>
+    <t>5.11221466317214e-05</t>
+  </si>
+  <si>
+    <t>0.87043906230441</t>
+  </si>
+  <si>
+    <t>0.0180465471571378</t>
+  </si>
+  <si>
+    <t>0.882785727479186</t>
+  </si>
+  <si>
+    <t>-74.4042931089856</t>
+  </si>
+  <si>
+    <t>0.0226930969647794</t>
+  </si>
+  <si>
+    <t>0.877578940712915</t>
+  </si>
+  <si>
+    <t>9.35989706688907e-05</t>
+  </si>
+  <si>
+    <t>-0.0239720942464156</t>
+  </si>
+  <si>
+    <t>2.76460820722087</t>
+  </si>
+  <si>
+    <t>0.0555437594475402</t>
+  </si>
+  <si>
+    <t>0.0012773496606317</t>
+  </si>
+  <si>
+    <t>0.863706234173528</t>
+  </si>
+  <si>
+    <t>0.0210089563487126</t>
+  </si>
+  <si>
+    <t>0.84377297480224</t>
+  </si>
+  <si>
+    <t>-579976.518942697</t>
+  </si>
+  <si>
+    <t>0.407639100403537</t>
   </si>
   <si>
     <t>Value of B = 0.010000</t>
   </si>
   <si>
-    <t>1.07214488011865</t>
-  </si>
-  <si>
-    <t>14.2756480591775</t>
-  </si>
-  <si>
-    <t>257.122436914622</t>
-  </si>
-  <si>
-    <t>2.45764186218737</t>
-  </si>
-  <si>
-    <t>-0.120087667535228</t>
-  </si>
-  <si>
-    <t>2034.08776345774</t>
-  </si>
-  <si>
-    <t>0.340499799276419</t>
-  </si>
-  <si>
-    <t>-0.0487533619878688</t>
-  </si>
-  <si>
-    <t>134.184471687411</t>
-  </si>
-  <si>
-    <t>0.0178957933031689</t>
-  </si>
-  <si>
-    <t>0.372770418315867</t>
-  </si>
-  <si>
-    <t>1.10859352717575</t>
-  </si>
-  <si>
-    <t>13.632501110246</t>
-  </si>
-  <si>
-    <t>1.09007483927523</t>
-  </si>
-  <si>
-    <t>966.61836325017</t>
-  </si>
-  <si>
-    <t>5.28494653165087</t>
-  </si>
-  <si>
-    <t>310.622956968975</t>
-  </si>
-  <si>
-    <t>2.06241275691216</t>
-  </si>
-  <si>
-    <t>-0.103889959707315</t>
-  </si>
-  <si>
-    <t>2994.17418837027</t>
-  </si>
-  <si>
-    <t>0.45565540955688</t>
-  </si>
-  <si>
-    <t>-0.0577212166613269</t>
-  </si>
-  <si>
-    <t>121.431691846781</t>
-  </si>
-  <si>
-    <t>0.0193289703466169</t>
-  </si>
-  <si>
-    <t>0.821859943854728</t>
-  </si>
-  <si>
-    <t>1.0961361302722</t>
-  </si>
-  <si>
-    <t>13.5074714221226</t>
-  </si>
-  <si>
-    <t>1.08900264437949</t>
-  </si>
-  <si>
-    <t>0.135511336936868</t>
-  </si>
-  <si>
-    <t>9.84935177226672</t>
-  </si>
-  <si>
-    <t>1.09717411641924</t>
-  </si>
-  <si>
-    <t>0.30888099713067</t>
-  </si>
-  <si>
-    <t>7.23773565605377</t>
-  </si>
-  <si>
-    <t>104.363747062493</t>
-  </si>
-  <si>
-    <t>0.0173061656207236</t>
-  </si>
-  <si>
-    <t>1.3781613360696</t>
-  </si>
-  <si>
-    <t>1.05559141135054</t>
-  </si>
-  <si>
-    <t>13.2978143574306</t>
-  </si>
-  <si>
-    <t>1.09286508191815</t>
-  </si>
-  <si>
-    <t>0.0963730330893508</t>
-  </si>
-  <si>
-    <t>9.63172666652273</t>
-  </si>
-  <si>
-    <t>1.0797697480468</t>
-  </si>
-  <si>
-    <t>0.288150159825937</t>
-  </si>
-  <si>
-    <t>8.60681441318278</t>
+    <t>1.07715955571652</t>
+  </si>
+  <si>
+    <t>7.03841239933761</t>
+  </si>
+  <si>
+    <t>221.190830848571</t>
+  </si>
+  <si>
+    <t>3.86019262120194</t>
+  </si>
+  <si>
+    <t>-0.108996758269104</t>
+  </si>
+  <si>
+    <t>3414.57657803808</t>
+  </si>
+  <si>
+    <t>0.401020941071327</t>
+  </si>
+  <si>
+    <t>-0.059225977694482</t>
+  </si>
+  <si>
+    <t>133.943027639186</t>
+  </si>
+  <si>
+    <t>0.0124274801106977</t>
+  </si>
+  <si>
+    <t>1.57494271334323</t>
+  </si>
+  <si>
+    <t>1.06349853008735</t>
+  </si>
+  <si>
+    <t>13.0320740844005</t>
+  </si>
+  <si>
+    <t>1.08307733108274</t>
+  </si>
+  <si>
+    <t>804324.165885222</t>
+  </si>
+  <si>
+    <t>4.35586559888256</t>
+  </si>
+  <si>
+    <t>220.58129087016</t>
+  </si>
+  <si>
+    <t>2.49855119100647</t>
+  </si>
+  <si>
+    <t>-0.12842449763266</t>
+  </si>
+  <si>
+    <t>1718.60093528679</t>
+  </si>
+  <si>
+    <t>0.507479105666596</t>
+  </si>
+  <si>
+    <t>-0.059356262891296</t>
+  </si>
+  <si>
+    <t>118.373548796271</t>
+  </si>
+  <si>
+    <t>0.0221397262854061</t>
+  </si>
+  <si>
+    <t>0.563616892506693</t>
+  </si>
+  <si>
+    <t>1.06705268912929</t>
+  </si>
+  <si>
+    <t>14.1395938576038</t>
+  </si>
+  <si>
+    <t>1.04238028769342</t>
+  </si>
+  <si>
+    <t>0.0528040008077777</t>
+  </si>
+  <si>
+    <t>8.78753692647986</t>
+  </si>
+  <si>
+    <t>1.09342642534257</t>
+  </si>
+  <si>
+    <t>0.124628439153667</t>
+  </si>
+  <si>
+    <t>8.18720832717354</t>
+  </si>
+  <si>
+    <t>121.213546488341</t>
+  </si>
+  <si>
+    <t>0.0173457652018605</t>
+  </si>
+  <si>
+    <t>0.65094655001113</t>
+  </si>
+  <si>
+    <t>1.07496262049697</t>
+  </si>
+  <si>
+    <t>13.8343710128198</t>
+  </si>
+  <si>
+    <t>1.07594868623676</t>
+  </si>
+  <si>
+    <t>0.0400600225288529</t>
+  </si>
+  <si>
+    <t>10.9933122247081</t>
+  </si>
+  <si>
+    <t>1.05868033782521</t>
+  </si>
+  <si>
+    <t>0.255362743594936</t>
+  </si>
+  <si>
+    <t>8.4663296490939</t>
   </si>
   <si>
     <t>Value of B = 0.100000</t>
   </si>
   <si>
-    <t>1.10695028249588</t>
-  </si>
-  <si>
-    <t>15.0617816364004</t>
-  </si>
-  <si>
-    <t>1.06653992349603</t>
-  </si>
-  <si>
-    <t>626210756.831122</t>
-  </si>
-  <si>
-    <t>3.0697953448768</t>
-  </si>
-  <si>
-    <t>-31.6874625548583</t>
-  </si>
-  <si>
-    <t>-0.00509738581469329</t>
-  </si>
-  <si>
-    <t>-0.106719554229959</t>
-  </si>
-  <si>
-    <t>488.209921876868</t>
-  </si>
-  <si>
-    <t>20.3365717941806</t>
-  </si>
-  <si>
-    <t>-0.0680868638209383</t>
-  </si>
-  <si>
-    <t>89.7439087847435</t>
-  </si>
-  <si>
-    <t>0.0271224311304658</t>
-  </si>
-  <si>
-    <t>0.658133877335861</t>
-  </si>
-  <si>
-    <t>1.08787290439244</t>
-  </si>
-  <si>
-    <t>14.5695366398812</t>
-  </si>
-  <si>
-    <t>1.07762941529454</t>
-  </si>
-  <si>
-    <t>1045208.28381112</t>
-  </si>
-  <si>
-    <t>4.74649149897613</t>
-  </si>
-  <si>
-    <t>91.4089388209414</t>
-  </si>
-  <si>
-    <t>33.0720005447941</t>
-  </si>
-  <si>
-    <t>-0.131263985200701</t>
-  </si>
-  <si>
-    <t>312.43783406277</t>
-  </si>
-  <si>
-    <t>22.2314888138672</t>
-  </si>
-  <si>
-    <t>-0.0678271890795678</t>
-  </si>
-  <si>
-    <t>58.2719628790809</t>
-  </si>
-  <si>
-    <t>0.0622700050774534</t>
-  </si>
-  <si>
-    <t>0.921173548032385</t>
-  </si>
-  <si>
-    <t>1.07297571091661</t>
-  </si>
-  <si>
-    <t>13.8511409208921</t>
-  </si>
-  <si>
-    <t>2.01166989199517</t>
-  </si>
-  <si>
-    <t>2.91153385258827e-09</t>
-  </si>
-  <si>
-    <t>-0.0537840952933463</t>
-  </si>
-  <si>
-    <t>1.20151320937639</t>
-  </si>
-  <si>
-    <t>0.208278584142457</t>
-  </si>
-  <si>
-    <t>7.78197376830251</t>
-  </si>
-  <si>
-    <t>1.06478556406213</t>
-  </si>
-  <si>
-    <t>0.641891100521337</t>
-  </si>
-  <si>
-    <t>8.24484038087827</t>
-  </si>
-  <si>
-    <t>27.0704673189212</t>
-  </si>
-  <si>
-    <t>0.205598585302696</t>
-  </si>
-  <si>
-    <t>0.811323998303524</t>
-  </si>
-  <si>
-    <t>1.05971184559439</t>
-  </si>
-  <si>
-    <t>8.39438229615026</t>
-  </si>
-  <si>
-    <t>1.07811989094022</t>
-  </si>
-  <si>
-    <t>0.0451614493511141</t>
-  </si>
-  <si>
-    <t>9.39261521367754</t>
-  </si>
-  <si>
-    <t>1.12248757212159</t>
-  </si>
-  <si>
-    <t>0.511876378845469</t>
-  </si>
-  <si>
-    <t>8.06920235392581</t>
+    <t>1.0730740059946</t>
+  </si>
+  <si>
+    <t>13.1470499696845</t>
+  </si>
+  <si>
+    <t>1.0640978504591</t>
+  </si>
+  <si>
+    <t>537026964.994466</t>
+  </si>
+  <si>
+    <t>3.07185481781938</t>
+  </si>
+  <si>
+    <t>-53.9747323669555</t>
+  </si>
+  <si>
+    <t>-0.00508275860919846</t>
+  </si>
+  <si>
+    <t>-0.106019487019521</t>
+  </si>
+  <si>
+    <t>313.571974953196</t>
+  </si>
+  <si>
+    <t>59.2302084120401</t>
+  </si>
+  <si>
+    <t>-0.0738537414551182</t>
+  </si>
+  <si>
+    <t>83.8523001233968</t>
+  </si>
+  <si>
+    <t>0.0317492251768337</t>
+  </si>
+  <si>
+    <t>0.427281338322655</t>
+  </si>
+  <si>
+    <t>1.06333888329685</t>
+  </si>
+  <si>
+    <t>11.5754820742012</t>
+  </si>
+  <si>
+    <t>1.10932336427362</t>
+  </si>
+  <si>
+    <t>1326398.37289986</t>
+  </si>
+  <si>
+    <t>5.73887226682235</t>
+  </si>
+  <si>
+    <t>125.911963154387</t>
+  </si>
+  <si>
+    <t>97.1557637237558</t>
+  </si>
+  <si>
+    <t>-0.125382051569106</t>
+  </si>
+  <si>
+    <t>649.067937983719</t>
+  </si>
+  <si>
+    <t>11.3133355157002</t>
+  </si>
+  <si>
+    <t>-0.0564273985598941</t>
+  </si>
+  <si>
+    <t>41.7203598915966</t>
+  </si>
+  <si>
+    <t>0.0679391481275253</t>
+  </si>
+  <si>
+    <t>0.261290403429178</t>
+  </si>
+  <si>
+    <t>1.08855046011554</t>
+  </si>
+  <si>
+    <t>11.9192720642155</t>
+  </si>
+  <si>
+    <t>2.04606162360193</t>
+  </si>
+  <si>
+    <t>7.40743145688199e-09</t>
+  </si>
+  <si>
+    <t>-0.0508439596128384</t>
+  </si>
+  <si>
+    <t>1.22268725065895</t>
+  </si>
+  <si>
+    <t>0.183808056332016</t>
+  </si>
+  <si>
+    <t>9.90459680171939</t>
+  </si>
+  <si>
+    <t>1.08175253862478</t>
+  </si>
+  <si>
+    <t>0.423544846519599</t>
+  </si>
+  <si>
+    <t>7.67252424168243</t>
+  </si>
+  <si>
+    <t>25.4586036806355</t>
+  </si>
+  <si>
+    <t>0.224370053836528</t>
+  </si>
+  <si>
+    <t>1.50506457391223</t>
+  </si>
+  <si>
+    <t>1.0562741252518</t>
+  </si>
+  <si>
+    <t>13.4936891407644</t>
+  </si>
+  <si>
+    <t>1.06972464900793</t>
+  </si>
+  <si>
+    <t>0.101926742170564</t>
+  </si>
+  <si>
+    <t>9.08628813188664</t>
+  </si>
+  <si>
+    <t>1.06570855787015</t>
+  </si>
+  <si>
+    <t>0.204792805131035</t>
+  </si>
+  <si>
+    <t>7.58819202302544</t>
   </si>
   <si>
     <t>Value of B = 1.000000</t>
   </si>
   <si>
-    <t>1.10121515626872</t>
-  </si>
-  <si>
-    <t>12.9385614860475</t>
-  </si>
-  <si>
-    <t>0.947060208348423</t>
-  </si>
-  <si>
-    <t>-0.547964545080075</t>
-  </si>
-  <si>
-    <t>0.00546818377639934</t>
-  </si>
-  <si>
-    <t>3.94961919015613</t>
-  </si>
-  <si>
-    <t>478.712689123055</t>
-  </si>
-  <si>
-    <t>-0.389789883603336</t>
-  </si>
-  <si>
-    <t>17.0847488562764</t>
-  </si>
-  <si>
-    <t>295.427247576913</t>
-  </si>
-  <si>
-    <t>-0.16601935346555</t>
-  </si>
-  <si>
-    <t>158.721820123981</t>
-  </si>
-  <si>
-    <t>0.0260394340036828</t>
-  </si>
-  <si>
-    <t>1.17075705120839</t>
-  </si>
-  <si>
-    <t>1.07983488691403</t>
-  </si>
-  <si>
-    <t>9.08802517838418</t>
-  </si>
-  <si>
-    <t>1.07459562792745</t>
-  </si>
-  <si>
-    <t>2257141343.35147</t>
-  </si>
-  <si>
-    <t>2.690179612236</t>
-  </si>
-  <si>
-    <t>3.76703845556948</t>
-  </si>
-  <si>
-    <t>2662.73631831729</t>
-  </si>
-  <si>
-    <t>-0.343121304307187</t>
-  </si>
-  <si>
-    <t>5656.29148816115</t>
-  </si>
-  <si>
-    <t>-0.0368302820751085</t>
-  </si>
-  <si>
-    <t>-0.0544198099737144</t>
-  </si>
-  <si>
-    <t>-3.03985882407243</t>
-  </si>
-  <si>
-    <t>-0.0396231179481933</t>
-  </si>
-  <si>
-    <t>0.901141759840704</t>
-  </si>
-  <si>
-    <t>1.0934726758372</t>
-  </si>
-  <si>
-    <t>13.8719192494441</t>
-  </si>
-  <si>
-    <t>1.09887007933073</t>
-  </si>
-  <si>
-    <t>7175693.42906789</t>
-  </si>
-  <si>
-    <t>2.41855123140526</t>
-  </si>
-  <si>
-    <t>1.11673861708805</t>
-  </si>
-  <si>
-    <t>0.370499769440857</t>
-  </si>
-  <si>
-    <t>7.28125974776562</t>
-  </si>
-  <si>
-    <t>1.10016977272868</t>
-  </si>
-  <si>
-    <t>0.264141368929387</t>
-  </si>
-  <si>
-    <t>6.32402679169411</t>
-  </si>
-  <si>
-    <t>1.04725267984416</t>
-  </si>
-  <si>
-    <t>13.7563769351197</t>
+    <t>1.09752405803789</t>
+  </si>
+  <si>
+    <t>12.3922679514018</t>
+  </si>
+  <si>
+    <t>0.960807057364971</t>
+  </si>
+  <si>
+    <t>-0.587161491082595</t>
+  </si>
+  <si>
+    <t>0.00610847212803629</t>
+  </si>
+  <si>
+    <t>21.0645528566434</t>
+  </si>
+  <si>
+    <t>825.177533502125</t>
+  </si>
+  <si>
+    <t>-0.344376859484659</t>
+  </si>
+  <si>
+    <t>4.1799929998848</t>
+  </si>
+  <si>
+    <t>103.966380093748</t>
+  </si>
+  <si>
+    <t>-0.202359556568785</t>
+  </si>
+  <si>
+    <t>152.29104733318</t>
+  </si>
+  <si>
+    <t>0.0109027794951335</t>
+  </si>
+  <si>
+    <t>1.20337428498123</t>
+  </si>
+  <si>
+    <t>1.07484297895487</t>
+  </si>
+  <si>
+    <t>6.11347456534547</t>
+  </si>
+  <si>
+    <t>1.04803553335723</t>
+  </si>
+  <si>
+    <t>149518197552.615</t>
+  </si>
+  <si>
+    <t>3.52987957904553</t>
+  </si>
+  <si>
+    <t>3.50803732055897</t>
+  </si>
+  <si>
+    <t>575.319789774228</t>
+  </si>
+  <si>
+    <t>-0.320270836450225</t>
+  </si>
+  <si>
+    <t>4268.77979086521</t>
+  </si>
+  <si>
+    <t>-0.0367583364384431</t>
+  </si>
+  <si>
+    <t>-0.0581832285830173</t>
+  </si>
+  <si>
+    <t>-3.55502434811588</t>
+  </si>
+  <si>
+    <t>-0.0397214975093565</t>
+  </si>
+  <si>
+    <t>0.890159934536022</t>
+  </si>
+  <si>
+    <t>1.07384044647108</t>
+  </si>
+  <si>
+    <t>15.005390950213</t>
+  </si>
+  <si>
+    <t>1.05401542939405</t>
+  </si>
+  <si>
+    <t>30222.4663509613</t>
+  </si>
+  <si>
+    <t>3.75230218113962</t>
+  </si>
+  <si>
+    <t>2.34637246422709</t>
+  </si>
+  <si>
+    <t>0.880784338194655</t>
+  </si>
+  <si>
+    <t>8.57914256965723</t>
+  </si>
+  <si>
+    <t>1.07538433509754</t>
+  </si>
+  <si>
+    <t>0.326522764519811</t>
+  </si>
+  <si>
+    <t>7.22439678897194</t>
+  </si>
+  <si>
+    <t>1.07263391864502</t>
+  </si>
+  <si>
+    <t>14.3486012891663</t>
   </si>
   <si>
     <t>Value of B = 4.000000</t>
   </si>
   <si>
-    <t>1.04720013837704</t>
-  </si>
-  <si>
-    <t>2.71233310934883</t>
-  </si>
-  <si>
-    <t>0.87418498177758</t>
-  </si>
-  <si>
-    <t>-0.56433846133637</t>
-  </si>
-  <si>
-    <t>0.00523455108177011</t>
-  </si>
-  <si>
-    <t>8.37009668199193</t>
-  </si>
-  <si>
-    <t>1.11131228227813</t>
-  </si>
-  <si>
-    <t>7.47105134362365</t>
-  </si>
-  <si>
-    <t>13.437004689948</t>
-  </si>
-  <si>
-    <t>260.081553607324</t>
-  </si>
-  <si>
-    <t>-0.174964880504884</t>
-  </si>
-  <si>
-    <t>1.27439937462021</t>
-  </si>
-  <si>
-    <t>374.882661077546</t>
-  </si>
-  <si>
-    <t>0.015888528312212</t>
-  </si>
-  <si>
-    <t>1.0935481453395</t>
-  </si>
-  <si>
-    <t>1.97378469738089</t>
-  </si>
-  <si>
-    <t>1.06479770176018</t>
-  </si>
-  <si>
-    <t>304334912659.982</t>
-  </si>
-  <si>
-    <t>4.14292705227601</t>
-  </si>
-  <si>
-    <t>5.05787945438178</t>
-  </si>
-  <si>
-    <t>1.56203009571577</t>
-  </si>
-  <si>
-    <t>6.96479654183073</t>
-  </si>
-  <si>
-    <t>1.10375426293718</t>
-  </si>
-  <si>
-    <t>-1.10357280541412e-06</t>
-  </si>
-  <si>
-    <t>-0.00121822207109651</t>
-  </si>
-  <si>
-    <t>1.08663002521338</t>
-  </si>
-  <si>
-    <t>2.29326694778114</t>
-  </si>
-  <si>
-    <t>1.06873209295773</t>
-  </si>
-  <si>
-    <t>50928197.6125925</t>
-  </si>
-  <si>
-    <t>3.09762100310193</t>
-  </si>
-  <si>
-    <t>4.05713934940601</t>
-  </si>
-  <si>
-    <t>14.2185584993072</t>
-  </si>
-  <si>
-    <t>8.33928818658288</t>
-  </si>
-  <si>
-    <t>-5.95011572243773</t>
-  </si>
-  <si>
-    <t>-0.0253157915812014</t>
-  </si>
-  <si>
-    <t>0.717728764604904</t>
-  </si>
-  <si>
-    <t>1.08348734073299</t>
-  </si>
-  <si>
-    <t>2.50307268998655</t>
-  </si>
-  <si>
-    <t>1.0900278030303</t>
-  </si>
-  <si>
-    <t>14.9029376956754</t>
-  </si>
-  <si>
-    <t>424.016862988178</t>
-  </si>
-  <si>
-    <t>0.43783686882319</t>
-  </si>
-  <si>
-    <t>-0.106109292696237</t>
-  </si>
-  <si>
-    <t>3152.10621189278</t>
-  </si>
-  <si>
-    <t>0.428365086609378</t>
-  </si>
-  <si>
-    <t>-0.048878858188563</t>
-  </si>
-  <si>
-    <t>203.352756370728</t>
-  </si>
-  <si>
-    <t>0.0104532972318713</t>
-  </si>
-  <si>
-    <t>0.570828247270865</t>
-  </si>
-  <si>
-    <t>1.0838057456774</t>
-  </si>
-  <si>
-    <t>12.7438342104411</t>
-  </si>
-  <si>
-    <t>1.18415487780572</t>
-  </si>
-  <si>
-    <t>106381.694600479</t>
-  </si>
-  <si>
-    <t>5.24869048668928</t>
-  </si>
-  <si>
-    <t>89.2171943203102</t>
-  </si>
-  <si>
-    <t>25.3936728968833</t>
-  </si>
-  <si>
-    <t>-0.105610002602451</t>
-  </si>
-  <si>
-    <t>1773.90489375338</t>
-  </si>
-  <si>
-    <t>0.627178578765048</t>
-  </si>
-  <si>
-    <t>-0.057867772467146</t>
-  </si>
-  <si>
-    <t>206.125957446041</t>
-  </si>
-  <si>
-    <t>0.00926226312005541</t>
-  </si>
-  <si>
-    <t>0.923304444935101</t>
-  </si>
-  <si>
-    <t>1.08183197420906</t>
-  </si>
-  <si>
-    <t>14.3287417935046</t>
-  </si>
-  <si>
-    <t>1.07083987024002</t>
-  </si>
-  <si>
-    <t>0.0312613288595879</t>
-  </si>
-  <si>
-    <t>8.93405444780414</t>
-  </si>
-  <si>
-    <t>1.06808758931146</t>
-  </si>
-  <si>
-    <t>0.35678006745442</t>
-  </si>
-  <si>
-    <t>7.35658740065362</t>
-  </si>
-  <si>
-    <t>112.876305572401</t>
-  </si>
-  <si>
-    <t>0.0139339372172508</t>
-  </si>
-  <si>
-    <t>0.967195816121402</t>
-  </si>
-  <si>
-    <t>1.05275382052346</t>
-  </si>
-  <si>
-    <t>13.627025228083</t>
-  </si>
-  <si>
-    <t>1.07110368892713</t>
-  </si>
-  <si>
-    <t>0.15898062981491</t>
-  </si>
-  <si>
-    <t>9.18264954859833</t>
-  </si>
-  <si>
-    <t>1.07221089914045</t>
-  </si>
-  <si>
-    <t>0.379698595793033</t>
-  </si>
-  <si>
-    <t>8.58302642091373</t>
-  </si>
-  <si>
-    <t>1.05695632970477</t>
-  </si>
-  <si>
-    <t>14.8372649393316</t>
-  </si>
-  <si>
-    <t>1.07813462040908</t>
-  </si>
-  <si>
-    <t>1947714560.82119</t>
-  </si>
-  <si>
-    <t>2.72612360859628</t>
-  </si>
-  <si>
-    <t>276.587557243021</t>
-  </si>
-  <si>
-    <t>0.648374332224147</t>
-  </si>
-  <si>
-    <t>-0.116244720970392</t>
-  </si>
-  <si>
-    <t>391.991311730665</t>
-  </si>
-  <si>
-    <t>15.5619670634896</t>
-  </si>
-  <si>
-    <t>-0.073813764018099</t>
-  </si>
-  <si>
-    <t>163.034016962619</t>
-  </si>
-  <si>
-    <t>0.0143557494057421</t>
-  </si>
-  <si>
-    <t>1.63300181682747</t>
-  </si>
-  <si>
-    <t>1.08514085937864</t>
-  </si>
-  <si>
-    <t>13.9542262943353</t>
-  </si>
-  <si>
-    <t>1.09765191175855</t>
-  </si>
-  <si>
-    <t>9004109.8710145</t>
-  </si>
-  <si>
-    <t>4.38524387677801</t>
-  </si>
-  <si>
-    <t>158.46576586877</t>
-  </si>
-  <si>
-    <t>47.4543647432937</t>
-  </si>
-  <si>
-    <t>-0.106245219168015</t>
-  </si>
-  <si>
-    <t>466.12568820808</t>
-  </si>
-  <si>
-    <t>6.10534635674213</t>
-  </si>
-  <si>
-    <t>-0.0590007846862229</t>
-  </si>
-  <si>
-    <t>27.6440336600006</t>
-  </si>
-  <si>
-    <t>0.3950984199103</t>
-  </si>
-  <si>
-    <t>0.807007623202071</t>
-  </si>
-  <si>
-    <t>1.05915240487907</t>
-  </si>
-  <si>
-    <t>14.8490346255331</t>
-  </si>
-  <si>
-    <t>1.06324103827283</t>
-  </si>
-  <si>
-    <t>17444.7539552948</t>
-  </si>
-  <si>
-    <t>4.64447630851717</t>
-  </si>
-  <si>
-    <t>1.09064701933444</t>
-  </si>
-  <si>
-    <t>0.586101447532804</t>
-  </si>
-  <si>
-    <t>10.604839880334</t>
-  </si>
-  <si>
-    <t>1.07119411232247</t>
-  </si>
-  <si>
-    <t>0.595432541108881</t>
-  </si>
-  <si>
-    <t>7.44686312925475</t>
-  </si>
-  <si>
-    <t>25.8775625490721</t>
-  </si>
-  <si>
-    <t>0.2806490010552</t>
-  </si>
-  <si>
-    <t>6.24698504551839</t>
-  </si>
-  <si>
-    <t>1.09434576622231</t>
-  </si>
-  <si>
-    <t>13.9415077009839</t>
-  </si>
-  <si>
-    <t>1.05085188516181</t>
-  </si>
-  <si>
-    <t>0.0711079087495129</t>
-  </si>
-  <si>
-    <t>9.10123442550451</t>
-  </si>
-  <si>
-    <t>1.06406997522664</t>
-  </si>
-  <si>
-    <t>0.403775042370496</t>
-  </si>
-  <si>
-    <t>7.75089946556875</t>
-  </si>
-  <si>
-    <t>1.11875201246986</t>
-  </si>
-  <si>
-    <t>11.8677223211196</t>
-  </si>
-  <si>
-    <t>0.877765633808931</t>
-  </si>
-  <si>
-    <t>-0.54294159638433</t>
-  </si>
-  <si>
-    <t>0.00689303718904412</t>
-  </si>
-  <si>
-    <t>9.27050951498265</t>
-  </si>
-  <si>
-    <t>444.874160239859</t>
-  </si>
-  <si>
-    <t>-0.295237318592639</t>
-  </si>
-  <si>
-    <t>705.479859464526</t>
-  </si>
-  <si>
-    <t>6.90061528366677</t>
-  </si>
-  <si>
-    <t>-0.0692368372906511</t>
-  </si>
-  <si>
-    <t>226.248404782496</t>
-  </si>
-  <si>
-    <t>0.00767316019286769</t>
-  </si>
-  <si>
-    <t>1.43910745238463</t>
-  </si>
-  <si>
-    <t>1.07489030476874</t>
-  </si>
-  <si>
-    <t>12.8947040292827</t>
-  </si>
-  <si>
-    <t>1.06587966647233</t>
-  </si>
-  <si>
-    <t>2324495273.04574</t>
-  </si>
-  <si>
-    <t>5.34485033154281</t>
-  </si>
-  <si>
-    <t>8.42447754511523</t>
-  </si>
-  <si>
-    <t>645.916493527442</t>
-  </si>
-  <si>
-    <t>-0.318701278506676</t>
-  </si>
-  <si>
-    <t>2912.34206171286</t>
-  </si>
-  <si>
-    <t>-0.0540545424303376</t>
-  </si>
-  <si>
-    <t>-0.053804237339173</t>
-  </si>
-  <si>
-    <t>-9.74186903236848</t>
-  </si>
-  <si>
-    <t>-0.0281876300807107</t>
-  </si>
-  <si>
-    <t>1.1390243759289</t>
-  </si>
-  <si>
-    <t>1.09282860788894</t>
-  </si>
-  <si>
-    <t>14.4892244311226</t>
-  </si>
-  <si>
-    <t>1.07035579884738</t>
-  </si>
-  <si>
-    <t>176865.675967451</t>
-  </si>
-  <si>
-    <t>4.84770550416024</t>
-  </si>
-  <si>
-    <t>1.13105065823796</t>
-  </si>
-  <si>
-    <t>0.425319498592214</t>
-  </si>
-  <si>
-    <t>8.35844350135421</t>
-  </si>
-  <si>
-    <t>2.0469862455687</t>
-  </si>
-  <si>
-    <t>1.68195254767833</t>
-  </si>
-  <si>
-    <t>6.43011521712018</t>
-  </si>
-  <si>
-    <t>1.0727060958923</t>
-  </si>
-  <si>
-    <t>15.318639742723</t>
-  </si>
-  <si>
-    <t>-9.35011395626608</t>
-  </si>
-  <si>
-    <t>-0.0625564132303872</t>
-  </si>
-  <si>
-    <t>2.65152128481584</t>
-  </si>
-  <si>
-    <t>1.07465570900249</t>
-  </si>
-  <si>
-    <t>2.52563117793425</t>
-  </si>
-  <si>
-    <t>0.916726810884613</t>
-  </si>
-  <si>
-    <t>-0.566932542489663</t>
-  </si>
-  <si>
-    <t>0.00673936286776022</t>
-  </si>
-  <si>
-    <t>3.59188179819319</t>
-  </si>
-  <si>
-    <t>1.91009633301827</t>
-  </si>
-  <si>
-    <t>8.28814660867539</t>
-  </si>
-  <si>
-    <t>3.45951405122114</t>
-  </si>
-  <si>
-    <t>235.535033338257</t>
-  </si>
-  <si>
-    <t>-0.228710773815658</t>
-  </si>
-  <si>
-    <t>1.87513188094379</t>
-  </si>
-  <si>
-    <t>330.903614637033</t>
-  </si>
-  <si>
-    <t>0.0227049917518195</t>
-  </si>
-  <si>
-    <t>1.08488068893303</t>
-  </si>
-  <si>
-    <t>2.40281293057455</t>
-  </si>
-  <si>
-    <t>1.10383888991836</t>
-  </si>
-  <si>
-    <t>1012754.55582938</t>
-  </si>
-  <si>
-    <t>5.5098148254211</t>
-  </si>
-  <si>
-    <t>3.88673585528424</t>
-  </si>
-  <si>
-    <t>4.97195052213689</t>
-  </si>
-  <si>
-    <t>10.0963636131681</t>
-  </si>
-  <si>
-    <t>4.75924004724442</t>
-  </si>
-  <si>
-    <t>8.96083242394395</t>
-  </si>
-  <si>
-    <t>2.56557574020641</t>
-  </si>
-  <si>
-    <t>1.05074619953841</t>
-  </si>
-  <si>
-    <t>2.29620797491546</t>
-  </si>
-  <si>
-    <t>1.06128523561422</t>
-  </si>
-  <si>
-    <t>81410635.1042216</t>
-  </si>
-  <si>
-    <t>4.11563400249526</t>
-  </si>
-  <si>
-    <t>6.01583704659705</t>
-  </si>
-  <si>
-    <t>4.15708324274242</t>
-  </si>
-  <si>
-    <t>9.64607069645039</t>
-  </si>
-  <si>
-    <t>6.12778248523433</t>
-  </si>
-  <si>
-    <t>30.5733464372156</t>
-  </si>
-  <si>
-    <t>7.52242584317581</t>
-  </si>
-  <si>
-    <t>-6.44176888608272</t>
-  </si>
-  <si>
-    <t>-0.0775195931678803</t>
-  </si>
-  <si>
-    <t>2.81607580900369</t>
-  </si>
-  <si>
-    <t>1.06049934050499</t>
-  </si>
-  <si>
-    <t>2.40090423267716</t>
-  </si>
-  <si>
-    <t>30.4194813647878</t>
-  </si>
-  <si>
-    <t>0.200742977409635</t>
-  </si>
-  <si>
-    <t>0.749990093492162</t>
-  </si>
-  <si>
-    <t>1.06520888736029</t>
-  </si>
-  <si>
-    <t>14.2584073754601</t>
-  </si>
-  <si>
-    <t>658.077384189239</t>
-  </si>
-  <si>
-    <t>0.119798402795546</t>
-  </si>
-  <si>
-    <t>-0.116752615003165</t>
-  </si>
-  <si>
-    <t>3885.92548240396</t>
-  </si>
-  <si>
-    <t>0.344268768934714</t>
-  </si>
-  <si>
-    <t>-0.0632646552558226</t>
-  </si>
-  <si>
-    <t>215.224521233873</t>
-  </si>
-  <si>
-    <t>0.0092226895464353</t>
-  </si>
-  <si>
-    <t>0.971484044703304</t>
-  </si>
-  <si>
-    <t>1.08479795549454</t>
-  </si>
-  <si>
-    <t>13.1141664516878</t>
-  </si>
-  <si>
-    <t>1.08165394404895</t>
-  </si>
-  <si>
-    <t>915.459344293143</t>
-  </si>
-  <si>
-    <t>4.0764939082385</t>
-  </si>
-  <si>
-    <t>411.801175463461</t>
-  </si>
-  <si>
-    <t>0.249404694247734</t>
-  </si>
-  <si>
-    <t>-0.125403152883758</t>
-  </si>
-  <si>
-    <t>3438.85338322737</t>
-  </si>
-  <si>
-    <t>0.334066822004652</t>
-  </si>
-  <si>
-    <t>-0.0537908452443163</t>
-  </si>
-  <si>
-    <t>183.295232046594</t>
-  </si>
-  <si>
-    <t>0.0171469085835706</t>
-  </si>
-  <si>
-    <t>1.44415113319998</t>
-  </si>
-  <si>
-    <t>1.05825920370154</t>
-  </si>
-  <si>
-    <t>14.3883743919952</t>
-  </si>
-  <si>
-    <t>1.08182814127538</t>
-  </si>
-  <si>
-    <t>0.182881787752702</t>
-  </si>
-  <si>
-    <t>8.9367398226473</t>
-  </si>
-  <si>
-    <t>1.0761675104974</t>
-  </si>
-  <si>
-    <t>0.38979666640545</t>
-  </si>
-  <si>
-    <t>8.50365444202409</t>
-  </si>
-  <si>
-    <t>175.946376572079</t>
-  </si>
-  <si>
-    <t>0.0106082818950074</t>
-  </si>
-  <si>
-    <t>0.865289188986618</t>
-  </si>
-  <si>
-    <t>1.04239378723679</t>
-  </si>
-  <si>
-    <t>14.4965015891033</t>
-  </si>
-  <si>
-    <t>1.08385431318405</t>
-  </si>
-  <si>
-    <t>0.0935725300821281</t>
-  </si>
-  <si>
-    <t>9.54471413832942</t>
-  </si>
-  <si>
-    <t>1.05248799083955</t>
-  </si>
-  <si>
-    <t>0.0935937095987342</t>
-  </si>
-  <si>
-    <t>9.93368167543397</t>
-  </si>
-  <si>
-    <t>1.06920390357387</t>
-  </si>
-  <si>
-    <t>13.4406481549727</t>
-  </si>
-  <si>
-    <t>1.11191005053061</t>
-  </si>
-  <si>
-    <t>971644703.767925</t>
-  </si>
-  <si>
-    <t>3.18523127158974</t>
-  </si>
-  <si>
-    <t>1177.93924169548</t>
-  </si>
-  <si>
-    <t>0.0371863264084425</t>
-  </si>
-  <si>
-    <t>-0.117544021746647</t>
-  </si>
-  <si>
-    <t>1047.11920495633</t>
-  </si>
-  <si>
-    <t>5.74008696898603</t>
-  </si>
-  <si>
-    <t>-0.0426485467824346</t>
-  </si>
-  <si>
-    <t>285.67731368596</t>
-  </si>
-  <si>
-    <t>0.00654096803108996</t>
-  </si>
-  <si>
-    <t>0.802525738828963</t>
-  </si>
-  <si>
-    <t>1.0536031812638</t>
-  </si>
-  <si>
-    <t>14.120010194428</t>
-  </si>
-  <si>
-    <t>1.06270148298963</t>
-  </si>
-  <si>
-    <t>11699790.4685034</t>
-  </si>
-  <si>
-    <t>3.64441283864224</t>
-  </si>
-  <si>
-    <t>303.800409141594</t>
-  </si>
-  <si>
-    <t>2.41067623280401</t>
-  </si>
-  <si>
-    <t>-0.0926570405935424</t>
-  </si>
-  <si>
-    <t>749.754365827202</t>
-  </si>
-  <si>
-    <t>6.59762740473102</t>
-  </si>
-  <si>
-    <t>-0.0552391438188</t>
-  </si>
-  <si>
-    <t>-1.46075506817729</t>
-  </si>
-  <si>
-    <t>-0.0315010909843945</t>
-  </si>
-  <si>
-    <t>0.321175666033283</t>
-  </si>
-  <si>
-    <t>1.09441709421278</t>
-  </si>
-  <si>
-    <t>14.6365550562891</t>
-  </si>
-  <si>
-    <t>1.09558528959461</t>
-  </si>
-  <si>
-    <t>1950.59085489219</t>
-  </si>
-  <si>
-    <t>3.78452342489893</t>
-  </si>
-  <si>
-    <t>2.67193969570054</t>
-  </si>
-  <si>
-    <t>0.170616779508202</t>
-  </si>
-  <si>
-    <t>7.90461272485507</t>
-  </si>
-  <si>
-    <t>1.09873118994765</t>
-  </si>
-  <si>
-    <t>0.423719217025668</t>
-  </si>
-  <si>
-    <t>7.60148876526548</t>
-  </si>
-  <si>
-    <t>42.8708805727626</t>
-  </si>
-  <si>
-    <t>0.0639487288307628</t>
-  </si>
-  <si>
-    <t>0.814619943618004</t>
-  </si>
-  <si>
-    <t>1.07558827997461</t>
-  </si>
-  <si>
-    <t>13.625261000001</t>
-  </si>
-  <si>
-    <t>1.80420633838177</t>
-  </si>
-  <si>
-    <t>0.305969218621418</t>
-  </si>
-  <si>
-    <t>11.3185757599376</t>
-  </si>
-  <si>
-    <t>1.09722317859849</t>
-  </si>
-  <si>
-    <t>0.155701174204724</t>
-  </si>
-  <si>
-    <t>7.88568049490878</t>
-  </si>
-  <si>
-    <t>1.08288979001032</t>
-  </si>
-  <si>
-    <t>13.1149410874077</t>
-  </si>
-  <si>
-    <t>0.903511153386631</t>
-  </si>
-  <si>
-    <t>-0.569483579958175</t>
-  </si>
-  <si>
-    <t>0.00769587688594398</t>
-  </si>
-  <si>
-    <t>9.39014860396908</t>
-  </si>
-  <si>
-    <t>426.547864170127</t>
-  </si>
-  <si>
-    <t>-0.287511943267866</t>
-  </si>
-  <si>
-    <t>110.654202760888</t>
-  </si>
-  <si>
-    <t>67.4617894621756</t>
-  </si>
-  <si>
-    <t>-0.0726186761099111</t>
-  </si>
-  <si>
-    <t>91.4158809797267</t>
-  </si>
-  <si>
-    <t>0.0278306876415672</t>
-  </si>
-  <si>
-    <t>0.576549652598114</t>
-  </si>
-  <si>
-    <t>1.08530906258186</t>
-  </si>
-  <si>
-    <t>15.1323337755665</t>
-  </si>
-  <si>
-    <t>1.08276450889502</t>
-  </si>
-  <si>
-    <t>2503475497.68822</t>
-  </si>
-  <si>
-    <t>2.84677293353251</t>
-  </si>
-  <si>
-    <t>4.12417141872506</t>
-  </si>
-  <si>
-    <t>731.670944825637</t>
-  </si>
-  <si>
-    <t>-0.329415484765423</t>
-  </si>
-  <si>
-    <t>4.12497822254016</t>
-  </si>
-  <si>
-    <t>180.095868019728</t>
-  </si>
-  <si>
-    <t>-0.220822055128673</t>
-  </si>
-  <si>
-    <t>-8.00506386404682</t>
-  </si>
-  <si>
-    <t>-0.0210094215884924</t>
-  </si>
-  <si>
-    <t>1.18029505433655</t>
-  </si>
-  <si>
-    <t>1.06934627191401</t>
-  </si>
-  <si>
-    <t>6.61672778905692</t>
-  </si>
-  <si>
-    <t>1.08365585279823</t>
-  </si>
-  <si>
-    <t>4625119.61574148</t>
-  </si>
-  <si>
-    <t>4.80551404962116</t>
-  </si>
-  <si>
-    <t>3.62547507479003</t>
-  </si>
-  <si>
-    <t>1.22879306034231</t>
-  </si>
-  <si>
-    <t>8.11415728811552</t>
-  </si>
-  <si>
-    <t>1.1188533457851</t>
-  </si>
-  <si>
-    <t>0.223852659099194</t>
-  </si>
-  <si>
-    <t>7.02443241684477</t>
-  </si>
-  <si>
-    <t>1.07706800407149</t>
-  </si>
-  <si>
-    <t>14.1209673381555</t>
-  </si>
-  <si>
-    <t>1.07988578800927</t>
-  </si>
-  <si>
-    <t>2.26636709235135</t>
-  </si>
-  <si>
-    <t>0.916826626983075</t>
-  </si>
-  <si>
-    <t>-0.574716330222224</t>
-  </si>
-  <si>
-    <t>0.00707136738612022</t>
-  </si>
-  <si>
-    <t>5.71767037727693</t>
-  </si>
-  <si>
-    <t>1.25125113025809</t>
-  </si>
-  <si>
-    <t>5.96215116390383</t>
-  </si>
-  <si>
-    <t>4.04557090434324</t>
-  </si>
-  <si>
-    <t>157.570525383322</t>
-  </si>
-  <si>
-    <t>-0.193832511621294</t>
-  </si>
-  <si>
-    <t>1.6459338004564</t>
-  </si>
-  <si>
-    <t>342.923469994074</t>
-  </si>
-  <si>
-    <t>0.0266469637573632</t>
-  </si>
-  <si>
-    <t>1.09082057814893</t>
-  </si>
-  <si>
-    <t>3.0716112898571</t>
-  </si>
-  <si>
-    <t>1.07748373129475</t>
-  </si>
-  <si>
-    <t>8154277946.15526</t>
-  </si>
-  <si>
-    <t>6.41688150078516</t>
-  </si>
-  <si>
-    <t>2.07171897825435</t>
-  </si>
-  <si>
-    <t>1.83556099324341</t>
-  </si>
-  <si>
-    <t>5.99373952438001</t>
-  </si>
-  <si>
-    <t>2.89057261402876</t>
-  </si>
-  <si>
-    <t>256.044347817511</t>
-  </si>
-  <si>
-    <t>0.110058776347892</t>
-  </si>
-  <si>
-    <t>1.06518620161652</t>
-  </si>
-  <si>
-    <t>2.61165156255923</t>
-  </si>
-  <si>
-    <t>1.08001485147659</t>
-  </si>
-  <si>
-    <t>1540562.45965296</t>
-  </si>
-  <si>
-    <t>4.41796237882346</t>
-  </si>
-  <si>
-    <t>4.38882945120808</t>
-  </si>
-  <si>
-    <t>2.27544189531477</t>
-  </si>
-  <si>
-    <t>8.30433739268466</t>
-  </si>
-  <si>
-    <t>16.2535321475443</t>
-  </si>
-  <si>
-    <t>0.802527308436265</t>
-  </si>
-  <si>
-    <t>0.915060306497129</t>
-  </si>
-  <si>
-    <t>1.05164101793503</t>
-  </si>
-  <si>
-    <t>1.88816721977979</t>
-  </si>
-  <si>
-    <t>1.07572878084022</t>
-  </si>
-  <si>
-    <t>-10.777446457564</t>
-  </si>
-  <si>
-    <t>3.68447461853425</t>
+    <t>1.09216291552768</t>
+  </si>
+  <si>
+    <t>2.24271336944942</t>
+  </si>
+  <si>
+    <t>0.946651225744867</t>
+  </si>
+  <si>
+    <t>-0.564333507462998</t>
+  </si>
+  <si>
+    <t>0.00769696926739998</t>
+  </si>
+  <si>
+    <t>4.61523368719727</t>
+  </si>
+  <si>
+    <t>1.21847890797823</t>
+  </si>
+  <si>
+    <t>6.74458393859252</t>
+  </si>
+  <si>
+    <t>7.25270521581193</t>
+  </si>
+  <si>
+    <t>381.546932782521</t>
+  </si>
+  <si>
+    <t>-0.168756301777147</t>
+  </si>
+  <si>
+    <t>1.82655861670222</t>
+  </si>
+  <si>
+    <t>418.984228855192</t>
+  </si>
+  <si>
+    <t>0.0158688090972911</t>
+  </si>
+  <si>
+    <t>1.05152796363326</t>
+  </si>
+  <si>
+    <t>2.93771409848397</t>
+  </si>
+  <si>
+    <t>1.07369466706094</t>
+  </si>
+  <si>
+    <t>804465115450.473</t>
+  </si>
+  <si>
+    <t>6.72138439367472</t>
+  </si>
+  <si>
+    <t>2.38941269010157</t>
+  </si>
+  <si>
+    <t>0.814715801156652</t>
+  </si>
+  <si>
+    <t>5.77383687427884</t>
+  </si>
+  <si>
+    <t>1.0610531875011</t>
+  </si>
+  <si>
+    <t>-1.79316340981799e-08</t>
+  </si>
+  <si>
+    <t>-0.000700470671817107</t>
+  </si>
+  <si>
+    <t>1.05348275303935</t>
+  </si>
+  <si>
+    <t>3.0848784936406</t>
+  </si>
+  <si>
+    <t>1.10112748632631</t>
+  </si>
+  <si>
+    <t>3567188846.50216</t>
+  </si>
+  <si>
+    <t>3.63109671713387</t>
+  </si>
+  <si>
+    <t>5.62959630347339</t>
+  </si>
+  <si>
+    <t>15.8453305948963</t>
+  </si>
+  <si>
+    <t>7.66150779964598</t>
+  </si>
+  <si>
+    <t>-6.22860241999523</t>
+  </si>
+  <si>
+    <t>-0.0302409701960848</t>
+  </si>
+  <si>
+    <t>0.818499690886137</t>
+  </si>
+  <si>
+    <t>1.04113368805492</t>
+  </si>
+  <si>
+    <t>2.44729264874888</t>
+  </si>
+  <si>
+    <t>1.06813077148769</t>
+  </si>
+  <si>
+    <t>14.5520187667991</t>
+  </si>
+  <si>
+    <t>457.980288545594</t>
+  </si>
+  <si>
+    <t>0.219857955291068</t>
+  </si>
+  <si>
+    <t>-0.115348385274285</t>
+  </si>
+  <si>
+    <t>1674.47275356344</t>
+  </si>
+  <si>
+    <t>0.490393532771597</t>
+  </si>
+  <si>
+    <t>-0.0539764353221524</t>
+  </si>
+  <si>
+    <t>207.43538005094</t>
+  </si>
+  <si>
+    <t>0.008358346707079</t>
+  </si>
+  <si>
+    <t>0.566997887288466</t>
+  </si>
+  <si>
+    <t>1.09520504490814</t>
+  </si>
+  <si>
+    <t>13.9607839330889</t>
+  </si>
+  <si>
+    <t>1.09117040553005</t>
+  </si>
+  <si>
+    <t>5502.59401760835</t>
+  </si>
+  <si>
+    <t>4.62223351384336</t>
+  </si>
+  <si>
+    <t>129.612122864781</t>
+  </si>
+  <si>
+    <t>48.5814874309069</t>
+  </si>
+  <si>
+    <t>-0.136031180450276</t>
+  </si>
+  <si>
+    <t>1928.29442646627</t>
+  </si>
+  <si>
+    <t>0.611751712089361</t>
+  </si>
+  <si>
+    <t>-0.049851360935554</t>
+  </si>
+  <si>
+    <t>196.918211526415</t>
+  </si>
+  <si>
+    <t>0.0163334947774899</t>
+  </si>
+  <si>
+    <t>0.367316752241339</t>
+  </si>
+  <si>
+    <t>1.09282736985702</t>
+  </si>
+  <si>
+    <t>14.7081689648274</t>
+  </si>
+  <si>
+    <t>1.08669276262069</t>
+  </si>
+  <si>
+    <t>0.235470213785797</t>
+  </si>
+  <si>
+    <t>9.00503730384303</t>
+  </si>
+  <si>
+    <t>1.08202126736801</t>
+  </si>
+  <si>
+    <t>0.0457093002498176</t>
+  </si>
+  <si>
+    <t>7.73528253026129</t>
+  </si>
+  <si>
+    <t>122.286700281341</t>
+  </si>
+  <si>
+    <t>0.0152267553076801</t>
+  </si>
+  <si>
+    <t>1.04680985575619</t>
+  </si>
+  <si>
+    <t>1.07764131398745</t>
+  </si>
+  <si>
+    <t>14.1788909314111</t>
+  </si>
+  <si>
+    <t>1.09031702293832</t>
+  </si>
+  <si>
+    <t>0.128554418881211</t>
+  </si>
+  <si>
+    <t>10.015255900872</t>
+  </si>
+  <si>
+    <t>1.06190749576217</t>
+  </si>
+  <si>
+    <t>0.223004828185096</t>
+  </si>
+  <si>
+    <t>9.02009758880597</t>
+  </si>
+  <si>
+    <t>1.08533165662226</t>
+  </si>
+  <si>
+    <t>13.8729547508101</t>
+  </si>
+  <si>
+    <t>1.07365483244518</t>
+  </si>
+  <si>
+    <t>9826517489.93072</t>
+  </si>
+  <si>
+    <t>3.95482189334555</t>
+  </si>
+  <si>
+    <t>293.825835451164</t>
+  </si>
+  <si>
+    <t>1.58292627752389</t>
+  </si>
+  <si>
+    <t>-0.108613628077827</t>
+  </si>
+  <si>
+    <t>377.605856897454</t>
+  </si>
+  <si>
+    <t>22.8206632235114</t>
+  </si>
+  <si>
+    <t>-0.0500805873506864</t>
+  </si>
+  <si>
+    <t>164.882296126959</t>
+  </si>
+  <si>
+    <t>0.0108960218746792</t>
+  </si>
+  <si>
+    <t>1.04921349999164</t>
+  </si>
+  <si>
+    <t>1.06764787819798</t>
+  </si>
+  <si>
+    <t>14.064685421598</t>
+  </si>
+  <si>
+    <t>1.08031667646123</t>
+  </si>
+  <si>
+    <t>15062.0666152714</t>
+  </si>
+  <si>
+    <t>3.45212813144202</t>
+  </si>
+  <si>
+    <t>140.573708370906</t>
+  </si>
+  <si>
+    <t>135.482179713706</t>
+  </si>
+  <si>
+    <t>-0.11552268926138</t>
+  </si>
+  <si>
+    <t>1018.83231860591</t>
+  </si>
+  <si>
+    <t>6.5082708343045</t>
+  </si>
+  <si>
+    <t>-0.064422145214349</t>
+  </si>
+  <si>
+    <t>31.214815678787</t>
+  </si>
+  <si>
+    <t>0.166064883560268</t>
+  </si>
+  <si>
+    <t>1.92167626037221</t>
+  </si>
+  <si>
+    <t>1.08537462948151</t>
+  </si>
+  <si>
+    <t>14.0906111269287</t>
+  </si>
+  <si>
+    <t>1.06580450358139</t>
+  </si>
+  <si>
+    <t>44295.7872955427</t>
+  </si>
+  <si>
+    <t>5.79825860777322</t>
+  </si>
+  <si>
+    <t>1.07987418699521</t>
+  </si>
+  <si>
+    <t>0.283414963508561</t>
+  </si>
+  <si>
+    <t>9.52222286814981</t>
+  </si>
+  <si>
+    <t>1.13574283267636</t>
+  </si>
+  <si>
+    <t>0.816622316814435</t>
+  </si>
+  <si>
+    <t>8.04573242235702</t>
+  </si>
+  <si>
+    <t>23.9978131471698</t>
+  </si>
+  <si>
+    <t>0.278759492078207</t>
+  </si>
+  <si>
+    <t>1.17188224694769</t>
+  </si>
+  <si>
+    <t>1.06564617195386</t>
+  </si>
+  <si>
+    <t>2.16182803911631</t>
+  </si>
+  <si>
+    <t>1.07821148622223</t>
+  </si>
+  <si>
+    <t>0.188800870982687</t>
+  </si>
+  <si>
+    <t>9.56323884668344</t>
+  </si>
+  <si>
+    <t>1.08630760222208</t>
+  </si>
+  <si>
+    <t>0.213093568858345</t>
+  </si>
+  <si>
+    <t>7.87320612642131</t>
+  </si>
+  <si>
+    <t>1.08895673299649</t>
+  </si>
+  <si>
+    <t>14.6535231283522</t>
+  </si>
+  <si>
+    <t>0.889800181979379</t>
+  </si>
+  <si>
+    <t>-0.577042619947523</t>
+  </si>
+  <si>
+    <t>0.00617013584146168</t>
+  </si>
+  <si>
+    <t>16.7616597167531</t>
+  </si>
+  <si>
+    <t>6173.68191153345</t>
+  </si>
+  <si>
+    <t>-0.295176717175285</t>
+  </si>
+  <si>
+    <t>827.577429191723</t>
+  </si>
+  <si>
+    <t>5.93179439718217</t>
+  </si>
+  <si>
+    <t>-0.0536467744764089</t>
+  </si>
+  <si>
+    <t>218.798661510667</t>
+  </si>
+  <si>
+    <t>0.00818773851278277</t>
+  </si>
+  <si>
+    <t>1.10815765940849</t>
+  </si>
+  <si>
+    <t>1.07094490791556</t>
+  </si>
+  <si>
+    <t>14.4270387370678</t>
+  </si>
+  <si>
+    <t>1.09910859525642</t>
+  </si>
+  <si>
+    <t>5780140104.95095</t>
+  </si>
+  <si>
+    <t>4.47620723741479</t>
+  </si>
+  <si>
+    <t>24.0867648422352</t>
+  </si>
+  <si>
+    <t>505.163268459411</t>
+  </si>
+  <si>
+    <t>-0.319145018825331</t>
+  </si>
+  <si>
+    <t>2568.63032186035</t>
+  </si>
+  <si>
+    <t>-0.0534809925837534</t>
+  </si>
+  <si>
+    <t>-0.0513645012780563</t>
+  </si>
+  <si>
+    <t>-2.15443566368043</t>
+  </si>
+  <si>
+    <t>-0.0199236667827893</t>
+  </si>
+  <si>
+    <t>1.06361236812905</t>
+  </si>
+  <si>
+    <t>1.0687981968258</t>
+  </si>
+  <si>
+    <t>13.0863155161804</t>
+  </si>
+  <si>
+    <t>1.05156366620427</t>
+  </si>
+  <si>
+    <t>155598763.888727</t>
+  </si>
+  <si>
+    <t>5.36401821482535</t>
+  </si>
+  <si>
+    <t>1.13614442389855</t>
+  </si>
+  <si>
+    <t>0.591688994605426</t>
+  </si>
+  <si>
+    <t>7.17059486492189</t>
+  </si>
+  <si>
+    <t>1.08077446432034</t>
+  </si>
+  <si>
+    <t>0.831666469025883</t>
+  </si>
+  <si>
+    <t>7.91077983162741</t>
+  </si>
+  <si>
+    <t>1.08210837053849</t>
+  </si>
+  <si>
+    <t>14.3106793215651</t>
+  </si>
+  <si>
+    <t>-9.40621517210099</t>
+  </si>
+  <si>
+    <t>-0.0582402652515577</t>
+  </si>
+  <si>
+    <t>2.30695563156981</t>
+  </si>
+  <si>
+    <t>1.04034534206597</t>
+  </si>
+  <si>
+    <t>2.21939601670306</t>
+  </si>
+  <si>
+    <t>0.871107530819337</t>
+  </si>
+  <si>
+    <t>-0.584213627081489</t>
+  </si>
+  <si>
+    <t>0.00603095382185492</t>
+  </si>
+  <si>
+    <t>5.57941077413337</t>
+  </si>
+  <si>
+    <t>1.9446376075546</t>
+  </si>
+  <si>
+    <t>6.77509318430994</t>
+  </si>
+  <si>
+    <t>6.92353589660427</t>
+  </si>
+  <si>
+    <t>119.524722825334</t>
+  </si>
+  <si>
+    <t>-0.166366291271467</t>
+  </si>
+  <si>
+    <t>1.87177571402146</t>
+  </si>
+  <si>
+    <t>374.671977880394</t>
+  </si>
+  <si>
+    <t>0.0348173077174762</t>
+  </si>
+  <si>
+    <t>1.0589258776095</t>
+  </si>
+  <si>
+    <t>3.26564337312399</t>
+  </si>
+  <si>
+    <t>1.05613815325187</t>
+  </si>
+  <si>
+    <t>497940830.641988</t>
+  </si>
+  <si>
+    <t>3.59131071377716</t>
+  </si>
+  <si>
+    <t>3.60545362555296</t>
+  </si>
+  <si>
+    <t>0.741844707231583</t>
+  </si>
+  <si>
+    <t>8.02505236001837</t>
+  </si>
+  <si>
+    <t>5.4678147536418</t>
+  </si>
+  <si>
+    <t>4.00759795216957</t>
+  </si>
+  <si>
+    <t>0.496348637815387</t>
+  </si>
+  <si>
+    <t>1.06185083059566</t>
+  </si>
+  <si>
+    <t>3.19393698518038</t>
+  </si>
+  <si>
+    <t>1.08279423461258</t>
+  </si>
+  <si>
+    <t>164468536.222306</t>
+  </si>
+  <si>
+    <t>3.29580340456438</t>
+  </si>
+  <si>
+    <t>4.76830996253266</t>
+  </si>
+  <si>
+    <t>9.1488727673079</t>
+  </si>
+  <si>
+    <t>10.5946678079173</t>
+  </si>
+  <si>
+    <t>7.30628305183573</t>
+  </si>
+  <si>
+    <t>3.57876996471456</t>
+  </si>
+  <si>
+    <t>6.61809905417627</t>
+  </si>
+  <si>
+    <t>-4.55462768134353</t>
+  </si>
+  <si>
+    <t>-0.0832000127934092</t>
+  </si>
+  <si>
+    <t>2.6468301750735</t>
+  </si>
+  <si>
+    <t>1.05123144830862</t>
+  </si>
+  <si>
+    <t>2.96148139649224</t>
+  </si>
+  <si>
+    <t>33.0992686898302</t>
+  </si>
+  <si>
+    <t>0.170042928345807</t>
+  </si>
+  <si>
+    <t>1.96507080004144</t>
+  </si>
+  <si>
+    <t>1.07086351313168</t>
+  </si>
+  <si>
+    <t>14.9086335150598</t>
+  </si>
+  <si>
+    <t>670.331556471021</t>
+  </si>
+  <si>
+    <t>0.132729722314268</t>
+  </si>
+  <si>
+    <t>-0.102878584435875</t>
+  </si>
+  <si>
+    <t>2607.47276091435</t>
+  </si>
+  <si>
+    <t>0.324521329946528</t>
+  </si>
+  <si>
+    <t>-0.0601739745844565</t>
+  </si>
+  <si>
+    <t>202.745623286774</t>
+  </si>
+  <si>
+    <t>0.00897914222698718</t>
+  </si>
+  <si>
+    <t>0.766279739575789</t>
+  </si>
+  <si>
+    <t>1.08385089234454</t>
+  </si>
+  <si>
+    <t>14.2671814816044</t>
+  </si>
+  <si>
+    <t>1.08522539414927</t>
+  </si>
+  <si>
+    <t>4996.48387413814</t>
+  </si>
+  <si>
+    <t>4.82965506398027</t>
+  </si>
+  <si>
+    <t>727.914628340225</t>
+  </si>
+  <si>
+    <t>0.187885894180318</t>
+  </si>
+  <si>
+    <t>-0.120448783419505</t>
+  </si>
+  <si>
+    <t>3319.35218565261</t>
+  </si>
+  <si>
+    <t>0.347815575165888</t>
+  </si>
+  <si>
+    <t>-0.0563737456017648</t>
+  </si>
+  <si>
+    <t>197.118112792226</t>
+  </si>
+  <si>
+    <t>0.0110122390687852</t>
+  </si>
+  <si>
+    <t>1.67137676712688</t>
+  </si>
+  <si>
+    <t>1.05764143174322</t>
+  </si>
+  <si>
+    <t>15.3667100801871</t>
+  </si>
+  <si>
+    <t>1.07750954415116</t>
+  </si>
+  <si>
+    <t>0.107202169864792</t>
+  </si>
+  <si>
+    <t>8.19750143778769</t>
+  </si>
+  <si>
+    <t>1.06743117470967</t>
+  </si>
+  <si>
+    <t>0.500560187340925</t>
+  </si>
+  <si>
+    <t>8.47307117785413</t>
+  </si>
+  <si>
+    <t>160.918260676803</t>
+  </si>
+  <si>
+    <t>0.0101431312898651</t>
+  </si>
+  <si>
+    <t>1.21105236671921</t>
+  </si>
+  <si>
+    <t>1.05295447884058</t>
+  </si>
+  <si>
+    <t>15.576870895411</t>
+  </si>
+  <si>
+    <t>1.03108469272655</t>
+  </si>
+  <si>
+    <t>0.0705340014411967</t>
+  </si>
+  <si>
+    <t>9.93418350335842</t>
+  </si>
+  <si>
+    <t>1.06264421780698</t>
+  </si>
+  <si>
+    <t>0.196853270978172</t>
+  </si>
+  <si>
+    <t>8.76015029983314</t>
+  </si>
+  <si>
+    <t>1.09149246044529</t>
+  </si>
+  <si>
+    <t>13.6410813562932</t>
+  </si>
+  <si>
+    <t>1.06624222484385</t>
+  </si>
+  <si>
+    <t>40161308.6566358</t>
+  </si>
+  <si>
+    <t>2.37938724958865</t>
+  </si>
+  <si>
+    <t>1399.25387211807</t>
+  </si>
+  <si>
+    <t>0.0308776163136158</t>
+  </si>
+  <si>
+    <t>-0.112944725545648</t>
+  </si>
+  <si>
+    <t>558.61371531764</t>
+  </si>
+  <si>
+    <t>9.81061053982522</t>
+  </si>
+  <si>
+    <t>-0.0687446741524431</t>
+  </si>
+  <si>
+    <t>271.045015578322</t>
+  </si>
+  <si>
+    <t>0.00811952030162807</t>
+  </si>
+  <si>
+    <t>0.717858936273898</t>
+  </si>
+  <si>
+    <t>1.06560557455719</t>
+  </si>
+  <si>
+    <t>13.7405197022039</t>
+  </si>
+  <si>
+    <t>1.13324691840381</t>
+  </si>
+  <si>
+    <t>234581.156489724</t>
+  </si>
+  <si>
+    <t>2.87345160437809</t>
+  </si>
+  <si>
+    <t>191.798026130217</t>
+  </si>
+  <si>
+    <t>1.99478267352215</t>
+  </si>
+  <si>
+    <t>-0.11952302568253</t>
+  </si>
+  <si>
+    <t>679.530722185821</t>
+  </si>
+  <si>
+    <t>7.29060370186032</t>
+  </si>
+  <si>
+    <t>-0.0556324938629683</t>
+  </si>
+  <si>
+    <t>-5.53771223205075</t>
+  </si>
+  <si>
+    <t>-0.0253427631691536</t>
+  </si>
+  <si>
+    <t>0.318202178699247</t>
+  </si>
+  <si>
+    <t>1.06600809910884</t>
+  </si>
+  <si>
+    <t>13.6764919634107</t>
+  </si>
+  <si>
+    <t>1.06527464313514</t>
+  </si>
+  <si>
+    <t>4663303.2850931</t>
+  </si>
+  <si>
+    <t>7.36457944365458</t>
+  </si>
+  <si>
+    <t>2.46179193168375</t>
+  </si>
+  <si>
+    <t>0.29432788709547</t>
+  </si>
+  <si>
+    <t>8.02044577283641</t>
+  </si>
+  <si>
+    <t>1.0785772348892</t>
+  </si>
+  <si>
+    <t>0.347839004527004</t>
+  </si>
+  <si>
+    <t>7.22381930002667</t>
+  </si>
+  <si>
+    <t>43.7189110609291</t>
+  </si>
+  <si>
+    <t>0.0743101675006637</t>
+  </si>
+  <si>
+    <t>0.665003799996272</t>
+  </si>
+  <si>
+    <t>1.07819017232479</t>
+  </si>
+  <si>
+    <t>13.7967402084334</t>
+  </si>
+  <si>
+    <t>1.06839095905971</t>
+  </si>
+  <si>
+    <t>0.350661584916759</t>
+  </si>
+  <si>
+    <t>9.05051803692839</t>
+  </si>
+  <si>
+    <t>1.06532966554742</t>
+  </si>
+  <si>
+    <t>0.323049050343054</t>
+  </si>
+  <si>
+    <t>8.41303625151416</t>
+  </si>
+  <si>
+    <t>1.08864317500876</t>
+  </si>
+  <si>
+    <t>14.0000565882446</t>
+  </si>
+  <si>
+    <t>0.939859917696266</t>
+  </si>
+  <si>
+    <t>-0.562319290777334</t>
+  </si>
+  <si>
+    <t>0.00667081358389746</t>
+  </si>
+  <si>
+    <t>13.0575773771194</t>
+  </si>
+  <si>
+    <t>1571.78969649045</t>
+  </si>
+  <si>
+    <t>-0.345220193404401</t>
+  </si>
+  <si>
+    <t>122.936729382516</t>
+  </si>
+  <si>
+    <t>34.612200355202</t>
+  </si>
+  <si>
+    <t>-0.0692032963944852</t>
+  </si>
+  <si>
+    <t>87.2209326422143</t>
+  </si>
+  <si>
+    <t>0.0215487281340012</t>
+  </si>
+  <si>
+    <t>0.579459834555351</t>
+  </si>
+  <si>
+    <t>1.06114090433664</t>
+  </si>
+  <si>
+    <t>13.3980603375983</t>
+  </si>
+  <si>
+    <t>1.07010294125252</t>
+  </si>
+  <si>
+    <t>1316150651.84669</t>
+  </si>
+  <si>
+    <t>3.38039906798903</t>
+  </si>
+  <si>
+    <t>3.37325922242074</t>
+  </si>
+  <si>
+    <t>3664.25760722459</t>
+  </si>
+  <si>
+    <t>-0.377298348575628</t>
+  </si>
+  <si>
+    <t>13.1056838885017</t>
+  </si>
+  <si>
+    <t>217.649336233007</t>
+  </si>
+  <si>
+    <t>-0.156127865156631</t>
+  </si>
+  <si>
+    <t>-8.57925509589597</t>
+  </si>
+  <si>
+    <t>-0.022370155576736</t>
+  </si>
+  <si>
+    <t>0.520055123847532</t>
+  </si>
+  <si>
+    <t>1.06697254708645</t>
+  </si>
+  <si>
+    <t>2.27325979277838</t>
+  </si>
+  <si>
+    <t>1.07270192154405</t>
+  </si>
+  <si>
+    <t>3722.68865999004</t>
+  </si>
+  <si>
+    <t>2.85985961784047</t>
+  </si>
+  <si>
+    <t>3.51480984556044</t>
+  </si>
+  <si>
+    <t>0.534104178826071</t>
+  </si>
+  <si>
+    <t>7.44822780168843</t>
+  </si>
+  <si>
+    <t>1.10840542227698</t>
+  </si>
+  <si>
+    <t>0.336427641372665</t>
+  </si>
+  <si>
+    <t>6.51667137563295</t>
+  </si>
+  <si>
+    <t>1.0942516900605</t>
+  </si>
+  <si>
+    <t>14.1681337126937</t>
+  </si>
+  <si>
+    <t>1.07373008154473</t>
+  </si>
+  <si>
+    <t>2.3324208430961</t>
+  </si>
+  <si>
+    <t>0.930824645880032</t>
+  </si>
+  <si>
+    <t>-0.544562228429161</t>
+  </si>
+  <si>
+    <t>0.00584753777065401</t>
+  </si>
+  <si>
+    <t>7.49204637887128</t>
+  </si>
+  <si>
+    <t>2.73304061408186</t>
+  </si>
+  <si>
+    <t>5.91142946772824</t>
+  </si>
+  <si>
+    <t>32.0942298320231</t>
+  </si>
+  <si>
+    <t>358.204943239701</t>
+  </si>
+  <si>
+    <t>-0.153872242038436</t>
+  </si>
+  <si>
+    <t>1.22665449716423</t>
+  </si>
+  <si>
+    <t>414.060083785143</t>
+  </si>
+  <si>
+    <t>0.0196862016239161</t>
+  </si>
+  <si>
+    <t>1.02431064855349</t>
+  </si>
+  <si>
+    <t>2.20550849762583</t>
+  </si>
+  <si>
+    <t>1.0669911178186</t>
+  </si>
+  <si>
+    <t>28798698750.9566</t>
+  </si>
+  <si>
+    <t>5.16396407055078</t>
+  </si>
+  <si>
+    <t>4.5968447372846</t>
+  </si>
+  <si>
+    <t>0.443267583359159</t>
+  </si>
+  <si>
+    <t>6.21100410046524</t>
+  </si>
+  <si>
+    <t>3.07849082075773</t>
+  </si>
+  <si>
+    <t>268.598057501794</t>
+  </si>
+  <si>
+    <t>0.395343891984587</t>
+  </si>
+  <si>
+    <t>1.06318990765887</t>
+  </si>
+  <si>
+    <t>2.26276457290783</t>
+  </si>
+  <si>
+    <t>1.10997452867657</t>
+  </si>
+  <si>
+    <t>51552150.2164186</t>
+  </si>
+  <si>
+    <t>3.6565534313684</t>
+  </si>
+  <si>
+    <t>3.38399578509959</t>
+  </si>
+  <si>
+    <t>3.70281203082398</t>
+  </si>
+  <si>
+    <t>7.04137381516802</t>
+  </si>
+  <si>
+    <t>18.5239875236774</t>
+  </si>
+  <si>
+    <t>0.432087422572173</t>
+  </si>
+  <si>
+    <t>1.15748332235176</t>
+  </si>
+  <si>
+    <t>1.10607528561802</t>
+  </si>
+  <si>
+    <t>2.29662709879574</t>
+  </si>
+  <si>
+    <t>1.05728048206806</t>
+  </si>
+  <si>
+    <t>2902.41136202745</t>
+  </si>
+  <si>
+    <t>3.20579686463299</t>
   </si>
   <si>
     <t>Value of C = 0.010000</t>
